--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -15,15 +15,12 @@
     <sheet name="对象" sheetId="4" r:id="rId1"/>
     <sheet name="玩家" sheetId="5" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +43,22 @@
   </si>
   <si>
     <t>新手装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,18 +446,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -454,8 +468,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -465,8 +485,11 @@
       <c r="C2">
         <v>1002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -476,8 +499,11 @@
       <c r="C3">
         <v>1002</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -487,8 +513,11 @@
       <c r="C4">
         <v>1002</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -498,8 +527,11 @@
       <c r="C5">
         <v>1002</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -509,8 +541,11 @@
       <c r="C6">
         <v>1002</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -520,8 +555,11 @@
       <c r="C7">
         <v>1002</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -531,8 +569,11 @@
       <c r="C8">
         <v>1002</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -542,8 +583,11 @@
       <c r="C9">
         <v>1002</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -553,8 +597,11 @@
       <c r="C10">
         <v>1002</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -564,8 +611,11 @@
       <c r="C11">
         <v>1002</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -575,8 +625,11 @@
       <c r="C12">
         <v>1002</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -585,6 +638,9 @@
       </c>
       <c r="C13">
         <v>1002</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -596,10 +652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -607,9 +663,10 @@
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -619,8 +676,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -629,6 +692,12 @@
       </c>
       <c r="C2">
         <v>1001</v>
+      </c>
+      <c r="D2">
+        <v>10001</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -15,6 +15,9 @@
     <sheet name="对象" sheetId="4" r:id="rId1"/>
     <sheet name="玩家" sheetId="5" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -486,7 +489,7 @@
         <v>1002</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -500,7 +503,7 @@
         <v>1002</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -514,7 +517,7 @@
         <v>1002</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -528,7 +531,7 @@
         <v>1002</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -542,7 +545,7 @@
         <v>1002</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -556,7 +559,7 @@
         <v>1002</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -570,7 +573,7 @@
         <v>1002</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -584,7 +587,7 @@
         <v>1002</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -598,7 +601,7 @@
         <v>1002</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -612,7 +615,7 @@
         <v>1002</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -626,7 +629,7 @@
         <v>1002</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -640,7 +643,7 @@
         <v>1002</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>200001</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2</v>
+        <v>200002</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
+        <v>200003</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>200004</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5</v>
+        <v>200005</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>6</v>
+        <v>200006</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>7</v>
+        <v>200007</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>8</v>
+        <v>200008</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>9</v>
+        <v>200009</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>10</v>
+        <v>200010</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>11</v>
+        <v>200011</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>12</v>
+        <v>200012</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,37 @@
   </si>
   <si>
     <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,25,50,50</t>
+  </si>
+  <si>
+    <t>0,25,50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,60,48,111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,19 +480,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -477,8 +509,17 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>200001</v>
       </c>
@@ -491,8 +532,17 @@
       <c r="E2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>200002</v>
       </c>
@@ -505,8 +555,17 @@
       <c r="E3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>200003</v>
       </c>
@@ -519,8 +578,17 @@
       <c r="E4">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>200004</v>
       </c>
@@ -533,8 +601,17 @@
       <c r="E5">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>200005</v>
       </c>
@@ -547,8 +624,17 @@
       <c r="E6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>200006</v>
       </c>
@@ -561,8 +647,17 @@
       <c r="E7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200007</v>
       </c>
@@ -575,8 +670,17 @@
       <c r="E8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>200008</v>
       </c>
@@ -589,8 +693,17 @@
       <c r="E9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>200009</v>
       </c>
@@ -603,8 +716,17 @@
       <c r="E10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>200010</v>
       </c>
@@ -617,8 +739,17 @@
       <c r="E11">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>200011</v>
       </c>
@@ -631,8 +762,17 @@
       <c r="E12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>200012</v>
       </c>
@@ -644,6 +784,15 @@
       </c>
       <c r="E13">
         <v>25</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -655,10 +804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,9 +816,11 @@
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -685,8 +836,17 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -701,6 +861,15 @@
       </c>
       <c r="E2">
         <v>30</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -73,13 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,25,50,50</t>
-  </si>
-  <si>
-    <t>0,25,50,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,60,48,111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,6 +86,13 @@
   </si>
   <si>
     <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,25,25</t>
+  </si>
+  <si>
+    <t>0,25,25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -536,10 +536,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -582,10 +582,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -628,10 +628,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -651,10 +651,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -674,10 +674,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -697,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -720,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -743,10 +743,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -766,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -789,10 +789,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -843,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -863,13 +863,13 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -14,6 +14,12 @@
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
     <sheet name="玩家" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="技能分析" sheetId="7" r:id="rId4"/>
+    <sheet name="buff分析" sheetId="8" r:id="rId5"/>
+    <sheet name="力量提升元素" sheetId="9" r:id="rId6"/>
+    <sheet name="场景分析" sheetId="10" r:id="rId7"/>
+    <sheet name="角色" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="365">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,38 +67,1295 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是否碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,60,48,111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,25,25</t>
+  </si>
+  <si>
+    <t>0,25,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1秒 生成 20怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是8级的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否碰撞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,60,48,111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,25,25</t>
-  </si>
-  <si>
-    <t>0,25,25</t>
+    <t>鞭子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射1枚射弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高伤害，大范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五芒星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清楚视野内的一切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生破坏性区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机攻击敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向最近的敌人发射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在盘旋的区域内进行轰炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白之书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少武器冷却时间8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烛台</t>
+  </si>
+  <si>
+    <t>烛台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使攻击范围增加10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色可从更远的地方拾取物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射弹速度提高10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝面对的方向快速发射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空虚之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加最大生命值20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叶草</t>
+  </si>
+  <si>
+    <t>获得 10% 的幸运值</t>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害增加 5%（最多 +25%）</t>
+  </si>
+  <si>
+    <t>恢复</t>
+  </si>
+  <si>
+    <t>每秒恢复 0.1 点生命值（最多 0.5 点）</t>
+  </si>
+  <si>
+    <t>最大生命值</t>
+  </si>
+  <si>
+    <t>最大生命值每级别增加 10%（最多 +30%）</t>
+  </si>
+  <si>
+    <t>护甲</t>
+  </si>
+  <si>
+    <t>受到伤害每级减少 1 点（最多 -3 点）</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>攻击范围每级增加 5%（最多 +10%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞弹的移动速度每级提升 10%（最多 20%）</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>使用武器的速度每级提高 2.5%（最多 5%）</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>武器效果持续时间每级别延长 15%（最多 +30%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>发射 1 枚飞弹（所有武器）</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色的移动速度每级提升 5%（最多 10%）</t>
+  </si>
+  <si>
+    <t>磁铁</t>
+  </si>
+  <si>
+    <t>物品拾取范围每级 +25%（最多 +50%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>有几率增加 10% 的幸运值（最多 +30%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长</t>
+  </si>
+  <si>
+    <t>获得 3% 的经验值（最多 15%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪</t>
+  </si>
+  <si>
+    <t>获得 10% 的金币（最多 +50%）</t>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
+    <t>防止一次攻击造成的伤害。可与月桂叠加</t>
+  </si>
+  <si>
+    <t>复活</t>
+  </si>
+  <si>
+    <t>以 50%生命值复活一次</t>
+  </si>
+  <si>
+    <t>重新选择</t>
+  </si>
+  <si>
+    <t>允许在升级时获得不同的选择。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>允许跳过升级选择并获得经验。</t>
+  </si>
+  <si>
+    <t>诅咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人的速度，生命值，数量和出现的次数，增加10%(最高+50%)</t>
+  </si>
+  <si>
+    <t>疯狂森林</t>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景加持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币加成50%</t>
+  </si>
+  <si>
+    <t>城堡是个谎言， 但这里仍有免费的烤鸡， 所以没关系</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌图书馆</t>
+  </si>
+  <si>
+    <t>金币加成50%\n幸运加成10%</t>
+  </si>
+  <si>
+    <t>这个安静的长条形图书馆是休息、 冥想和搜寻烤鸡的理想场所。 但这里为什么会有石面具？</t>
+  </si>
+  <si>
+    <t>绿地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人生命值 +50%</t>
+  </si>
+  <si>
+    <t>挑战</t>
+  </si>
+  <si>
+    <t>不允许凡人进入的地方。 命运时时刻刻都在改变。</t>
+  </si>
+  <si>
+    <t>奶牛场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊尔莫利斯</t>
+  </si>
+  <si>
+    <t>藏在这里的神奇地图， 可能最终会带我们找到吸血鬼， 或者至少找到更多的烤鸡。</t>
+  </si>
+  <si>
+    <t>这里有一个不存在的地方。 快来放松身心，享受生活。 我们乡下见。</t>
+  </si>
+  <si>
+    <t>50% 黄金加成\n20% 幸运加成\n敌人生命值 +60%</t>
+  </si>
+  <si>
+    <t>血鞭</t>
+  </si>
+  <si>
+    <t>进化的鞭子，可以造成暴击伤害并吸收生命值。</t>
+  </si>
+  <si>
+    <t>需要：空虚之心</t>
+  </si>
+  <si>
+    <t>水平攻击，可穿透敌人。</t>
+  </si>
+  <si>
+    <t>无视：速度、持续时间。</t>
+  </si>
+  <si>
+    <t>无视：持续时间。</t>
+  </si>
+  <si>
+    <t>圣魔杖</t>
+  </si>
+  <si>
+    <t>需要：空白之书。</t>
+  </si>
+  <si>
+    <t>进化的魔杖，发射时没有延迟。</t>
+  </si>
+  <si>
+    <t>死神镰刀</t>
+  </si>
+  <si>
+    <t>进化的斧头。可穿透敌人。</t>
+  </si>
+  <si>
+    <t>需要：烛台。</t>
+  </si>
+  <si>
+    <t>千刃</t>
+  </si>
+  <si>
+    <t>进化的飞刀。发射时没有延迟。</t>
+  </si>
+  <si>
+    <t>需要：护腕</t>
+  </si>
+  <si>
+    <t>无视：速度</t>
+  </si>
+  <si>
+    <t>符文追踪器</t>
+  </si>
+  <si>
+    <t>可穿透敌人，四处反弹。</t>
+  </si>
+  <si>
+    <t>最佳搭配：速度、持续时间。</t>
+  </si>
+  <si>
+    <t>向随机敌人发射，造成大量伤害。</t>
+  </si>
+  <si>
+    <t>无视：持续时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱之火</t>
+  </si>
+  <si>
+    <t>进化的火焰之杖。可穿透敌人</t>
+  </si>
+  <si>
+    <t>需要：菠菜。</t>
+  </si>
+  <si>
+    <t>亡灵秘籍</t>
+  </si>
+  <si>
+    <t>围绕角色旋转。</t>
+  </si>
+  <si>
+    <t>最佳搭配：速度、持续时间、范围。</t>
+  </si>
+  <si>
+    <t>邪恶的晚祷</t>
+  </si>
+  <si>
+    <t>进化的亡灵秘籍。永不结束。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要：拼写器。</t>
+  </si>
+  <si>
+    <t>十字架</t>
+  </si>
+  <si>
+    <t>瞄准最近的敌人，具有回旋镖效果。</t>
+  </si>
+  <si>
+    <t>天堂之剑</t>
+  </si>
+  <si>
+    <t>进化的十字架，可以造成暴击伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要：三叶草。</t>
+  </si>
+  <si>
+    <t>大蒜</t>
+  </si>
+  <si>
+    <t>对附近的敌人造成伤害。降低对击退和冻结的抗性。</t>
+  </si>
+  <si>
+    <t>无视：数量、持续时间、速度。</t>
+  </si>
+  <si>
+    <t>月桂</t>
+  </si>
+  <si>
+    <t>激活期间可抵御伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳搭配：仅冷却时间。</t>
+  </si>
+  <si>
+    <t>最佳搭配：仅冷却时间和幸运。</t>
+  </si>
+  <si>
+    <t>和平鸽</t>
+  </si>
+  <si>
+    <t>在盘旋区域内进行轰炸。</t>
+  </si>
+  <si>
+    <t>最佳搭配：冷却时间、持续时间。</t>
+  </si>
+  <si>
+    <t>乌木之翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳搭配：冷却时间，持续时间。</t>
+  </si>
+  <si>
+    <t>等级1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级2</t>
+  </si>
+  <si>
+    <t>等级3</t>
+  </si>
+  <si>
+    <t>等级4</t>
+  </si>
+  <si>
+    <t>等级5</t>
+  </si>
+  <si>
+    <t>等级6</t>
+  </si>
+  <si>
+    <t>等级7</t>
+  </si>
+  <si>
+    <t>等级8</t>
+  </si>
+  <si>
+    <t>骨头</t>
+  </si>
+  <si>
+    <t>投掷一枚弹跳的射弹。</t>
+  </si>
+  <si>
+    <t>最佳搭配：持续时间、速度。</t>
+  </si>
+  <si>
+    <t>时钟柳叶刀</t>
+  </si>
+  <si>
+    <t>有机会及时冻结敌人。</t>
+  </si>
+  <si>
+    <t>无视：力量、速度、数量、范围。</t>
+  </si>
+  <si>
+    <t>菠菜</t>
+  </si>
+  <si>
+    <t>造成的伤害提高 10%。</t>
+  </si>
+  <si>
+    <t>使攻击范围增加 10%。</t>
+  </si>
+  <si>
+    <t>等级1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼写器</t>
+  </si>
+  <si>
+    <t>增加武器效果持续时间 10%。</t>
+  </si>
+  <si>
+    <t>复制器</t>
+  </si>
+  <si>
+    <t>武器发射更多的射弹。</t>
+  </si>
+  <si>
+    <t>受到伤害降低 1 点。</t>
+  </si>
+  <si>
+    <t>翅膀</t>
+  </si>
+  <si>
+    <t>提升角色的移动速度 10%。</t>
+  </si>
+  <si>
+    <t>王冠</t>
+  </si>
+  <si>
+    <t>增加角色获得的经验 8%。</t>
+  </si>
+  <si>
+    <t>石面具</t>
+  </si>
+  <si>
+    <t>增加角色获得的金币 10%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄</t>
+  </si>
+  <si>
+    <t>角色每秒恢复 0.2 点生命。</t>
+  </si>
+  <si>
+    <t>噬魂者</t>
+  </si>
+  <si>
+    <t>进化大蒜恢复生命值时伤害增加</t>
+  </si>
+  <si>
+    <t>要求: 普玛罗拉.</t>
+  </si>
+  <si>
+    <t>短绒</t>
+  </si>
+  <si>
+    <t>进化的圣水。 破坏性区域会跟随您并在它们移动时增长。</t>
+  </si>
+  <si>
+    <t>要求: 吸引器.</t>
+  </si>
+  <si>
+    <t>破坏者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌木之翼搭配和平鸽</t>
+  </si>
+  <si>
+    <t>提拉吉苏</t>
+  </si>
+  <si>
+    <t>以50%的生命值复活一次。</t>
+  </si>
+  <si>
+    <t>雷环</t>
+  </si>
+  <si>
+    <t>进化的闪电戒指。 射弹击中两次。</t>
+  </si>
+  <si>
+    <t>要求: 复制器.</t>
+  </si>
+  <si>
+    <t>疯狂骷髅</t>
+  </si>
+  <si>
+    <t>敌人增加10%的速度，生命值，数量和次数。</t>
+  </si>
+  <si>
+    <t>樱桃炸弹</t>
+  </si>
+  <si>
+    <t>扔出一个弹跳的射弹， 有时会爆炸。</t>
+  </si>
+  <si>
+    <t>搭配: 幸运.</t>
+  </si>
+  <si>
+    <t>法力之歌</t>
+  </si>
+  <si>
+    <t>垂直攻击，穿过敌人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略:数量，速度</t>
+  </si>
+  <si>
+    <t>曼纳加</t>
+  </si>
+  <si>
+    <t>进化出魔法之歌，可能会减慢敌人的速度。</t>
+  </si>
+  <si>
+    <t>要求:疯狂骷髅</t>
+  </si>
+  <si>
+    <t>绚丽月亮</t>
+  </si>
+  <si>
+    <t>进化的五芒星。 生成额外的宝石并收集所有宝石。</t>
+  </si>
+  <si>
+    <t>要求：皇冠。</t>
+  </si>
+  <si>
+    <t>赤诚武士</t>
+  </si>
+  <si>
+    <t>每 10 级增加 10% 的伤害（最高 +50%）。</t>
+  </si>
+  <si>
+    <t>守护使者</t>
+  </si>
+  <si>
+    <t>每5级增加10%的经验（最高+30%）。</t>
+  </si>
+  <si>
+    <t>正义游侠</t>
+  </si>
+  <si>
+    <t>武器冷却时间每 10 级减少 5%（最多 -15%）。</t>
+  </si>
+  <si>
+    <t>流浪牧师</t>
+  </si>
+  <si>
+    <t>武器持续时间和速度永久+40%， 移动速度-30%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡灵法师</t>
+  </si>
+  <si>
+    <t>至少他们是幸运的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑术师</t>
+  </si>
+  <si>
+    <t>所有武器的飞弹永久+1。</t>
+  </si>
+  <si>
+    <t>孤独女巫</t>
+  </si>
+  <si>
+    <t>生命值每秒永久提升0.5， 且最大生命值 +50。 开局带有临时范围加成。</t>
+  </si>
+  <si>
+    <t>骷髅骑士</t>
+  </si>
+  <si>
+    <t>每 20 级获得更多飞弹（最多 +3）。</t>
+  </si>
+  <si>
+    <t>战术家</t>
+  </si>
+  <si>
+    <t>拾取范围永久+25%， 但最大生命值 -30。</t>
+  </si>
+  <si>
+    <t>法术士</t>
+  </si>
+  <si>
+    <t>飞弹的速度每 5 级增加 10%（最多 +30%）。</t>
+  </si>
+  <si>
+    <t>圣武士</t>
+  </si>
+  <si>
+    <t>攻击范围+30%，开局带有临时冷却加成。</t>
+  </si>
+  <si>
+    <t>恶魔之子</t>
+  </si>
+  <si>
+    <t>狂战士</t>
+  </si>
+  <si>
+    <t>熊猫探险家</t>
+  </si>
+  <si>
+    <t>吟游诗人</t>
+  </si>
+  <si>
+    <t>星级法师</t>
+  </si>
+  <si>
+    <t>从 1 个额外级别开始。</t>
+  </si>
+  <si>
+    <t>每关增加1% 技能持续时间。</t>
+  </si>
+  <si>
+    <t>每 10 级获得 +5% 力量、 移动速度和诅咒 （最高 +20%）。</t>
+  </si>
+  <si>
+    <t>1级复活一次。 33级再获得复活一次</t>
+  </si>
+  <si>
+    <t>基础范围提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升5点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升5点
+基础范围提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射1枚射弹
+基础范围提升40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础范围提升100
+基础伤害提升10点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射1枚射弹
+基础伤害提升5点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间减少0.2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升20点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础范围提升100%
+基础伤害提升20点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升10点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射1枚射子弹
+基础范围提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升10点
+效果持续增加0.5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础速度提升30%
+基础范围提升25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间减少10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25%的几率不消除屏幕上的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射1枚射弹
+基础范围提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45%的几率不消除屏幕上的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间减少5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升10点
+效果持续增加0.3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果持续时间增加0.5秒
+基础伤害提升10点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65%的几率不消除屏幕上的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部发射1枚射弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透1个敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升5点
+效果持续时间0.3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果持续时间增加0.7秒
+基础伤害提升10点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃炸弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础范围提示25%
+基础速度提升30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升10点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%几率爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射1枚射弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础范围提示25%
+基础伤害提升5点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础范围提升40%
+基础伤害提升2点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升10点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60%几率爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间减少0.1秒
+基础伤害提升1点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础范围提升25%
+基础速度提升30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多穿透2个敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础范围提升20%
+基础伤害提升1点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间减少0.1秒
+基础伤害提升2点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础速度提升25%
+基础范围提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间减少0.5秒
+护盾的无敌能力提高0.2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间减少0.1秒
+基础伤害提升1点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升20点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础范围提升20%
+基础伤害提升2点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1点额外充能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值增加20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础范围提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础速度提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础速度提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础速度提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间减少8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升10点
+基础速度提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升10点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基础伤害提升10点
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基础伤害提升10点
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射1枚射弹
+基础范围提升40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射1枚射弹
+基础伤害提升10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射1枚射弹
+冷却时间减少0.3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升10点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害减低1点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度增加10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升5点
+基础范围提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所获经验增加8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取范围增加33%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取范围增加25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取范围增加20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果持续时间增加0.2秒
+基础范围提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升20点
+发射1枚射弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础速度提升50%
+基础范围提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升50点
+发射1枚射弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果持续时间增加0.2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升50点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升10点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果持续时间增加0.2秒
+基础范围提升50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升5点
+基础速度提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害提升5点
+效果持续增加0.3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果持续增加0.5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35-45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5--15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.35s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.35s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15--25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75--85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5--15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25--35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2--11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1--10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31--40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15--25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89--95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1--10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5--15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5--15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>5-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,12 +1380,66 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,8 +1456,119 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -191,6 +1619,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228245</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14535150" y="104775"/>
+          <a:ext cx="2838095" cy="5961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123462</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>75567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="1009650"/>
+          <a:ext cx="2904762" cy="5066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>436643</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>56558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="6124575"/>
+          <a:ext cx="12057143" cy="4733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,20 +2027,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="36" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -503,23 +2050,26 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
+      <c r="D1" s="36" t="s">
+        <v>360</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>200001</v>
       </c>
@@ -529,20 +2079,26 @@
       <c r="C2">
         <v>1002</v>
       </c>
+      <c r="D2" s="36" t="s">
+        <v>363</v>
+      </c>
       <c r="E2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>200002</v>
       </c>
@@ -552,20 +2108,26 @@
       <c r="C3">
         <v>1002</v>
       </c>
+      <c r="D3" s="36" t="s">
+        <v>364</v>
+      </c>
       <c r="E3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>200003</v>
       </c>
@@ -575,20 +2137,26 @@
       <c r="C4">
         <v>1002</v>
       </c>
+      <c r="D4" s="36" t="s">
+        <v>362</v>
+      </c>
       <c r="E4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>200004</v>
       </c>
@@ -598,20 +2166,26 @@
       <c r="C5">
         <v>1002</v>
       </c>
+      <c r="D5" s="36" t="s">
+        <v>362</v>
+      </c>
       <c r="E5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>200005</v>
       </c>
@@ -621,20 +2195,26 @@
       <c r="C6">
         <v>1002</v>
       </c>
+      <c r="D6" s="36" t="s">
+        <v>362</v>
+      </c>
       <c r="E6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>200006</v>
       </c>
@@ -644,20 +2224,26 @@
       <c r="C7">
         <v>1002</v>
       </c>
+      <c r="D7" s="36" t="s">
+        <v>362</v>
+      </c>
       <c r="E7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200007</v>
       </c>
@@ -667,20 +2253,26 @@
       <c r="C8">
         <v>1002</v>
       </c>
+      <c r="D8" s="36" t="s">
+        <v>362</v>
+      </c>
       <c r="E8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>200008</v>
       </c>
@@ -690,20 +2282,26 @@
       <c r="C9">
         <v>1002</v>
       </c>
+      <c r="D9" s="36" t="s">
+        <v>362</v>
+      </c>
       <c r="E9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>200009</v>
       </c>
@@ -713,20 +2311,26 @@
       <c r="C10">
         <v>1002</v>
       </c>
+      <c r="D10" s="36" t="s">
+        <v>362</v>
+      </c>
       <c r="E10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>200010</v>
       </c>
@@ -736,20 +2340,26 @@
       <c r="C11">
         <v>1002</v>
       </c>
+      <c r="D11" s="36" t="s">
+        <v>362</v>
+      </c>
       <c r="E11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>200011</v>
       </c>
@@ -759,20 +2369,26 @@
       <c r="C12">
         <v>1002</v>
       </c>
+      <c r="D12" s="36" t="s">
+        <v>362</v>
+      </c>
       <c r="E12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>200012</v>
       </c>
@@ -782,17 +2398,23 @@
       <c r="C13">
         <v>1002</v>
       </c>
+      <c r="D13" s="36" t="s">
+        <v>362</v>
+      </c>
       <c r="E13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>300001</v>
       </c>
     </row>
   </sheetData>
@@ -804,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -820,7 +2442,7 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -837,16 +2459,19 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -860,16 +2485,1735 @@
         <v>10001</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="M12" s="4"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N14" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="42.25" customWidth="1"/>
+    <col min="13" max="13" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="L3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="L5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="27" t="e">
+        <f>-C6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="K6" t="s">
+        <v>260</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="L10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="L12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="L15" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="15"/>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="15"/>
+      <c r="L17" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="L19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="L20" t="s">
+        <v>143</v>
+      </c>
+      <c r="M20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="L23" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" t="s">
+        <v>166</v>
+      </c>
+      <c r="M24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" t="s">
+        <v>271</v>
+      </c>
+      <c r="G25" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="I25" t="s">
+        <v>276</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="A1:K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="17"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="51.375" customWidth="1"/>
+    <col min="11" max="11" width="37.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" t="s">
+        <v>294</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" t="s">
+        <v>293</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" t="s">
+        <v>291</v>
+      </c>
+      <c r="J9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" t="s">
+        <v>305</v>
+      </c>
+      <c r="J14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" t="s">
+        <v>307</v>
+      </c>
+      <c r="J15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="57.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.125" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="72.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="366">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1356,6 +1356,10 @@
   </si>
   <si>
     <t>5-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1459,9 +1463,6 @@
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1570,6 +1571,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2029,14 +2033,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="36" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="35" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2050,7 +2054,7 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>360</v>
       </c>
       <c r="E1" t="s">
@@ -2079,7 +2083,7 @@
       <c r="C2">
         <v>1002</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>363</v>
       </c>
       <c r="E2">
@@ -2095,7 +2099,7 @@
         <v>13</v>
       </c>
       <c r="I2">
-        <v>300001</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2108,7 +2112,7 @@
       <c r="C3">
         <v>1002</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>364</v>
       </c>
       <c r="E3">
@@ -2124,7 +2128,7 @@
         <v>13</v>
       </c>
       <c r="I3">
-        <v>300001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2137,7 +2141,7 @@
       <c r="C4">
         <v>1002</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>362</v>
       </c>
       <c r="E4">
@@ -2153,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="I4">
-        <v>300001</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -2166,7 +2170,7 @@
       <c r="C5">
         <v>1002</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>362</v>
       </c>
       <c r="E5">
@@ -2182,7 +2186,7 @@
         <v>13</v>
       </c>
       <c r="I5">
-        <v>300001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -2195,7 +2199,7 @@
       <c r="C6">
         <v>1002</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>362</v>
       </c>
       <c r="E6">
@@ -2211,7 +2215,7 @@
         <v>13</v>
       </c>
       <c r="I6">
-        <v>300001</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -2224,7 +2228,7 @@
       <c r="C7">
         <v>1002</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>362</v>
       </c>
       <c r="E7">
@@ -2240,7 +2244,7 @@
         <v>13</v>
       </c>
       <c r="I7">
-        <v>300001</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -2253,7 +2257,7 @@
       <c r="C8">
         <v>1002</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>362</v>
       </c>
       <c r="E8">
@@ -2269,7 +2273,7 @@
         <v>13</v>
       </c>
       <c r="I8">
-        <v>300001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -2282,7 +2286,7 @@
       <c r="C9">
         <v>1002</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>362</v>
       </c>
       <c r="E9">
@@ -2298,7 +2302,7 @@
         <v>13</v>
       </c>
       <c r="I9">
-        <v>300001</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -2311,7 +2315,7 @@
       <c r="C10">
         <v>1002</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>362</v>
       </c>
       <c r="E10">
@@ -2327,7 +2331,7 @@
         <v>13</v>
       </c>
       <c r="I10">
-        <v>300001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -2340,7 +2344,7 @@
       <c r="C11">
         <v>1002</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>362</v>
       </c>
       <c r="E11">
@@ -2356,7 +2360,7 @@
         <v>13</v>
       </c>
       <c r="I11">
-        <v>300001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -2369,7 +2373,7 @@
       <c r="C12">
         <v>1002</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>362</v>
       </c>
       <c r="E12">
@@ -2385,7 +2389,7 @@
         <v>13</v>
       </c>
       <c r="I12">
-        <v>300001</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -2398,7 +2402,7 @@
       <c r="C13">
         <v>1002</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="35" t="s">
         <v>362</v>
       </c>
       <c r="E13">
@@ -2414,7 +2418,7 @@
         <v>13</v>
       </c>
       <c r="I13">
-        <v>300001</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -2428,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2470,6 +2474,9 @@
       <c r="I1" t="s">
         <v>359</v>
       </c>
+      <c r="J1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
@@ -2499,27 +2506,30 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N10" s="4"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="M12" s="4"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N14" s="4"/>
+      <c r="N14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2576,7 +2586,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.125" style="27" customWidth="1"/>
+    <col min="2" max="3" width="12.125" style="26" customWidth="1"/>
     <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="16.25" customWidth="1"/>
@@ -2617,117 +2627,117 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="L3" s="12" t="s">
+      <c r="D3" s="10"/>
+      <c r="L3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="L5" s="10" t="s">
+      <c r="D5" s="8"/>
+      <c r="L5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2735,29 +2745,29 @@
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="27" t="e">
+      <c r="B6" s="26" t="e">
         <f>-C6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>355</v>
       </c>
       <c r="E6" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>257</v>
       </c>
       <c r="G6" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>259</v>
       </c>
       <c r="I6" t="s">
         <v>260</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>263</v>
       </c>
       <c r="K6" t="s">
@@ -2774,31 +2784,31 @@
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>306</v>
       </c>
       <c r="L7" t="s">
@@ -2812,28 +2822,28 @@
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>348</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>247</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>251</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="18" t="s">
         <v>251</v>
       </c>
       <c r="K8" t="s">
@@ -2846,117 +2856,117 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="L10" s="6" t="s">
+      <c r="D10" s="4"/>
+      <c r="L10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="L12" s="8" t="s">
+      <c r="D12" s="6"/>
+      <c r="L12" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2964,31 +2974,31 @@
       <c r="A13" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="18" t="s">
         <v>321</v>
       </c>
       <c r="L13" t="s">
@@ -2998,166 +3008,166 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="L15" s="14" t="s">
+      <c r="D15" s="12"/>
+      <c r="L15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:13" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="14"/>
       <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>262</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="19" t="s">
         <v>267</v>
       </c>
       <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="15"/>
-      <c r="L17" s="16" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="14"/>
+      <c r="L17" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="L19" s="4" t="s">
+      <c r="D19" s="2"/>
+      <c r="L19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3165,31 +3175,31 @@
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="18" t="s">
         <v>286</v>
       </c>
       <c r="L20" t="s">
@@ -3199,81 +3209,81 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:13" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="26" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:13" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="26" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="K22" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="21" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3281,31 +3291,31 @@
       <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="18" t="s">
         <v>318</v>
       </c>
       <c r="L23" t="s">
@@ -3330,13 +3340,13 @@
       <c r="A25" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>269</v>
       </c>
       <c r="F25" t="s">
@@ -3345,16 +3355,16 @@
       <c r="G25" t="s">
         <v>272</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="18" t="s">
         <v>273</v>
       </c>
       <c r="I25" t="s">
         <v>276</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="18" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3376,7 +3386,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="17"/>
+    <col min="2" max="2" width="9" style="16"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="9" width="19" customWidth="1"/>
@@ -3388,28 +3398,28 @@
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>161</v>
       </c>
       <c r="J1" t="s">
@@ -3528,25 +3538,25 @@
       <c r="A8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>283</v>
       </c>
       <c r="E8" t="s">
         <v>287</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>283</v>
       </c>
       <c r="H8" t="s">
         <v>287</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="18"/>
       <c r="J8" t="s">
         <v>146</v>
       </c>
@@ -4021,7 +4031,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="37" t="s">
         <v>98</v>
       </c>
       <c r="B9" t="s">
@@ -4032,13 +4042,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="37"/>
       <c r="B10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="A11" s="37"/>
       <c r="B11" t="s">
         <v>100</v>
       </c>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="368">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1360,6 +1360,14 @@
   </si>
   <si>
     <t>拾取范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2031,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2044,7 +2052,7 @@
     <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2072,8 +2080,11 @@
       <c r="I1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>200001</v>
       </c>
@@ -2101,8 +2112,11 @@
       <c r="I2">
         <v>1001</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>200002</v>
       </c>
@@ -2130,8 +2144,11 @@
       <c r="I3">
         <v>1002</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>200003</v>
       </c>
@@ -2159,8 +2176,11 @@
       <c r="I4">
         <v>1001</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>200004</v>
       </c>
@@ -2188,8 +2208,11 @@
       <c r="I5">
         <v>1002</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>200005</v>
       </c>
@@ -2217,8 +2240,11 @@
       <c r="I6">
         <v>1001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>200006</v>
       </c>
@@ -2246,8 +2272,11 @@
       <c r="I7">
         <v>1001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200007</v>
       </c>
@@ -2275,8 +2304,11 @@
       <c r="I8">
         <v>1002</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>200008</v>
       </c>
@@ -2304,8 +2336,11 @@
       <c r="I9">
         <v>1001</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>200009</v>
       </c>
@@ -2333,8 +2368,11 @@
       <c r="I10">
         <v>1002</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>200010</v>
       </c>
@@ -2362,8 +2400,11 @@
       <c r="I11">
         <v>1002</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>200011</v>
       </c>
@@ -2391,8 +2432,11 @@
       <c r="I12">
         <v>1001</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>200012</v>
       </c>
@@ -2419,6 +2463,9 @@
       </c>
       <c r="I13">
         <v>1002</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2433,7 +2480,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2477,6 +2524,9 @@
       <c r="J1" t="s">
         <v>365</v>
       </c>
+      <c r="K1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
@@ -2508,6 +2558,9 @@
       </c>
       <c r="J2">
         <v>120</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -2042,7 +2042,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2113,7 +2113,7 @@
         <v>1001</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -2145,7 +2145,7 @@
         <v>1002</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -2177,7 +2177,7 @@
         <v>1001</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -2209,7 +2209,7 @@
         <v>1002</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -2241,7 +2241,7 @@
         <v>1001</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -2273,7 +2273,7 @@
         <v>1001</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -2305,7 +2305,7 @@
         <v>1002</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -2337,7 +2337,7 @@
         <v>1001</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -2369,7 +2369,7 @@
         <v>1002</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -2401,7 +2401,7 @@
         <v>1002</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -2433,7 +2433,7 @@
         <v>1001</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -2465,7 +2465,7 @@
         <v>1002</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2480,7 +2480,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2560,7 +2560,7 @@
         <v>120</v>
       </c>
       <c r="K2">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="369">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1368,6 +1368,10 @@
   </si>
   <si>
     <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试怪物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2041,14 +2045,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2089,7 +2094,7 @@
         <v>200001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="C2">
         <v>1002</v>
@@ -2098,7 +2103,7 @@
         <v>363</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>999999999</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2113,7 +2118,7 @@
         <v>1001</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -2479,7 +2484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -2046,7 +2046,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -2046,7 +2046,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>362</v>
@@ -2193,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>362</v>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="373">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1373,6 +1373,20 @@
   <si>
     <t>测试怪物</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screecher_bat</t>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kr4_hero_asra</t>
   </si>
 </sst>
 </file>
@@ -2045,13 +2059,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="35" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
@@ -2126,10 +2140,10 @@
         <v>200002</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1002</v>
+        <v>370</v>
+      </c>
+      <c r="C3" t="s">
+        <v>369</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>364</v>
@@ -2141,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>371</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -2484,15 +2498,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
@@ -2540,8 +2554,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1001</v>
+      <c r="C2" t="s">
+        <v>372</v>
       </c>
       <c r="D2">
         <v>10001</v>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="375">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1387,13 +1387,19 @@
   </si>
   <si>
     <t>kr4_hero_asra</t>
+  </si>
+  <si>
+    <t>kr4_dwarven_empire_bruiser</t>
+  </si>
+  <si>
+    <t>彪形大汉</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1408,6 +1414,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF101214"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1486,7 +1498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1600,6 +1612,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,13 +2074,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="35" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
@@ -2167,15 +2182,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>200003</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1003</v>
+      <c r="B4" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" t="s">
+        <v>373</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>362</v>
@@ -2187,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -2206,8 +2221,8 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>1003</v>
+      <c r="C5" t="s">
+        <v>369</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>362</v>
@@ -2219,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -2498,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="375">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1393,6 +1389,10 @@
   </si>
   <si>
     <t>彪形大汉</t>
+  </si>
+  <si>
+    <t>暗夜精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1422,7 +1422,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,12 +1477,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1498,7 +1492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1607,14 +1601,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2074,7 +2065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -2097,25 +2088,25 @@
         <v>0</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>360</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>361</v>
-      </c>
       <c r="J1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -2123,13 +2114,13 @@
         <v>200001</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2">
         <v>1002</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E2">
         <v>999999999</v>
@@ -2138,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>1001</v>
@@ -2155,13 +2146,13 @@
         <v>200002</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2170,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3">
         <v>1002</v>
@@ -2186,14 +2177,14 @@
       <c r="A4">
         <v>200003</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>374</v>
+      <c r="B4" s="36" t="s">
+        <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -2202,10 +2193,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4">
         <v>1001</v>
@@ -2222,10 +2213,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -2234,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5">
         <v>1002</v>
@@ -2257,7 +2248,7 @@
         <v>1002</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2266,10 +2257,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6">
         <v>1001</v>
@@ -2289,7 +2280,7 @@
         <v>1002</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -2298,10 +2289,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7">
         <v>1001</v>
@@ -2321,7 +2312,7 @@
         <v>1002</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -2330,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8">
         <v>1002</v>
@@ -2353,7 +2344,7 @@
         <v>1002</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -2362,10 +2353,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>1001</v>
@@ -2385,7 +2376,7 @@
         <v>1002</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -2394,10 +2385,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10">
         <v>1002</v>
@@ -2417,7 +2408,7 @@
         <v>1002</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -2426,10 +2417,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <v>1002</v>
@@ -2449,7 +2440,7 @@
         <v>1002</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -2458,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12">
         <v>1001</v>
@@ -2481,7 +2472,7 @@
         <v>1002</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -2490,10 +2481,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13">
         <v>1002</v>
@@ -2511,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2527,7 +2518,7 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2538,42 +2529,42 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>100001</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2">
-        <v>10001</v>
+        <v>11001</v>
       </c>
       <c r="E2">
         <v>16</v>
@@ -2582,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2597,25 +2588,392 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="M12" s="3"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>100002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3">
+        <v>11001</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>120</v>
+      </c>
+      <c r="K3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>100003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4">
+        <v>11001</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>120</v>
+      </c>
+      <c r="K4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>100004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5">
+        <v>11001</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>120</v>
+      </c>
+      <c r="K5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>100005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6">
+        <v>11001</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>120</v>
+      </c>
+      <c r="K6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>100006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7">
+        <v>11001</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>120</v>
+      </c>
+      <c r="K7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>100007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8">
+        <v>11001</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>120</v>
+      </c>
+      <c r="K8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>100008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9">
+        <v>11001</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>120</v>
+      </c>
+      <c r="K9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>100009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10">
+        <v>11001</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>120</v>
+      </c>
+      <c r="K10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>100010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11">
+        <v>11001</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>120</v>
+      </c>
+      <c r="K11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>100011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12">
+        <v>11001</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>120</v>
+      </c>
+      <c r="K12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>100012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13">
+        <v>11001</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>120</v>
+      </c>
+      <c r="K13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N14" s="3"/>
     </row>
   </sheetData>
@@ -2639,7 +2997,7 @@
   <sheetData>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>10000</v>
@@ -2647,12 +3005,12 @@
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2687,772 +3045,772 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
         <v>154</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>155</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>156</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>157</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>158</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>159</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>160</v>
-      </c>
-      <c r="K1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>323</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>324</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>245</v>
-      </c>
       <c r="H2" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>245</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D3" s="10"/>
       <c r="L3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>326</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>327</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>328</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>329</v>
       </c>
       <c r="D5" s="8"/>
       <c r="L5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="26" t="e">
         <f>-C6</f>
         <v>#VALUE!</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>257</v>
-      </c>
       <c r="G6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" t="s">
         <v>259</v>
       </c>
-      <c r="I6" t="s">
-        <v>260</v>
-      </c>
       <c r="J6" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>254</v>
-      </c>
       <c r="G7" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
       <c r="M8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>330</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>331</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>332</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>333</v>
       </c>
       <c r="D10" s="4"/>
       <c r="L10" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>334</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>335</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D12" s="6"/>
       <c r="L12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="L13" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>124</v>
-      </c>
-      <c r="M13" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B14" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>341</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>342</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F14" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>298</v>
-      </c>
       <c r="H14" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>296</v>
-      </c>
       <c r="L14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>343</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>344</v>
       </c>
       <c r="D15" s="12"/>
       <c r="L15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="14"/>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="14"/>
       <c r="L17" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>337</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>338</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>339</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>340</v>
       </c>
       <c r="D19" s="2"/>
       <c r="L19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="L20" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>143</v>
-      </c>
-      <c r="M20" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>349</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>350</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="G21" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>301</v>
-      </c>
       <c r="H21" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="J21" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="J21" s="25" t="s">
-        <v>301</v>
-      </c>
       <c r="K21" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L21" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="M21" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>351</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>352</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G22" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="H22" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>301</v>
-      </c>
       <c r="I22" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="J22" s="25" t="s">
-        <v>301</v>
-      </c>
       <c r="K22" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="L23" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>163</v>
-      </c>
-      <c r="M23" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" t="s">
         <v>165</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>166</v>
-      </c>
-      <c r="M24" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>269</v>
-      </c>
       <c r="F25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" t="s">
         <v>271</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="H25" s="18" t="s">
-        <v>273</v>
-      </c>
       <c r="I25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3483,411 +3841,411 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" t="s">
-        <v>289</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F4" t="s">
-        <v>308</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" t="s">
+        <v>292</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F5" t="s">
-        <v>293</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J6" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F6" t="s">
-        <v>288</v>
-      </c>
-      <c r="J6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
         <v>49</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" t="s">
         <v>146</v>
-      </c>
-      <c r="K8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" t="s">
+        <v>290</v>
+      </c>
+      <c r="J9" t="s">
         <v>168</v>
-      </c>
-      <c r="C9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E9" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" t="s">
-        <v>291</v>
-      </c>
-      <c r="J9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" t="s">
         <v>172</v>
-      </c>
-      <c r="J11" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J12" t="s">
         <v>174</v>
-      </c>
-      <c r="B12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C12" t="s">
-        <v>264</v>
-      </c>
-      <c r="J12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" t="s">
         <v>177</v>
-      </c>
-      <c r="C14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D14" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" t="s">
-        <v>305</v>
-      </c>
-      <c r="J14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" t="s">
+        <v>306</v>
+      </c>
+      <c r="J15" t="s">
         <v>179</v>
-      </c>
-      <c r="C15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E15" t="s">
-        <v>307</v>
-      </c>
-      <c r="F15" t="s">
-        <v>307</v>
-      </c>
-      <c r="J15" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" t="s">
         <v>181</v>
-      </c>
-      <c r="J16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" t="s">
         <v>183</v>
-      </c>
-      <c r="J17" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
         <v>185</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>186</v>
-      </c>
-      <c r="K18" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
         <v>188</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>189</v>
-      </c>
-      <c r="K19" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
         <v>191</v>
-      </c>
-      <c r="J20" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
         <v>193</v>
-      </c>
-      <c r="J21" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
         <v>195</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>196</v>
-      </c>
-      <c r="K22" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s">
         <v>198</v>
-      </c>
-      <c r="J23" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
         <v>200</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>201</v>
-      </c>
-      <c r="K24" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
         <v>203</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>204</v>
-      </c>
-      <c r="K25" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
         <v>206</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>207</v>
-      </c>
-      <c r="K26" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
         <v>209</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>210</v>
-      </c>
-      <c r="K27" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3913,154 +4271,154 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
         <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
         <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
         <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
         <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
         <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
         <v>81</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
         <v>83</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
         <v>85</v>
-      </c>
-      <c r="B20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
         <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4086,80 +4444,80 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
         <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
         <v>95</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4187,130 +4545,130 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
         <v>212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
         <v>214</v>
-      </c>
-      <c r="B3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s">
         <v>216</v>
-      </c>
-      <c r="B4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
         <v>218</v>
-      </c>
-      <c r="B5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" t="s">
         <v>220</v>
-      </c>
-      <c r="B6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="s">
         <v>222</v>
-      </c>
-      <c r="B7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
         <v>224</v>
-      </c>
-      <c r="B8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
         <v>226</v>
-      </c>
-      <c r="B9" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
         <v>228</v>
-      </c>
-      <c r="B10" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" t="s">
         <v>230</v>
-      </c>
-      <c r="B11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
         <v>232</v>
-      </c>
-      <c r="B12" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s">
         <v>238</v>
-      </c>
-      <c r="B17" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="377">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1393,6 +1393,13 @@
   <si>
     <t>暗夜精灵</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kr4_hero_jack_o_lantern</t>
   </si>
 </sst>
 </file>
@@ -2505,14 +2512,14 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
@@ -2593,13 +2600,13 @@
         <v>100002</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D3">
-        <v>11001</v>
+        <v>11101</v>
       </c>
       <c r="E3">
         <v>16</v>
@@ -2620,7 +2627,7 @@
         <v>120</v>
       </c>
       <c r="K3">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -2979,6 +2986,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="402">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1400,6 +1400,84 @@
   </si>
   <si>
     <t>kr4_hero_jack_o_lantern</t>
+  </si>
+  <si>
+    <t>头像Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_mainbuttons_heroes_PC_0002</t>
+  </si>
+  <si>
+    <t>map_mainbuttons_heroes_PC_0014</t>
+  </si>
+  <si>
+    <t>map_mainbuttons_heroes_PC_0001</t>
+  </si>
+  <si>
+    <t>map_mainbuttons_heroes_PC_0003</t>
+  </si>
+  <si>
+    <t>map_mainbuttons_heroes_PC_0004</t>
+  </si>
+  <si>
+    <t>map_mainbuttons_heroes_PC_0005</t>
+  </si>
+  <si>
+    <t>map_mainbuttons_heroes_PC_0006</t>
+  </si>
+  <si>
+    <t>map_mainbuttons_heroes_PC_0007</t>
+  </si>
+  <si>
+    <t>map_mainbuttons_heroes_PC_0008</t>
+  </si>
+  <si>
+    <t>map_mainbuttons_heroes_PC_0009</t>
+  </si>
+  <si>
+    <t>map_mainbuttons_heroes_PC_0010</t>
+  </si>
+  <si>
+    <t>map_mainbuttons_heroes_PC_0011</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;暗夜精灵&lt;/c&gt;&lt;color=#0fffff&gt;具有非常高的伤害&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;暗夜精灵&lt;/c&gt;&lt;color=#1fffff&gt;具有非常高的伤害&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;暗夜精灵&lt;/c&gt;&lt;color=#2fffff&gt;具有非常高的伤害&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;暗夜精灵&lt;/c&gt;&lt;color=#3fffff&gt;具有非常高的伤害&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;暗夜精灵&lt;/c&gt;&lt;color=#4fffff&gt;具有非常高的伤害&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;暗夜精灵&lt;/c&gt;&lt;color=#5fffff&gt;具有非常高的伤害&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;暗夜精灵&lt;/c&gt;&lt;color=#6fffff&gt;具有非常高的伤害&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;暗夜精灵&lt;/c&gt;&lt;color=#7fffff&gt;具有非常高的伤害&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;暗夜精灵&lt;/c&gt;&lt;color=#8fffff&gt;具有非常高的伤害&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;暗夜精灵&lt;/c&gt;&lt;color=#9fffff&gt;具有非常高的伤害&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;暗夜精灵&lt;/c&gt;&lt;color=#10fffff&gt;具有非常高的伤害&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -2512,7 +2590,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2523,6 +2601,8 @@
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="30.75" customWidth="1"/>
+    <col min="13" max="13" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
@@ -2559,6 +2639,12 @@
       <c r="K1" t="s">
         <v>366</v>
       </c>
+      <c r="L1" t="s">
+        <v>377</v>
+      </c>
+      <c r="M1" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
@@ -2594,6 +2680,12 @@
       <c r="K2">
         <v>150</v>
       </c>
+      <c r="L2" t="s">
+        <v>378</v>
+      </c>
+      <c r="M2" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -2629,6 +2721,12 @@
       <c r="K3">
         <v>250</v>
       </c>
+      <c r="L3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M3" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -2664,6 +2762,12 @@
       <c r="K4">
         <v>150</v>
       </c>
+      <c r="L4" t="s">
+        <v>380</v>
+      </c>
+      <c r="M4" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -2699,6 +2803,12 @@
       <c r="K5">
         <v>150</v>
       </c>
+      <c r="L5" t="s">
+        <v>381</v>
+      </c>
+      <c r="M5" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -2734,6 +2844,12 @@
       <c r="K6">
         <v>150</v>
       </c>
+      <c r="L6" t="s">
+        <v>382</v>
+      </c>
+      <c r="M6" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -2769,6 +2885,12 @@
       <c r="K7">
         <v>150</v>
       </c>
+      <c r="L7" t="s">
+        <v>383</v>
+      </c>
+      <c r="M7" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -2804,6 +2926,12 @@
       <c r="K8">
         <v>150</v>
       </c>
+      <c r="L8" t="s">
+        <v>384</v>
+      </c>
+      <c r="M8" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
@@ -2839,6 +2967,12 @@
       <c r="K9">
         <v>150</v>
       </c>
+      <c r="L9" t="s">
+        <v>385</v>
+      </c>
+      <c r="M9" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -2874,6 +3008,12 @@
       <c r="K10">
         <v>150</v>
       </c>
+      <c r="L10" t="s">
+        <v>386</v>
+      </c>
+      <c r="M10" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -2909,6 +3049,12 @@
       <c r="K11">
         <v>150</v>
       </c>
+      <c r="L11" t="s">
+        <v>387</v>
+      </c>
+      <c r="M11" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -2944,6 +3090,12 @@
       <c r="K12">
         <v>150</v>
       </c>
+      <c r="L12" t="s">
+        <v>388</v>
+      </c>
+      <c r="M12" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -2978,6 +3130,12 @@
       </c>
       <c r="K13">
         <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>389</v>
+      </c>
+      <c r="M13" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="405">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1478,6 +1478,18 @@
   </si>
   <si>
     <t>&lt;color=#00ff00&gt;暗夜精灵&lt;/c&gt;&lt;color=#10fffff&gt;具有非常高的伤害&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>移动类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1577,7 +1589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1688,6 +1700,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2148,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2160,9 +2175,10 @@
     <col min="4" max="4" width="8.5" style="35" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2209,11 @@
       <c r="J1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>200001</v>
       </c>
@@ -2225,8 +2244,11 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>200002</v>
       </c>
@@ -2257,8 +2279,11 @@
       <c r="J3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K3" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>200003</v>
       </c>
@@ -2289,8 +2314,11 @@
       <c r="J4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="37" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>200004</v>
       </c>
@@ -2321,8 +2349,11 @@
       <c r="J5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>200005</v>
       </c>
@@ -2353,8 +2384,11 @@
       <c r="J6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>200006</v>
       </c>
@@ -2385,8 +2419,11 @@
       <c r="J7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200007</v>
       </c>
@@ -2417,8 +2454,11 @@
       <c r="J8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>200008</v>
       </c>
@@ -2449,8 +2489,11 @@
       <c r="J9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>200009</v>
       </c>
@@ -2481,8 +2524,11 @@
       <c r="J10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>200010</v>
       </c>
@@ -2513,8 +2559,11 @@
       <c r="J11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>200011</v>
       </c>
@@ -2545,8 +2594,11 @@
       <c r="J12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12" s="37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>200012</v>
       </c>
@@ -2576,6 +2628,9 @@
       </c>
       <c r="J13">
         <v>4</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -2589,7 +2644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -4642,7 +4697,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>97</v>
       </c>
       <c r="B9" t="s">
@@ -4653,13 +4708,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" t="s">
         <v>99</v>
       </c>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="408">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1489,6 +1489,17 @@
   </si>
   <si>
     <t>走路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kr4_dwarf_mecha</t>
+  </si>
+  <si>
+    <t>高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2163,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2178,7 +2189,7 @@
     <col min="11" max="11" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2212,8 +2223,11 @@
       <c r="K1" s="37" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>200001</v>
       </c>
@@ -2247,8 +2261,11 @@
       <c r="K2" s="37" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>200002</v>
       </c>
@@ -2282,8 +2299,11 @@
       <c r="K3" s="37" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>200003</v>
       </c>
@@ -2317,22 +2337,25 @@
       <c r="K4" s="37" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>200004</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>361</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2347,13 +2370,16 @@
         <v>1002</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" s="37" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>200005</v>
       </c>
@@ -2387,8 +2413,11 @@
       <c r="K6" s="37" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>200006</v>
       </c>
@@ -2422,8 +2451,11 @@
       <c r="K7" s="37" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200007</v>
       </c>
@@ -2457,8 +2489,11 @@
       <c r="K8" s="37" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>200008</v>
       </c>
@@ -2492,8 +2527,11 @@
       <c r="K9" s="37" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>200009</v>
       </c>
@@ -2527,8 +2565,11 @@
       <c r="K10" s="37" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>200010</v>
       </c>
@@ -2562,8 +2603,11 @@
       <c r="K11" s="37" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>200011</v>
       </c>
@@ -2597,8 +2641,11 @@
       <c r="K12" s="37" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>200012</v>
       </c>
@@ -2631,6 +2678,9 @@
       </c>
       <c r="K13" s="37" t="s">
         <v>403</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="410">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1500,6 +1500,13 @@
   </si>
   <si>
     <t>BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kr4_dwarven_flyer</t>
+  </si>
+  <si>
+    <t>飞机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2177,7 +2184,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2384,16 +2391,16 @@
         <v>200005</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1002</v>
+        <v>409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>408</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>361</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2408,7 +2415,7 @@
         <v>1001</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K6" s="37" t="s">
         <v>403</v>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -1607,7 +1607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1718,6 +1718,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2184,7 +2187,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2379,8 +2382,8 @@
       <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5" s="37" t="s">
-        <v>403</v>
+      <c r="K5" s="38" t="s">
+        <v>404</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4754,7 +4757,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>97</v>
       </c>
       <c r="B9" t="s">
@@ -4765,13 +4768,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" t="s">
         <v>99</v>
       </c>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="427">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1507,6 +1507,69 @@
   </si>
   <si>
     <t>飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halloween_ghost</t>
+  </si>
+  <si>
+    <t>鬼魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,30,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,30,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,10,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halloween_bone</t>
+  </si>
+  <si>
+    <t>0,40,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halloween_werewolf</t>
+  </si>
+  <si>
+    <t>halloween_corrosive_soul</t>
+  </si>
+  <si>
+    <t>狼人鬼魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halloween_haunted_skeleton</t>
+  </si>
+  <si>
+    <t>骷髅小兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halloween_lich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师亡灵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1607,7 +1670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1718,6 +1781,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2184,29 +2250,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="28.375" style="39" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="35" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="35" t="s">
@@ -2236,15 +2302,18 @@
       <c r="L1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>200001</v>
       </c>
       <c r="B2" t="s">
         <v>367</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="39">
         <v>1002</v>
       </c>
       <c r="D2" s="35" t="s">
@@ -2274,15 +2343,18 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>200002</v>
       </c>
       <c r="B3" t="s">
         <v>369</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="39" t="s">
         <v>368</v>
       </c>
       <c r="D3" s="35" t="s">
@@ -2312,15 +2384,18 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="M3">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>200003</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="39" t="s">
         <v>372</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -2350,15 +2425,18 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>200004</v>
       </c>
       <c r="B5" t="s">
         <v>406</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="39" t="s">
         <v>405</v>
       </c>
       <c r="D5" s="35" t="s">
@@ -2371,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -2388,15 +2466,18 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>200005</v>
       </c>
       <c r="B6" t="s">
         <v>409</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="39" t="s">
         <v>408</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -2409,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>414</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -2426,16 +2507,19 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>200006</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1002</v>
+        <v>411</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>410</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>361</v>
@@ -2447,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>413</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -2458,34 +2542,37 @@
       <c r="J7">
         <v>4</v>
       </c>
-      <c r="K7" s="37" t="s">
-        <v>403</v>
+      <c r="K7" s="39" t="s">
+        <v>404</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200007</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1002</v>
+        <v>418</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>416</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>361</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>417</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -2494,30 +2581,33 @@
         <v>1002</v>
       </c>
       <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>403</v>
+        <v>2</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>404</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M8">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>200008</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1002</v>
+        <v>419</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>420</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>361</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2534,34 +2624,37 @@
       <c r="J9">
         <v>4</v>
       </c>
-      <c r="K9" s="37" t="s">
-        <v>403</v>
+      <c r="K9" s="39" t="s">
+        <v>404</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>200009</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1002</v>
+        <v>422</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>421</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>361</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>413</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -2570,30 +2663,33 @@
         <v>1002</v>
       </c>
       <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>403</v>
+        <v>8</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>404</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M10">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>200010</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1002</v>
+        <v>424</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>423</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>361</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2610,28 +2706,31 @@
       <c r="J11">
         <v>4</v>
       </c>
-      <c r="K11" s="37" t="s">
-        <v>403</v>
+      <c r="K11" s="39" t="s">
+        <v>404</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M11">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>200011</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1002</v>
+        <v>426</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>425</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>361</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2648,21 +2747,24 @@
       <c r="J12">
         <v>4</v>
       </c>
-      <c r="K12" s="37" t="s">
-        <v>403</v>
+      <c r="K12" s="39" t="s">
+        <v>404</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M12">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>200012</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="39">
         <v>1002</v>
       </c>
       <c r="D13" s="35" t="s">
@@ -2691,6 +2793,9 @@
       </c>
       <c r="L13">
         <v>0</v>
+      </c>
+      <c r="M13">
+        <v>10002</v>
       </c>
     </row>
   </sheetData>
@@ -4757,7 +4862,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>97</v>
       </c>
       <c r="B9" t="s">
@@ -4768,13 +4873,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" t="s">
         <v>99</v>
       </c>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="426">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1336,25 +1336,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>5-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拾取范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1570,6 +1555,17 @@
   </si>
   <si>
     <t>法师亡灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2253,7 +2249,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2276,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -2291,19 +2287,19 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -2311,13 +2307,13 @@
         <v>200001</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C2" s="39">
         <v>1002</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="E2">
         <v>999999999</v>
@@ -2338,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2352,13 +2348,13 @@
         <v>200002</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>363</v>
+        <v>424</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2367,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -2379,7 +2375,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2393,13 +2389,13 @@
         <v>200003</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -2408,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -2420,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2434,13 +2430,13 @@
         <v>200004</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -2449,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -2461,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2475,13 +2471,13 @@
         <v>200005</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -2490,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -2502,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2516,13 +2512,13 @@
         <v>200006</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -2531,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -2543,7 +2539,7 @@
         <v>4</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2557,13 +2553,13 @@
         <v>200007</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -2572,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -2584,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2598,13 +2594,13 @@
         <v>200008</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="E9">
         <v>60</v>
@@ -2625,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2639,13 +2635,13 @@
         <v>200009</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -2654,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -2666,7 +2662,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2680,13 +2676,13 @@
         <v>200010</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C11" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>423</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>361</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -2707,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2721,13 +2717,13 @@
         <v>200011</v>
       </c>
       <c r="B12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -2748,7 +2744,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2768,7 +2764,7 @@
         <v>1002</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -2789,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2854,16 +2850,16 @@
         <v>358</v>
       </c>
       <c r="J1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -2871,10 +2867,10 @@
         <v>100001</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D2">
         <v>11001</v>
@@ -2901,10 +2897,10 @@
         <v>150</v>
       </c>
       <c r="L2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -2912,10 +2908,10 @@
         <v>100002</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D3">
         <v>11101</v>
@@ -2942,10 +2938,10 @@
         <v>250</v>
       </c>
       <c r="L3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -2953,10 +2949,10 @@
         <v>100003</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D4">
         <v>11001</v>
@@ -2983,10 +2979,10 @@
         <v>150</v>
       </c>
       <c r="L4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -2994,10 +2990,10 @@
         <v>100004</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D5">
         <v>11001</v>
@@ -3024,10 +3020,10 @@
         <v>150</v>
       </c>
       <c r="L5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -3035,10 +3031,10 @@
         <v>100005</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D6">
         <v>11001</v>
@@ -3065,10 +3061,10 @@
         <v>150</v>
       </c>
       <c r="L6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -3076,10 +3072,10 @@
         <v>100006</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D7">
         <v>11001</v>
@@ -3106,10 +3102,10 @@
         <v>150</v>
       </c>
       <c r="L7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -3117,10 +3113,10 @@
         <v>100007</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D8">
         <v>11001</v>
@@ -3147,10 +3143,10 @@
         <v>150</v>
       </c>
       <c r="L8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -3158,10 +3154,10 @@
         <v>100008</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D9">
         <v>11001</v>
@@ -3188,10 +3184,10 @@
         <v>150</v>
       </c>
       <c r="L9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -3199,10 +3195,10 @@
         <v>100009</v>
       </c>
       <c r="B10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D10">
         <v>11001</v>
@@ -3229,10 +3225,10 @@
         <v>150</v>
       </c>
       <c r="L10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -3240,10 +3236,10 @@
         <v>100010</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D11">
         <v>11001</v>
@@ -3270,10 +3266,10 @@
         <v>150</v>
       </c>
       <c r="L11" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -3281,10 +3277,10 @@
         <v>100011</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D12">
         <v>11001</v>
@@ -3311,10 +3307,10 @@
         <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M12" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -3322,10 +3318,10 @@
         <v>100012</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D13">
         <v>11001</v>
@@ -3352,10 +3348,10 @@
         <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M13" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="425">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1559,10 +1559,6 @@
   </si>
   <si>
     <t>20001</t>
-  </si>
-  <si>
-    <t>20001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
@@ -2249,7 +2245,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2272,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -2312,8 +2308,8 @@
       <c r="C2" s="39">
         <v>1002</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>424</v>
+      <c r="D2">
+        <v>20101</v>
       </c>
       <c r="E2">
         <v>999999999</v>
@@ -2353,8 +2349,8 @@
       <c r="C3" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>424</v>
+      <c r="D3">
+        <v>20101</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2394,8 +2390,8 @@
       <c r="C4" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>423</v>
+      <c r="D4">
+        <v>20101</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -2476,8 +2472,8 @@
       <c r="C6" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>423</v>
+      <c r="D6">
+        <v>20101</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -2517,8 +2513,8 @@
       <c r="C7" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>423</v>
+      <c r="D7">
+        <v>20101</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -2558,8 +2554,8 @@
       <c r="C8" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>423</v>
+      <c r="D8">
+        <v>20101</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -2599,8 +2595,8 @@
       <c r="C9" s="39" t="s">
         <v>416</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>423</v>
+      <c r="D9">
+        <v>20101</v>
       </c>
       <c r="E9">
         <v>60</v>
@@ -2640,8 +2636,8 @@
       <c r="C10" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>423</v>
+      <c r="D10">
+        <v>20101</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -2681,8 +2677,8 @@
       <c r="C11" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>423</v>
+      <c r="D11">
+        <v>20101</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -2722,8 +2718,8 @@
       <c r="C12" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>423</v>
+      <c r="D12">
+        <v>20101</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -2763,8 +2759,8 @@
       <c r="C13" s="39">
         <v>1002</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>423</v>
+      <c r="D13">
+        <v>20101</v>
       </c>
       <c r="E13">
         <v>10</v>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="445">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1563,6 +1563,79 @@
   <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bandit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙面盗贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_gulthak</t>
+  </si>
+  <si>
+    <t>兽人领主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔大王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inferno_moloch</t>
+  </si>
+  <si>
+    <t>0,60,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械战甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_juggernaut</t>
+  </si>
+  <si>
+    <t>强盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brigand</t>
+  </si>
+  <si>
+    <t>abomination</t>
+  </si>
+  <si>
+    <t>憎恨者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,30,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林巨怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_troll</t>
+  </si>
+  <si>
+    <t>武士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_oni</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1773,6 +1846,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2242,10 +2318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2787,6 +2863,334 @@
         <v>0</v>
       </c>
       <c r="M13">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>200013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="D14">
+        <v>20101</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>427</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>1002</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>200014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>429</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15">
+        <v>20101</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>430</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>1002</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>200015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="D16">
+        <v>20101</v>
+      </c>
+      <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>433</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>1002</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>200016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>434</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="D17">
+        <v>20101</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>430</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>1002</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>200017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="D18">
+        <v>20101</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>427</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>1002</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>200018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="D19">
+        <v>20101</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>440</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>1002</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>200019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20">
+        <v>20101</v>
+      </c>
+      <c r="E20">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>440</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <v>1002</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>200020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="D21">
+        <v>20101</v>
+      </c>
+      <c r="E21">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>440</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>1002</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>10002</v>
       </c>
     </row>
@@ -4854,7 +5258,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B9" t="s">
@@ -4865,13 +5269,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
+      <c r="A10" s="41"/>
       <c r="B10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
+      <c r="A11" s="41"/>
       <c r="B11" t="s">
         <v>99</v>
       </c>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="463">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1636,6 +1636,71 @@
   </si>
   <si>
     <t>hero_oni</t>
+  </si>
+  <si>
+    <t>北欧海盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_viking</t>
+  </si>
+  <si>
+    <t>大力战将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_reinforce</t>
+  </si>
+  <si>
+    <t>兽人将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hobgoblin</t>
+  </si>
+  <si>
+    <t>0,35,38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_sarelgaz</t>
+  </si>
+  <si>
+    <t>0,60,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰坦蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_bandit</t>
+  </si>
+  <si>
+    <t>暴发户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,70,65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb_death_knight</t>
+  </si>
+  <si>
+    <t>暗夜骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb_lycan</t>
+  </si>
+  <si>
+    <t>狼人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否变身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1735,7 +1800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1846,6 +1911,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2318,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2333,7 +2401,7 @@
     <col min="11" max="11" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2441,11 @@
       <c r="M1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>200001</v>
       </c>
@@ -2415,7 +2486,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>200002</v>
       </c>
@@ -2456,7 +2527,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>200003</v>
       </c>
@@ -2497,7 +2568,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>200004</v>
       </c>
@@ -2538,7 +2609,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>200005</v>
       </c>
@@ -2579,7 +2650,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>200006</v>
       </c>
@@ -2620,7 +2691,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200007</v>
       </c>
@@ -2661,7 +2732,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>200008</v>
       </c>
@@ -2702,7 +2773,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>200009</v>
       </c>
@@ -2743,7 +2814,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>200010</v>
       </c>
@@ -2784,7 +2855,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>200011</v>
       </c>
@@ -2825,7 +2896,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>200012</v>
       </c>
@@ -2866,7 +2937,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>200013</v>
       </c>
@@ -2907,7 +2978,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>200014</v>
       </c>
@@ -2948,7 +3019,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>200015</v>
       </c>
@@ -2989,7 +3060,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>200016</v>
       </c>
@@ -3030,7 +3101,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>200017</v>
       </c>
@@ -3071,7 +3142,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>200018</v>
       </c>
@@ -3112,7 +3183,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>200019</v>
       </c>
@@ -3153,7 +3224,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>200020</v>
       </c>
@@ -3192,6 +3263,296 @@
       </c>
       <c r="M21">
         <v>10002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>200021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="D22">
+        <v>20101</v>
+      </c>
+      <c r="E22">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>409</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>1002</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>200022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>447</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23">
+        <v>20101</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>409</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>1002</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>200023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="D24">
+        <v>20101</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>451</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>1002</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>200024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="D25">
+        <v>20101</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>453</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>1002</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>200025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="D26">
+        <v>20101</v>
+      </c>
+      <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>457</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26">
+        <v>1002</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>200026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>459</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27">
+        <v>20101</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>409</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <v>1002</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>200027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="D28">
+        <v>20101</v>
+      </c>
+      <c r="E28">
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>409</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <v>1002</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>10002</v>
+      </c>
+      <c r="N28">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -5258,7 +5619,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>97</v>
       </c>
       <c r="B9" t="s">
@@ -5269,13 +5630,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" t="s">
         <v>99</v>
       </c>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="483">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1397,9 +1397,6 @@
     <t>map_mainbuttons_heroes_PC_0014</t>
   </si>
   <si>
-    <t>map_mainbuttons_heroes_PC_0001</t>
-  </si>
-  <si>
     <t>map_mainbuttons_heroes_PC_0003</t>
   </si>
   <si>
@@ -1701,6 +1698,81 @@
   <si>
     <t>是否变身</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_artillery</t>
+  </si>
+  <si>
+    <t>火枪手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocketeer</t>
+  </si>
+  <si>
+    <t>0,15,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orge</t>
+  </si>
+  <si>
+    <t>野蛮兽人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orc_armored</t>
+  </si>
+  <si>
+    <t>装甲兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人首领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>troll_chieftain</t>
+  </si>
+  <si>
+    <t>boss_godieth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_jt</t>
+  </si>
+  <si>
+    <t>雪人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,70,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gollem</t>
+  </si>
+  <si>
+    <t>紫色山神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xin_hero</t>
+  </si>
+  <si>
+    <t>hero_portraits_0008</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1911,6 +1983,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2386,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2412,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -2433,16 +2508,16 @@
         <v>361</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -2477,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2518,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2559,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2573,13 +2648,13 @@
         <v>200004</v>
       </c>
       <c r="B5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -2588,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -2600,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2614,10 +2689,10 @@
         <v>200005</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6">
         <v>20101</v>
@@ -2629,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -2641,7 +2716,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2655,10 +2730,10 @@
         <v>200006</v>
       </c>
       <c r="B7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D7">
         <v>20101</v>
@@ -2670,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -2682,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2696,10 +2771,10 @@
         <v>200007</v>
       </c>
       <c r="B8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D8">
         <v>20101</v>
@@ -2711,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -2723,7 +2798,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2737,10 +2812,10 @@
         <v>200008</v>
       </c>
       <c r="B9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>415</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>416</v>
       </c>
       <c r="D9">
         <v>20101</v>
@@ -2764,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2778,10 +2853,10 @@
         <v>200009</v>
       </c>
       <c r="B10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D10">
         <v>20101</v>
@@ -2793,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -2805,7 +2880,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2819,10 +2894,10 @@
         <v>200010</v>
       </c>
       <c r="B11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D11">
         <v>20101</v>
@@ -2846,7 +2921,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2860,10 +2935,10 @@
         <v>200011</v>
       </c>
       <c r="B12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D12">
         <v>20101</v>
@@ -2887,7 +2962,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2928,7 +3003,7 @@
         <v>4</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2942,10 +3017,10 @@
         <v>200013</v>
       </c>
       <c r="B14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D14">
         <v>20101</v>
@@ -2957,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -2969,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2983,10 +3058,10 @@
         <v>200014</v>
       </c>
       <c r="B15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D15">
         <v>20101</v>
@@ -2998,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -3010,7 +3085,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -3024,10 +3099,10 @@
         <v>200015</v>
       </c>
       <c r="B16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>431</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>432</v>
       </c>
       <c r="D16">
         <v>20101</v>
@@ -3039,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -3051,7 +3126,7 @@
         <v>4</v>
       </c>
       <c r="K16" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3065,10 +3140,10 @@
         <v>200016</v>
       </c>
       <c r="B17" t="s">
+        <v>433</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>434</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>435</v>
       </c>
       <c r="D17">
         <v>20101</v>
@@ -3080,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -3092,7 +3167,7 @@
         <v>4</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3106,10 +3181,10 @@
         <v>200017</v>
       </c>
       <c r="B18" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>436</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>437</v>
       </c>
       <c r="D18">
         <v>20101</v>
@@ -3121,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
@@ -3133,7 +3208,7 @@
         <v>4</v>
       </c>
       <c r="K18" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3147,10 +3222,10 @@
         <v>200018</v>
       </c>
       <c r="B19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D19">
         <v>20101</v>
@@ -3162,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -3174,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3188,10 +3263,10 @@
         <v>200019</v>
       </c>
       <c r="B20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>441</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>442</v>
       </c>
       <c r="D20">
         <v>20101</v>
@@ -3203,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -3215,7 +3290,7 @@
         <v>4</v>
       </c>
       <c r="K20" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3229,10 +3304,10 @@
         <v>200020</v>
       </c>
       <c r="B21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>443</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>444</v>
       </c>
       <c r="D21">
         <v>20101</v>
@@ -3244,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
@@ -3256,7 +3331,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3270,10 +3345,10 @@
         <v>200021</v>
       </c>
       <c r="B22" t="s">
+        <v>444</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>445</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>446</v>
       </c>
       <c r="D22">
         <v>20101</v>
@@ -3285,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -3297,7 +3372,7 @@
         <v>4</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3311,10 +3386,10 @@
         <v>200022</v>
       </c>
       <c r="B23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C23" s="41" t="s">
         <v>447</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>448</v>
       </c>
       <c r="D23">
         <v>20101</v>
@@ -3326,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -3338,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3352,10 +3427,10 @@
         <v>200023</v>
       </c>
       <c r="B24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>449</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>450</v>
       </c>
       <c r="D24">
         <v>20101</v>
@@ -3367,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
@@ -3379,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3393,10 +3468,10 @@
         <v>200024</v>
       </c>
       <c r="B25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D25">
         <v>20101</v>
@@ -3408,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
@@ -3420,7 +3495,7 @@
         <v>4</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3434,10 +3509,10 @@
         <v>200025</v>
       </c>
       <c r="B26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D26">
         <v>20101</v>
@@ -3449,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
@@ -3461,7 +3536,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3475,10 +3550,10 @@
         <v>200026</v>
       </c>
       <c r="B27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D27">
         <v>20101</v>
@@ -3490,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
@@ -3502,7 +3577,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3516,10 +3591,10 @@
         <v>200027</v>
       </c>
       <c r="B28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D28">
         <v>20101</v>
@@ -3531,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
@@ -3543,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3553,6 +3628,334 @@
       </c>
       <c r="N28">
         <v>1002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>200028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>462</v>
+      </c>
+      <c r="D29">
+        <v>20101</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>1002</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>200029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>464</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="D30">
+        <v>20101</v>
+      </c>
+      <c r="E30">
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>1002</v>
+      </c>
+      <c r="J30">
+        <v>15</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>200030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>468</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="D31">
+        <v>20101</v>
+      </c>
+      <c r="E31">
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>408</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <v>1002</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>200031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="D32">
+        <v>20101</v>
+      </c>
+      <c r="E32">
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>408</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32">
+        <v>1002</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>200032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>471</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="D33">
+        <v>20101</v>
+      </c>
+      <c r="E33">
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>408</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33">
+        <v>1002</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>200033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34">
+        <v>20101</v>
+      </c>
+      <c r="E34">
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>452</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <v>1002</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>200034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>476</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>475</v>
+      </c>
+      <c r="D35">
+        <v>20101</v>
+      </c>
+      <c r="E35">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>477</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35">
+        <v>1002</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>200035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>479</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="D36">
+        <v>20101</v>
+      </c>
+      <c r="E36">
+        <v>60</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>408</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>1002</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>10002</v>
       </c>
     </row>
   </sheetData>
@@ -3566,8 +3969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3620,7 +4023,7 @@
         <v>373</v>
       </c>
       <c r="M1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -3637,7 +4040,7 @@
         <v>11001</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3661,7 +4064,7 @@
         <v>374</v>
       </c>
       <c r="M2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -3678,7 +4081,7 @@
         <v>11101</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3702,7 +4105,7 @@
         <v>375</v>
       </c>
       <c r="M3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -3710,16 +4113,16 @@
         <v>100003</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>480</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>481</v>
       </c>
       <c r="D4">
         <v>11001</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3740,10 +4143,10 @@
         <v>150</v>
       </c>
       <c r="L4" t="s">
-        <v>376</v>
+        <v>482</v>
       </c>
       <c r="M4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -3781,10 +4184,10 @@
         <v>150</v>
       </c>
       <c r="L5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -3822,10 +4225,10 @@
         <v>150</v>
       </c>
       <c r="L6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -3863,10 +4266,10 @@
         <v>150</v>
       </c>
       <c r="L7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -3904,10 +4307,10 @@
         <v>150</v>
       </c>
       <c r="L8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -3945,10 +4348,10 @@
         <v>150</v>
       </c>
       <c r="L9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -3986,10 +4389,10 @@
         <v>150</v>
       </c>
       <c r="L10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -4027,10 +4430,10 @@
         <v>150</v>
       </c>
       <c r="L11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -4068,10 +4471,10 @@
         <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -4109,10 +4512,10 @@
         <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -5619,7 +6022,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>97</v>
       </c>
       <c r="B9" t="s">
@@ -5630,13 +6033,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>99</v>
       </c>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="492">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1499,10 +1499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,30,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1530,249 +1526,286 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>halloween_corrosive_soul</t>
+  </si>
+  <si>
+    <t>狼人鬼魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halloween_haunted_skeleton</t>
+  </si>
+  <si>
+    <t>骷髅小兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halloween_lich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师亡灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bandit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_gulthak</t>
+  </si>
+  <si>
+    <t>兽人领主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔大王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inferno_moloch</t>
+  </si>
+  <si>
+    <t>0,60,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械战甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_juggernaut</t>
+  </si>
+  <si>
+    <t>强盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brigand</t>
+  </si>
+  <si>
+    <t>abomination</t>
+  </si>
+  <si>
+    <t>憎恨者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,30,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林巨怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_troll</t>
+  </si>
+  <si>
+    <t>武士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_oni</t>
+  </si>
+  <si>
+    <t>北欧海盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_viking</t>
+  </si>
+  <si>
+    <t>大力战将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_reinforce</t>
+  </si>
+  <si>
+    <t>兽人将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hobgoblin</t>
+  </si>
+  <si>
+    <t>0,35,38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_sarelgaz</t>
+  </si>
+  <si>
+    <t>0,60,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰坦蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_bandit</t>
+  </si>
+  <si>
+    <t>暴发户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,70,65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb_death_knight</t>
+  </si>
+  <si>
+    <t>暗夜骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb_lycan</t>
+  </si>
+  <si>
+    <t>狼人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否变身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_artillery</t>
+  </si>
+  <si>
+    <t>火枪手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocketeer</t>
+  </si>
+  <si>
+    <t>0,15,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orge</t>
+  </si>
+  <si>
+    <t>野蛮兽人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orc_armored</t>
+  </si>
+  <si>
+    <t>装甲兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人首领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>troll_chieftain</t>
+  </si>
+  <si>
+    <t>boss_godieth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_jt</t>
+  </si>
+  <si>
+    <t>雪人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,70,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gollem</t>
+  </si>
+  <si>
+    <t>紫色山神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xin_hero</t>
+  </si>
+  <si>
+    <t>hero_portraits_0008</t>
+  </si>
+  <si>
+    <t>alleria</t>
+  </si>
+  <si>
+    <t>阿努比斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abubis</t>
+  </si>
+  <si>
+    <t>0,50,70,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halloween_hero_bones_golem</t>
+  </si>
+  <si>
+    <t>骷髅龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halloween_vampire</t>
+  </si>
+  <si>
+    <t>吸血鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,35,25,65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>halloween_werewolf</t>
-  </si>
-  <si>
-    <t>halloween_corrosive_soul</t>
-  </si>
-  <si>
-    <t>狼人鬼魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>halloween_haunted_skeleton</t>
-  </si>
-  <si>
-    <t>骷髅小兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>halloween_lich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师亡灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bandit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蒙面盗贼</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss_gulthak</t>
-  </si>
-  <si>
-    <t>兽人领主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,50,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔大王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inferno_moloch</t>
-  </si>
-  <si>
-    <t>0,60,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械战甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss_juggernaut</t>
-  </si>
-  <si>
-    <t>强盗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brigand</t>
-  </si>
-  <si>
-    <t>abomination</t>
-  </si>
-  <si>
-    <t>憎恨者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,30,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>森林巨怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forest_troll</t>
-  </si>
-  <si>
-    <t>武士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_oni</t>
-  </si>
-  <si>
-    <t>北欧海盗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_viking</t>
-  </si>
-  <si>
-    <t>大力战将</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_reinforce</t>
-  </si>
-  <si>
-    <t>兽人将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hobgoblin</t>
-  </si>
-  <si>
-    <t>0,35,38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss_sarelgaz</t>
-  </si>
-  <si>
-    <t>0,60,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰坦蜘蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss_bandit</t>
-  </si>
-  <si>
-    <t>暴发户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,70,65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cb_death_knight</t>
-  </si>
-  <si>
-    <t>暗夜骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cb_lycan</t>
-  </si>
-  <si>
-    <t>狼人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否变身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_artillery</t>
-  </si>
-  <si>
-    <t>火枪手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火箭兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rocketeer</t>
-  </si>
-  <si>
-    <t>0,15,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orge</t>
-  </si>
-  <si>
-    <t>野蛮兽人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orc_armored</t>
-  </si>
-  <si>
-    <t>装甲兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽人首领</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>troll_chieftain</t>
-  </si>
-  <si>
-    <t>boss_godieth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss_jt</t>
-  </si>
-  <si>
-    <t>雪人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,70,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gollem</t>
-  </si>
-  <si>
-    <t>紫色山神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊猫人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xin_hero</t>
-  </si>
-  <si>
-    <t>hero_portraits_0008</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1978,9 +2011,6 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2004,6 +2034,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2461,33 +2497,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="28.375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="35" customWidth="1"/>
+    <col min="3" max="3" width="28.375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="44" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="9" style="37"/>
+    <col min="11" max="11" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>423</v>
+      <c r="D1" s="44" t="s">
+        <v>421</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -2507,30 +2543,27 @@
       <c r="J1" t="s">
         <v>361</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>397</v>
       </c>
       <c r="L1" t="s">
         <v>402</v>
       </c>
       <c r="M1" t="s">
-        <v>407</v>
-      </c>
-      <c r="N1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>200001</v>
       </c>
       <c r="B2" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="38">
         <v>1002</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="16">
         <v>20101</v>
       </c>
       <c r="E2">
@@ -2551,27 +2584,24 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>398</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>200002</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="D3">
+        <v>432</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="D3" s="16">
         <v>20101</v>
       </c>
       <c r="E3">
@@ -2581,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -2592,31 +2622,28 @@
       <c r="J3">
         <v>4</v>
       </c>
-      <c r="K3" s="37" t="s">
-        <v>398</v>
+      <c r="K3" s="42" t="s">
+        <v>399</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>200003</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="16">
         <v>20101</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2633,37 +2660,37 @@
       <c r="J4">
         <v>4</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="36" t="s">
         <v>399</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>10001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>200004</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>422</v>
+        <v>365</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="16">
+        <v>20101</v>
       </c>
       <c r="E5">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -2672,39 +2699,36 @@
         <v>1002</v>
       </c>
       <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>399</v>
+        <v>4</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>398</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>200005</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="D6">
+        <v>413</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="D6" s="16">
         <v>20101</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>409</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -2713,80 +2737,74 @@
         <v>1001</v>
       </c>
       <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>398</v>
+        <v>4</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>399</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>200006</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="D7">
+        <v>491</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="16">
         <v>20101</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="42" t="s">
         <v>399</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200007</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="D8">
+        <v>425</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" s="16">
         <v>20101</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -2795,74 +2813,68 @@
         <v>1002</v>
       </c>
       <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="42" t="s">
         <v>399</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>200008</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>415</v>
-      </c>
-      <c r="D9">
-        <v>20101</v>
+        <v>401</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>420</v>
       </c>
       <c r="E9">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>409</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="37" t="s">
         <v>399</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>200009</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="D10">
+        <v>404</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="D10" s="16">
         <v>20101</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2874,124 +2886,115 @@
         <v>12</v>
       </c>
       <c r="I10">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J10">
         <v>8</v>
       </c>
-      <c r="K10" s="39" t="s">
-        <v>399</v>
+      <c r="K10" s="36" t="s">
+        <v>398</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>200010</v>
       </c>
       <c r="B11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>418</v>
-      </c>
-      <c r="D11">
+        <v>406</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="D11" s="16">
         <v>20101</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>407</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J11">
         <v>4</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="38" t="s">
         <v>399</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>200011</v>
       </c>
       <c r="B12" t="s">
-        <v>421</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>420</v>
-      </c>
-      <c r="D12">
+        <v>412</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="16">
         <v>20101</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>411</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="38" t="s">
         <v>399</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>200012</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1002</v>
-      </c>
-      <c r="D13">
+        <v>415</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="16">
         <v>20101</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>407</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -3000,39 +3003,36 @@
         <v>1002</v>
       </c>
       <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>398</v>
+        <v>8</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>399</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>200013</v>
       </c>
       <c r="B14" t="s">
-        <v>425</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="D14">
+        <v>417</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="16">
         <v>20101</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>426</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -3043,78 +3043,72 @@
       <c r="J14">
         <v>4</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="38" t="s">
         <v>399</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>200014</v>
       </c>
       <c r="B15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="D15">
+        <v>419</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="D15" s="16">
         <v>20101</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>429</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="38" t="s">
         <v>399</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>200015</v>
       </c>
       <c r="B16" t="s">
-        <v>430</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>431</v>
-      </c>
-      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="38">
+        <v>1002</v>
+      </c>
+      <c r="D16" s="16">
         <v>20101</v>
       </c>
       <c r="E16">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>432</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -3125,27 +3119,24 @@
       <c r="J16">
         <v>4</v>
       </c>
-      <c r="K16" s="40" t="s">
-        <v>399</v>
+      <c r="K16" s="36" t="s">
+        <v>398</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>200016</v>
       </c>
       <c r="B17" t="s">
-        <v>433</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="D17">
+        <v>427</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="D17" s="16">
         <v>20101</v>
       </c>
       <c r="E17">
@@ -3166,31 +3157,28 @@
       <c r="J17">
         <v>4</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="39" t="s">
         <v>399</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>200017</v>
       </c>
       <c r="B18" t="s">
-        <v>435</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>436</v>
-      </c>
-      <c r="D18">
+        <v>430</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="D18" s="16">
         <v>20101</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3207,27 +3195,24 @@
       <c r="J18">
         <v>4</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="39" t="s">
         <v>399</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>200018</v>
       </c>
       <c r="B19" t="s">
-        <v>438</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="D19">
+        <v>435</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="D19" s="16">
         <v>20101</v>
       </c>
       <c r="E19">
@@ -3237,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -3248,27 +3233,24 @@
       <c r="J19">
         <v>4</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="39" t="s">
         <v>399</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>200019</v>
       </c>
       <c r="B20" t="s">
-        <v>440</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="D20">
+        <v>437</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D20" s="16">
         <v>20101</v>
       </c>
       <c r="E20">
@@ -3278,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -3289,27 +3271,24 @@
       <c r="J20">
         <v>4</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="39" t="s">
         <v>399</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>200020</v>
       </c>
       <c r="B21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="D21">
+        <v>439</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="D21" s="16">
         <v>20101</v>
       </c>
       <c r="E21">
@@ -3319,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
@@ -3330,27 +3309,24 @@
       <c r="J21">
         <v>4</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="39" t="s">
         <v>399</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>200021</v>
       </c>
       <c r="B22" t="s">
-        <v>444</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="D22">
+        <v>441</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="D22" s="16">
         <v>20101</v>
       </c>
       <c r="E22">
@@ -3360,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -3371,27 +3347,24 @@
       <c r="J22">
         <v>4</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="40" t="s">
         <v>399</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>200022</v>
       </c>
       <c r="B23" t="s">
-        <v>446</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>447</v>
-      </c>
-      <c r="D23">
+        <v>443</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="D23" s="16">
         <v>20101</v>
       </c>
       <c r="E23">
@@ -3401,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -3412,27 +3385,24 @@
       <c r="J23">
         <v>4</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="40" t="s">
         <v>399</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>200023</v>
       </c>
       <c r="B24" t="s">
-        <v>448</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>449</v>
-      </c>
-      <c r="D24">
+        <v>445</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="D24" s="16">
         <v>20101</v>
       </c>
       <c r="E24">
@@ -3442,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
@@ -3453,27 +3423,24 @@
       <c r="J24">
         <v>4</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="K24" s="40" t="s">
         <v>399</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>200024</v>
       </c>
       <c r="B25" t="s">
-        <v>453</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>451</v>
-      </c>
-      <c r="D25">
+        <v>450</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="D25" s="16">
         <v>20101</v>
       </c>
       <c r="E25">
@@ -3483,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
@@ -3494,27 +3461,24 @@
       <c r="J25">
         <v>4</v>
       </c>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="40" t="s">
         <v>399</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>200025</v>
       </c>
       <c r="B26" t="s">
-        <v>455</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>454</v>
-      </c>
-      <c r="D26">
+        <v>452</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="D26" s="16">
         <v>20101</v>
       </c>
       <c r="E26">
@@ -3524,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
@@ -3535,27 +3499,24 @@
       <c r="J26">
         <v>4</v>
       </c>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="40" t="s">
         <v>399</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>200026</v>
       </c>
       <c r="B27" t="s">
-        <v>458</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>457</v>
-      </c>
-      <c r="D27">
+        <v>455</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="D27" s="16">
         <v>20101</v>
       </c>
       <c r="E27">
@@ -3565,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
@@ -3576,27 +3537,24 @@
       <c r="J27">
         <v>4</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="40" t="s">
         <v>399</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>200027</v>
       </c>
       <c r="B28" t="s">
-        <v>460</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="D28">
+        <v>457</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="D28" s="16">
         <v>20101</v>
       </c>
       <c r="E28">
@@ -3606,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
@@ -3617,30 +3575,27 @@
       <c r="J28">
         <v>4</v>
       </c>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="40" t="s">
         <v>399</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>10002</v>
-      </c>
-      <c r="N28">
         <v>1002</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>200028</v>
       </c>
       <c r="B29" t="s">
-        <v>463</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>462</v>
-      </c>
-      <c r="D29">
+        <v>460</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="D29" s="16">
         <v>20101</v>
       </c>
       <c r="E29">
@@ -3650,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
@@ -3661,27 +3616,24 @@
       <c r="J29">
         <v>4</v>
       </c>
-      <c r="K29" s="42" t="s">
+      <c r="K29" s="41" t="s">
         <v>399</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>200029</v>
       </c>
       <c r="B30" t="s">
-        <v>464</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>465</v>
-      </c>
-      <c r="D30">
+        <v>461</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="D30" s="16">
         <v>20101</v>
       </c>
       <c r="E30">
@@ -3691,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
@@ -3702,27 +3654,24 @@
       <c r="J30">
         <v>15</v>
       </c>
-      <c r="K30" s="42" t="s">
+      <c r="K30" s="41" t="s">
         <v>398</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>200030</v>
       </c>
       <c r="B31" t="s">
-        <v>468</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>467</v>
-      </c>
-      <c r="D31">
+        <v>465</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="D31" s="16">
         <v>20101</v>
       </c>
       <c r="E31">
@@ -3732,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
@@ -3743,27 +3692,24 @@
       <c r="J31">
         <v>4</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="K31" s="41" t="s">
         <v>399</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>200031</v>
       </c>
       <c r="B32" t="s">
-        <v>470</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>469</v>
-      </c>
-      <c r="D32">
+        <v>467</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="D32" s="16">
         <v>20101</v>
       </c>
       <c r="E32">
@@ -3773,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -3784,27 +3730,24 @@
       <c r="J32">
         <v>4</v>
       </c>
-      <c r="K32" s="42" t="s">
+      <c r="K32" s="41" t="s">
         <v>399</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>200032</v>
       </c>
       <c r="B33" t="s">
-        <v>471</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>472</v>
-      </c>
-      <c r="D33">
+        <v>468</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="D33" s="16">
         <v>20101</v>
       </c>
       <c r="E33">
@@ -3814,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -3825,27 +3768,24 @@
       <c r="J33">
         <v>4</v>
       </c>
-      <c r="K33" s="42" t="s">
+      <c r="K33" s="41" t="s">
         <v>399</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>200033</v>
       </c>
       <c r="B34" t="s">
-        <v>474</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>473</v>
-      </c>
-      <c r="D34">
+        <v>471</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="D34" s="16">
         <v>20101</v>
       </c>
       <c r="E34">
@@ -3855,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -3866,27 +3806,24 @@
       <c r="J34">
         <v>4</v>
       </c>
-      <c r="K34" s="42" t="s">
+      <c r="K34" s="41" t="s">
         <v>399</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>200034</v>
       </c>
       <c r="B35" t="s">
-        <v>476</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>475</v>
-      </c>
-      <c r="D35">
+        <v>473</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="D35" s="16">
         <v>20101</v>
       </c>
       <c r="E35">
@@ -3896,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -3907,27 +3844,24 @@
       <c r="J35">
         <v>4</v>
       </c>
-      <c r="K35" s="42" t="s">
+      <c r="K35" s="41" t="s">
         <v>399</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>200035</v>
       </c>
       <c r="B36" t="s">
-        <v>479</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>478</v>
-      </c>
-      <c r="D36">
+        <v>476</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="D36" s="16">
         <v>20101</v>
       </c>
       <c r="E36">
@@ -3937,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -3948,14 +3882,125 @@
       <c r="J36">
         <v>4</v>
       </c>
-      <c r="K36" s="42" t="s">
+      <c r="K36" s="41" t="s">
         <v>399</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36">
-        <v>10002</v>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>200036</v>
+      </c>
+      <c r="B37" t="s">
+        <v>481</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="D37" s="16">
+        <v>20101</v>
+      </c>
+      <c r="E37">
+        <v>60</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>483</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37">
+        <v>1002</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>200037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>485</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D38" s="16">
+        <v>20101</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>486</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38">
+        <v>1002</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>200038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>488</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="D39" s="16">
+        <v>20101</v>
+      </c>
+      <c r="E39">
+        <v>60</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>489</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <v>1002</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3969,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4034,13 +4079,13 @@
         <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>367</v>
+        <v>480</v>
       </c>
       <c r="D2">
         <v>11001</v>
       </c>
       <c r="E2">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4081,7 +4126,7 @@
         <v>11101</v>
       </c>
       <c r="E3">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4113,16 +4158,16 @@
         <v>100003</v>
       </c>
       <c r="B4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D4">
         <v>11001</v>
       </c>
       <c r="E4">
-        <v>200</v>
+        <v>50000</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4143,7 +4188,7 @@
         <v>150</v>
       </c>
       <c r="L4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M4" t="s">
         <v>387</v>
@@ -4163,7 +4208,7 @@
         <v>11001</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>50000</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4204,7 +4249,7 @@
         <v>11001</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>50000</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,17 +29,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="512">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞蛾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1507,10 +1503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>halloween_bone</t>
   </si>
   <si>
@@ -1559,10 +1551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss_gulthak</t>
   </si>
   <si>
@@ -1805,6 +1793,89 @@
   </si>
   <si>
     <t>蒙面盗贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>human_woodcutter</t>
+  </si>
+  <si>
+    <t>desert_executioner</t>
+  </si>
+  <si>
+    <t>魁梧者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desert_Immortal</t>
+  </si>
+  <si>
+    <t>铁血士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desert_raider</t>
+  </si>
+  <si>
+    <t>抢劫者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arivan_hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regson_hero</t>
+  </si>
+  <si>
+    <t>0,0,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,100,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,80,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloomEff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red_bloom</t>
+  </si>
+  <si>
+    <t>orange_bloom</t>
+  </si>
+  <si>
+    <t>green_bloom</t>
+  </si>
+  <si>
+    <t>violet_bloom</t>
+  </si>
+  <si>
+    <t>0,0,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1835,7 +1906,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1890,6 +1961,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1905,7 +2000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2011,27 +2106,6 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2040,6 +2114,72 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2497,1510 +2637,1836 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="28.375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="44" customWidth="1"/>
+    <col min="3" max="3" width="28.375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="37" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="9" style="36"/>
+    <col min="7" max="7" width="13.875" style="54" customWidth="1"/>
+    <col min="11" max="11" width="9" style="35"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M1" t="s">
+        <v>455</v>
+      </c>
+      <c r="N1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="39">
+        <v>200001</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1002</v>
+      </c>
+      <c r="D2" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E2" s="39">
+        <v>999999999</v>
+      </c>
+      <c r="F2" s="39">
+        <v>1</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="39">
+        <v>1001</v>
+      </c>
+      <c r="J2" s="39">
+        <v>0</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="L2" s="39">
+        <v>0</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="39">
+        <v>200002</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E3" s="39">
+        <v>10</v>
+      </c>
+      <c r="F3" s="39">
+        <v>1</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="39">
+        <v>1002</v>
+      </c>
+      <c r="J3" s="39">
+        <v>4</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="L3" s="39">
+        <v>0</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="39">
+        <v>200003</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E4" s="39">
+        <v>20</v>
+      </c>
+      <c r="F4" s="39">
+        <v>1</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="39">
+        <v>1001</v>
+      </c>
+      <c r="J4" s="39">
+        <v>4</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="L4" s="39">
+        <v>0</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="O4" s="39">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="39">
+        <v>200004</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="D5" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E5" s="39">
+        <v>30</v>
+      </c>
+      <c r="F5" s="39">
+        <v>1</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="39">
+        <v>1002</v>
+      </c>
+      <c r="J5" s="39">
+        <v>4</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="L5" s="39">
+        <v>0</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="39">
+        <v>200005</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="D6" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E6" s="39">
+        <v>60</v>
+      </c>
+      <c r="F6" s="39">
+        <v>1</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="39">
+        <v>1002</v>
+      </c>
+      <c r="J6" s="39">
+        <v>4</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="L6" s="39">
+        <v>0</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="39">
+        <v>200006</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="D7" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E7" s="39">
+        <v>40</v>
+      </c>
+      <c r="F7" s="39">
+        <v>1</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="39">
+        <v>1002</v>
+      </c>
+      <c r="J7" s="39">
+        <v>4</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="L7" s="39">
+        <v>0</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="39">
+        <v>200007</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E8" s="39">
+        <v>40</v>
+      </c>
+      <c r="F8" s="39">
+        <v>1</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="39">
+        <v>1002</v>
+      </c>
+      <c r="J8" s="39">
+        <v>4</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="L8" s="39">
+        <v>0</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="39">
+        <v>200008</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>497</v>
+      </c>
+      <c r="D9" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E9" s="39">
+        <v>100</v>
+      </c>
+      <c r="F9" s="39">
+        <v>1</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="39">
+        <v>1002</v>
+      </c>
+      <c r="J9" s="39">
+        <v>4</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="L9" s="39">
+        <v>0</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="39">
+        <v>200009</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="D10" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E10" s="39">
+        <v>150</v>
+      </c>
+      <c r="F10" s="39">
+        <v>1</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="39">
+        <v>1001</v>
+      </c>
+      <c r="J10" s="39">
+        <v>10</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="L10" s="39">
+        <v>0</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="39">
+        <v>200010</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E11" s="39">
+        <v>100</v>
+      </c>
+      <c r="F11" s="39">
+        <v>1</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>503</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="39">
+        <v>1001</v>
+      </c>
+      <c r="J11" s="39">
+        <v>4</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="L11" s="39">
+        <v>0</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="39">
+        <v>200011</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>488</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="D12" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E12" s="39">
+        <v>200</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1002</v>
+      </c>
+      <c r="J12" s="39">
+        <v>4</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="L12" s="39">
+        <v>0</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="39">
+        <v>200012</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="D13" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E13" s="39">
+        <v>300</v>
+      </c>
+      <c r="F13" s="39">
+        <v>1</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="39">
+        <v>1002</v>
+      </c>
+      <c r="J13" s="39">
+        <v>4</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="L13" s="39">
+        <v>1</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="39">
+        <v>200013</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>421</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D14" s="41">
+        <v>20101</v>
+      </c>
+      <c r="E14" s="39">
+        <v>400</v>
+      </c>
+      <c r="F14" s="39">
+        <v>2</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="39">
+        <v>1002</v>
+      </c>
+      <c r="J14" s="39">
+        <v>4</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="L14" s="39">
+        <v>1</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="39">
+        <v>200014</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" s="39">
+        <v>500</v>
+      </c>
+      <c r="F15" s="39">
+        <v>2</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="39">
+        <v>1002</v>
+      </c>
+      <c r="J15" s="39">
+        <v>2</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="L15" s="39">
+        <v>1</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="39">
+        <v>200015</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16" s="46">
+        <v>20101</v>
+      </c>
+      <c r="E16" s="44">
+        <v>10</v>
+      </c>
+      <c r="F16" s="44">
+        <v>1</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="44">
+        <v>1001</v>
+      </c>
+      <c r="J16" s="44">
+        <v>4</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="L16" s="44">
+        <v>0</v>
+      </c>
+      <c r="N16" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="39">
+        <v>200016</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" s="46">
+        <v>20101</v>
+      </c>
+      <c r="E17" s="44">
+        <v>100</v>
+      </c>
+      <c r="F17" s="44">
+        <v>1</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="44">
+        <v>1002</v>
+      </c>
+      <c r="J17" s="44">
+        <v>2</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="L17" s="44">
+        <v>0</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="39">
+        <v>200017</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="D18" s="46">
+        <v>20101</v>
+      </c>
+      <c r="E18" s="44">
+        <v>50</v>
+      </c>
+      <c r="F18" s="44">
+        <v>1</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="44">
+        <v>1002</v>
+      </c>
+      <c r="J18" s="44">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K18" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="L18" s="44">
+        <v>0</v>
+      </c>
+      <c r="N18" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="39">
+        <v>200018</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" s="46">
+        <v>20101</v>
+      </c>
+      <c r="E19" s="44">
+        <v>20</v>
+      </c>
+      <c r="F19" s="44">
+        <v>1</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" t="s">
-        <v>361</v>
-      </c>
-      <c r="K1" s="36" t="s">
+      <c r="I19" s="44">
+        <v>1002</v>
+      </c>
+      <c r="J19" s="44">
+        <v>4</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="L19" s="44">
+        <v>0</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="39">
+        <v>200019</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" s="46">
+        <v>20101</v>
+      </c>
+      <c r="E20" s="44">
+        <v>30</v>
+      </c>
+      <c r="F20" s="44">
+        <v>1</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="44">
+        <v>1001</v>
+      </c>
+      <c r="J20" s="44">
+        <v>4</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="L20" s="44">
+        <v>0</v>
+      </c>
+      <c r="N20" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="39">
+        <v>200020</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="D21" s="46">
+        <v>20101</v>
+      </c>
+      <c r="E21" s="44">
+        <v>60</v>
+      </c>
+      <c r="F21" s="44">
+        <v>1</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="44">
+        <v>1002</v>
+      </c>
+      <c r="J21" s="44">
+        <v>4</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="L21" s="44">
+        <v>0</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="39">
+        <v>200021</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="D22" s="46">
+        <v>20101</v>
+      </c>
+      <c r="E22" s="44">
+        <v>60</v>
+      </c>
+      <c r="F22" s="44">
+        <v>2</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>486</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="44">
+        <v>1002</v>
+      </c>
+      <c r="J22" s="44">
+        <v>4</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="L22" s="44">
+        <v>0</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="39">
+        <v>200022</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D23" s="47">
+        <v>20101</v>
+      </c>
+      <c r="E23" s="13">
+        <v>60</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1002</v>
+      </c>
+      <c r="J23" s="13">
+        <v>4</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="39">
+        <v>200023</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="D24" s="47">
+        <v>20101</v>
+      </c>
+      <c r="E24" s="13">
+        <v>60</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1002</v>
+      </c>
+      <c r="J24" s="13">
+        <v>15</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13"/>
+      <c r="N24" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="39">
+        <v>200024</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="D25" s="47">
+        <v>20101</v>
+      </c>
+      <c r="E25" s="13">
+        <v>60</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1002</v>
+      </c>
+      <c r="J25" s="13">
+        <v>4</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="39">
+        <v>200025</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="M1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>200001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C2" s="38">
+      <c r="D26" s="47">
+        <v>20101</v>
+      </c>
+      <c r="E26" s="13">
+        <v>100</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1001</v>
+      </c>
+      <c r="J26" s="13">
+        <v>8</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="39">
+        <v>200026</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D27" s="47">
+        <v>20101</v>
+      </c>
+      <c r="E27" s="13">
+        <v>500</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="13">
         <v>1002</v>
       </c>
-      <c r="D2" s="16">
+      <c r="J27" s="13">
+        <v>4</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="39">
+        <v>200027</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="D28" s="53">
         <v>20101</v>
       </c>
-      <c r="E2">
-        <v>999999999</v>
-      </c>
-      <c r="F2">
+      <c r="E28" s="51">
+        <v>60</v>
+      </c>
+      <c r="F28" s="51">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>1001</v>
-      </c>
-      <c r="J2">
+      <c r="G28" s="58" t="s">
+        <v>433</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="51">
+        <v>1002</v>
+      </c>
+      <c r="J28" s="51">
+        <v>4</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="L28" s="51">
         <v>0</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="N28" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="39">
+        <v>200028</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="D29" s="53">
+        <v>20101</v>
+      </c>
+      <c r="E29" s="51">
+        <v>60</v>
+      </c>
+      <c r="F29" s="51">
+        <v>1</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>444</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="51">
+        <v>1002</v>
+      </c>
+      <c r="J29" s="51">
+        <v>4</v>
+      </c>
+      <c r="K29" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="L2">
+      <c r="L29" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>200002</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="N29" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="39">
+        <v>200029</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="D30" s="53">
+        <v>20101</v>
+      </c>
+      <c r="E30" s="51">
+        <v>60</v>
+      </c>
+      <c r="F30" s="51">
+        <v>1</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="51">
+        <v>1002</v>
+      </c>
+      <c r="J30" s="51">
+        <v>4</v>
+      </c>
+      <c r="K30" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="L30" s="51">
+        <v>0</v>
+      </c>
+      <c r="N30" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="39">
+        <v>200030</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="D31" s="53">
+        <v>20101</v>
+      </c>
+      <c r="E31" s="51">
+        <v>60</v>
+      </c>
+      <c r="F31" s="51">
+        <v>1</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="51">
+        <v>1002</v>
+      </c>
+      <c r="J31" s="51">
+        <v>4</v>
+      </c>
+      <c r="K31" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="L31" s="51">
+        <v>0</v>
+      </c>
+      <c r="N31" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="39">
+        <v>200031</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>465</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="D32" s="53">
+        <v>20101</v>
+      </c>
+      <c r="E32" s="51">
+        <v>60</v>
+      </c>
+      <c r="F32" s="51">
+        <v>1</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="51">
+        <v>1002</v>
+      </c>
+      <c r="J32" s="51">
+        <v>4</v>
+      </c>
+      <c r="K32" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="L32" s="51">
+        <v>0</v>
+      </c>
+      <c r="N32" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="39">
+        <v>200032</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" s="53">
+        <v>20101</v>
+      </c>
+      <c r="E33" s="51">
+        <v>500</v>
+      </c>
+      <c r="F33" s="51">
+        <v>1</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="51">
+        <v>1002</v>
+      </c>
+      <c r="J33" s="51">
+        <v>4</v>
+      </c>
+      <c r="K33" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="L33" s="51">
+        <v>0</v>
+      </c>
+      <c r="N33" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="39">
+        <v>200033</v>
+      </c>
+      <c r="B34" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C34" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="D34" s="53">
+        <v>20101</v>
+      </c>
+      <c r="E34" s="51">
+        <v>60</v>
+      </c>
+      <c r="F34" s="51">
+        <v>1</v>
+      </c>
+      <c r="G34" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="D3" s="16">
+      <c r="H34" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="51">
+        <v>1002</v>
+      </c>
+      <c r="J34" s="51">
+        <v>4</v>
+      </c>
+      <c r="K34" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="L34" s="51">
+        <v>0</v>
+      </c>
+      <c r="N34" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="39">
+        <v>200034</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="D35" s="50">
         <v>20101</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="E35" s="48">
+        <v>60</v>
+      </c>
+      <c r="F35" s="48">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3">
+      <c r="G35" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="48">
         <v>1002</v>
       </c>
-      <c r="J3">
+      <c r="J35" s="48">
         <v>4</v>
       </c>
-      <c r="K3" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="L3">
+      <c r="K35" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="L35" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>200003</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="N35" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="39">
+        <v>200035</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="D36" s="50">
         <v>20101</v>
       </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
+      <c r="E36" s="48">
+        <v>60</v>
+      </c>
+      <c r="F36" s="48">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>366</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>1001</v>
-      </c>
-      <c r="J4">
+      <c r="G36" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="48">
+        <v>1002</v>
+      </c>
+      <c r="J36" s="48">
         <v>4</v>
       </c>
-      <c r="K4" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="L4">
+      <c r="K36" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="L36" s="48">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>200004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="N36" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="39">
+        <v>200036</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="D37" s="50">
         <v>20101</v>
       </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5">
+      <c r="E37" s="48">
+        <v>60</v>
+      </c>
+      <c r="F37" s="48">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>366</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5">
+      <c r="G37" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="H37" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="48">
         <v>1002</v>
       </c>
-      <c r="J5">
+      <c r="J37" s="48">
         <v>4</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K37" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="L5">
+      <c r="L37" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>200005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="N37" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="39">
+        <v>200037</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="D38" s="50">
         <v>20101</v>
       </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-      <c r="F6">
+      <c r="E38" s="48">
+        <v>60</v>
+      </c>
+      <c r="F38" s="48">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>1001</v>
-      </c>
-      <c r="J6">
+      <c r="G38" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="48">
+        <v>1002</v>
+      </c>
+      <c r="J38" s="48">
         <v>4</v>
       </c>
-      <c r="K6" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="L6">
+      <c r="K38" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="L38" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>200006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>422</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="N38" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="39">
+        <v>200038</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="D39" s="50">
         <v>20101</v>
       </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
+      <c r="E39" s="48">
+        <v>60</v>
+      </c>
+      <c r="F39" s="48">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>423</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7">
+      <c r="G39" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="48">
         <v>1002</v>
       </c>
-      <c r="J7">
+      <c r="J39" s="48">
         <v>4</v>
       </c>
-      <c r="K7" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="L7">
+      <c r="K39" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="L39" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>200007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="N39" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="39">
+        <v>200039</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="D40" s="50">
         <v>20101</v>
       </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8">
+      <c r="E40" s="48">
+        <v>60</v>
+      </c>
+      <c r="F40" s="48">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>426</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8">
+      <c r="G40" s="59" t="s">
+        <v>511</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="48">
         <v>1002</v>
       </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="L8">
+      <c r="J40" s="48">
+        <v>4</v>
+      </c>
+      <c r="K40" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="L40" s="48">
+        <v>0</v>
+      </c>
+      <c r="M40" s="48">
+        <v>1002</v>
+      </c>
+      <c r="N40" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="39">
+        <v>200040</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="D41" s="50">
+        <v>20101</v>
+      </c>
+      <c r="E41" s="48">
+        <v>60</v>
+      </c>
+      <c r="F41" s="48">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>200008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-      <c r="F9">
+      <c r="G41" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="48">
+        <v>1002</v>
+      </c>
+      <c r="J41" s="48">
+        <v>4</v>
+      </c>
+      <c r="K41" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="L41" s="48">
+        <v>0</v>
+      </c>
+      <c r="N41" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="39">
+        <v>200041</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="D42" s="50">
+        <v>20101</v>
+      </c>
+      <c r="E42" s="48">
+        <v>60</v>
+      </c>
+      <c r="F42" s="48">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>409</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9">
+      <c r="G42" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="48">
         <v>1002</v>
       </c>
-      <c r="J9">
+      <c r="J42" s="48">
+        <v>4</v>
+      </c>
+      <c r="K42" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="L42" s="48">
+        <v>0</v>
+      </c>
+      <c r="N42" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="39">
+        <v>200042</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="D43" s="50">
+        <v>20101</v>
+      </c>
+      <c r="E43" s="48">
+        <v>60</v>
+      </c>
+      <c r="F43" s="48">
         <v>2</v>
       </c>
-      <c r="K9" s="37" t="s">
-        <v>399</v>
-      </c>
-      <c r="L9">
+      <c r="G43" s="59" t="s">
+        <v>480</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="48">
+        <v>1002</v>
+      </c>
+      <c r="J43" s="48">
+        <v>4</v>
+      </c>
+      <c r="K43" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="L43" s="48">
+        <v>0</v>
+      </c>
+      <c r="N43" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="39">
+        <v>200043</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="D44" s="50">
+        <v>20101</v>
+      </c>
+      <c r="E44" s="48">
+        <v>60</v>
+      </c>
+      <c r="F44" s="48">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>200009</v>
-      </c>
-      <c r="B10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="D10" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>408</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10">
-        <v>1001</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10" s="36" t="s">
+      <c r="G44" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="48">
+        <v>1002</v>
+      </c>
+      <c r="J44" s="48">
+        <v>4</v>
+      </c>
+      <c r="K44" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="L10">
+      <c r="L44" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>200010</v>
-      </c>
-      <c r="B11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="D11" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>407</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11">
-        <v>1001</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>200011</v>
-      </c>
-      <c r="B12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="D12" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>411</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12">
-        <v>1002</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>200012</v>
-      </c>
-      <c r="B13" t="s">
-        <v>415</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="D13" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E13">
-        <v>50</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>407</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13">
-        <v>1002</v>
-      </c>
-      <c r="J13">
-        <v>8</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>200013</v>
-      </c>
-      <c r="B14" t="s">
-        <v>417</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="D14" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14">
-        <v>1002</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>200014</v>
-      </c>
-      <c r="B15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="D15" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E15">
-        <v>30</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15">
-        <v>1001</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>200015</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="38">
-        <v>1002</v>
-      </c>
-      <c r="D16" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16">
-        <v>1002</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>200016</v>
-      </c>
-      <c r="B17" t="s">
-        <v>427</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>428</v>
-      </c>
-      <c r="D17" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E17">
-        <v>500</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>429</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17">
-        <v>1002</v>
-      </c>
-      <c r="J17">
-        <v>4</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>200017</v>
-      </c>
-      <c r="B18" t="s">
-        <v>430</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="D18" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E18">
-        <v>500</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>426</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18">
-        <v>1002</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>200018</v>
-      </c>
-      <c r="B19" t="s">
-        <v>435</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>434</v>
-      </c>
-      <c r="D19" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E19">
-        <v>60</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19">
-        <v>1002</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>200019</v>
-      </c>
-      <c r="B20" t="s">
-        <v>437</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="D20" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E20">
-        <v>60</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>436</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20">
-        <v>1002</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>200020</v>
-      </c>
-      <c r="B21" t="s">
-        <v>439</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="D21" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E21">
-        <v>60</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>436</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21">
-        <v>1002</v>
-      </c>
-      <c r="J21">
-        <v>4</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>200021</v>
-      </c>
-      <c r="B22" t="s">
-        <v>441</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="D22" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E22">
-        <v>60</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>407</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22">
-        <v>1002</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>200022</v>
-      </c>
-      <c r="B23" t="s">
-        <v>443</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>444</v>
-      </c>
-      <c r="D23" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E23">
-        <v>60</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>407</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23">
-        <v>1002</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>200023</v>
-      </c>
-      <c r="B24" t="s">
-        <v>445</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="D24" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E24">
-        <v>60</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>447</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24">
-        <v>1002</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>200024</v>
-      </c>
-      <c r="B25" t="s">
-        <v>450</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="D25" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E25">
-        <v>60</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>449</v>
-      </c>
-      <c r="H25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25">
-        <v>1002</v>
-      </c>
-      <c r="J25">
-        <v>4</v>
-      </c>
-      <c r="K25" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>200025</v>
-      </c>
-      <c r="B26" t="s">
-        <v>452</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="D26" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E26">
-        <v>60</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>453</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26">
-        <v>1002</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-      <c r="K26" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>200026</v>
-      </c>
-      <c r="B27" t="s">
-        <v>455</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="D27" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E27">
-        <v>60</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>407</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27">
-        <v>1002</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="K27" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>200027</v>
-      </c>
-      <c r="B28" t="s">
-        <v>457</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="D28" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E28">
-        <v>60</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>407</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28">
-        <v>1002</v>
-      </c>
-      <c r="J28">
-        <v>4</v>
-      </c>
-      <c r="K28" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>200028</v>
-      </c>
-      <c r="B29" t="s">
-        <v>460</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="D29" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E29">
-        <v>60</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>407</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29">
-        <v>1002</v>
-      </c>
-      <c r="J29">
-        <v>4</v>
-      </c>
-      <c r="K29" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>200029</v>
-      </c>
-      <c r="B30" t="s">
-        <v>461</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>462</v>
-      </c>
-      <c r="D30" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E30">
-        <v>60</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>463</v>
-      </c>
-      <c r="H30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30">
-        <v>1002</v>
-      </c>
-      <c r="J30">
-        <v>15</v>
-      </c>
-      <c r="K30" s="41" t="s">
-        <v>398</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>200030</v>
-      </c>
-      <c r="B31" t="s">
-        <v>465</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="D31" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E31">
-        <v>60</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>407</v>
-      </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31">
-        <v>1002</v>
-      </c>
-      <c r="J31">
-        <v>4</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>200031</v>
-      </c>
-      <c r="B32" t="s">
-        <v>467</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>466</v>
-      </c>
-      <c r="D32" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E32">
-        <v>60</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>407</v>
-      </c>
-      <c r="H32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32">
-        <v>1002</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>200032</v>
-      </c>
-      <c r="B33" t="s">
-        <v>468</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>469</v>
-      </c>
-      <c r="D33" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E33">
-        <v>60</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>407</v>
-      </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33">
-        <v>1002</v>
-      </c>
-      <c r="J33">
-        <v>4</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>200033</v>
-      </c>
-      <c r="B34" t="s">
-        <v>471</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>470</v>
-      </c>
-      <c r="D34" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E34">
-        <v>60</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>449</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34">
-        <v>1002</v>
-      </c>
-      <c r="J34">
-        <v>4</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>200034</v>
-      </c>
-      <c r="B35" t="s">
-        <v>473</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="D35" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E35">
-        <v>60</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>474</v>
-      </c>
-      <c r="H35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35">
-        <v>1002</v>
-      </c>
-      <c r="J35">
-        <v>4</v>
-      </c>
-      <c r="K35" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>200035</v>
-      </c>
-      <c r="B36" t="s">
-        <v>476</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="D36" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E36">
-        <v>60</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>407</v>
-      </c>
-      <c r="H36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36">
-        <v>1002</v>
-      </c>
-      <c r="J36">
-        <v>4</v>
-      </c>
-      <c r="K36" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>200036</v>
-      </c>
-      <c r="B37" t="s">
-        <v>481</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="D37" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E37">
-        <v>60</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>483</v>
-      </c>
-      <c r="H37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37">
-        <v>1002</v>
-      </c>
-      <c r="J37">
-        <v>4</v>
-      </c>
-      <c r="K37" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>200037</v>
-      </c>
-      <c r="B38" t="s">
-        <v>485</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="D38" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E38">
-        <v>60</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>486</v>
-      </c>
-      <c r="H38" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38">
-        <v>1002</v>
-      </c>
-      <c r="J38">
-        <v>4</v>
-      </c>
-      <c r="K38" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>200038</v>
-      </c>
-      <c r="B39" t="s">
-        <v>488</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="D39" s="16">
-        <v>20101</v>
-      </c>
-      <c r="E39">
-        <v>60</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39" t="s">
-        <v>489</v>
-      </c>
-      <c r="H39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39">
-        <v>1002</v>
-      </c>
-      <c r="J39">
-        <v>4</v>
-      </c>
-      <c r="K39" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
+      <c r="N44" s="39" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -4032,43 +4498,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -4076,10 +4542,10 @@
         <v>100001</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D2">
         <v>11001</v>
@@ -4091,10 +4557,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -4106,10 +4572,10 @@
         <v>150</v>
       </c>
       <c r="L2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -4117,10 +4583,10 @@
         <v>100002</v>
       </c>
       <c r="B3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" t="s">
         <v>371</v>
-      </c>
-      <c r="C3" t="s">
-        <v>372</v>
       </c>
       <c r="D3">
         <v>11101</v>
@@ -4132,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -4147,10 +4613,10 @@
         <v>250</v>
       </c>
       <c r="L3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -4158,10 +4624,10 @@
         <v>100003</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D4">
         <v>11001</v>
@@ -4173,10 +4639,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -4188,10 +4654,10 @@
         <v>150</v>
       </c>
       <c r="L4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -4199,10 +4665,10 @@
         <v>100004</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D5">
         <v>11001</v>
@@ -4214,10 +4680,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4229,10 +4695,10 @@
         <v>150</v>
       </c>
       <c r="L5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -4240,10 +4706,10 @@
         <v>100005</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D6">
         <v>11001</v>
@@ -4255,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4270,10 +4736,10 @@
         <v>150</v>
       </c>
       <c r="L6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -4281,10 +4747,10 @@
         <v>100006</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D7">
         <v>11001</v>
@@ -4296,10 +4762,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4311,10 +4777,10 @@
         <v>150</v>
       </c>
       <c r="L7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -4322,10 +4788,10 @@
         <v>100007</v>
       </c>
       <c r="B8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D8">
         <v>11001</v>
@@ -4337,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4352,10 +4818,10 @@
         <v>150</v>
       </c>
       <c r="L8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -4363,10 +4829,10 @@
         <v>100008</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D9">
         <v>11001</v>
@@ -4378,10 +4844,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4393,10 +4859,10 @@
         <v>150</v>
       </c>
       <c r="L9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -4404,10 +4870,10 @@
         <v>100009</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D10">
         <v>11001</v>
@@ -4419,10 +4885,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4434,10 +4900,10 @@
         <v>150</v>
       </c>
       <c r="L10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -4445,10 +4911,10 @@
         <v>100010</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D11">
         <v>11001</v>
@@ -4460,10 +4926,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4475,10 +4941,10 @@
         <v>150</v>
       </c>
       <c r="L11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -4486,10 +4952,10 @@
         <v>100011</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D12">
         <v>11001</v>
@@ -4501,10 +4967,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4516,10 +4982,10 @@
         <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -4527,10 +4993,10 @@
         <v>100012</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D13">
         <v>11001</v>
@@ -4542,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4557,10 +5023,10 @@
         <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -4588,7 +5054,7 @@
   <sheetData>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>10000</v>
@@ -4596,12 +5062,12 @@
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4636,772 +5102,772 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
         <v>153</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>155</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>156</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>157</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>158</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>159</v>
-      </c>
-      <c r="K1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>322</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>323</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>244</v>
-      </c>
       <c r="H2" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>244</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D3" s="10"/>
       <c r="L3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>325</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>326</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>327</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>328</v>
       </c>
       <c r="D5" s="8"/>
       <c r="L5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="26" t="e">
         <f>-C6</f>
         <v>#VALUE!</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>256</v>
-      </c>
       <c r="G6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" t="s">
         <v>258</v>
       </c>
-      <c r="I6" t="s">
-        <v>259</v>
-      </c>
       <c r="J6" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>253</v>
-      </c>
       <c r="G7" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
       <c r="M8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>329</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>330</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>331</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>332</v>
       </c>
       <c r="D10" s="4"/>
       <c r="L10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>334</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D12" s="6"/>
       <c r="L12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="L13" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>123</v>
-      </c>
-      <c r="M13" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>340</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>341</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F14" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>297</v>
-      </c>
       <c r="H14" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>295</v>
-      </c>
       <c r="L14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>342</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>343</v>
       </c>
       <c r="D15" s="12"/>
       <c r="L15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="14"/>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="14"/>
       <c r="L17" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>336</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>337</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>338</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>339</v>
       </c>
       <c r="D19" s="2"/>
       <c r="L19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="L20" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>142</v>
-      </c>
-      <c r="M20" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>348</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>349</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="G21" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>300</v>
-      </c>
       <c r="H21" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="J21" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="J21" s="25" t="s">
-        <v>300</v>
-      </c>
       <c r="K21" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L21" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>350</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>351</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G22" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>300</v>
-      </c>
       <c r="I22" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="J22" s="25" t="s">
-        <v>300</v>
-      </c>
       <c r="K22" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="L23" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>162</v>
-      </c>
-      <c r="M23" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" t="s">
         <v>164</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>165</v>
-      </c>
-      <c r="M24" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>268</v>
-      </c>
       <c r="F25" t="s">
+        <v>269</v>
+      </c>
+      <c r="G25" t="s">
         <v>270</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="H25" s="18" t="s">
-        <v>272</v>
-      </c>
       <c r="I25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5432,411 +5898,411 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" t="s">
-        <v>288</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J4" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" t="s">
+        <v>291</v>
+      </c>
+      <c r="J5" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F5" t="s">
-        <v>292</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J6" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" t="s">
-        <v>287</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
         <v>48</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" t="s">
         <v>145</v>
-      </c>
-      <c r="K8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J9" t="s">
         <v>167</v>
-      </c>
-      <c r="C9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" t="s">
-        <v>290</v>
-      </c>
-      <c r="J9" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" t="s">
         <v>171</v>
-      </c>
-      <c r="J11" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" t="s">
+        <v>262</v>
+      </c>
+      <c r="J12" t="s">
         <v>173</v>
-      </c>
-      <c r="B12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" t="s">
-        <v>263</v>
-      </c>
-      <c r="J12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" t="s">
+        <v>303</v>
+      </c>
+      <c r="J14" t="s">
         <v>176</v>
-      </c>
-      <c r="C14" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" t="s">
-        <v>304</v>
-      </c>
-      <c r="E14" t="s">
-        <v>304</v>
-      </c>
-      <c r="F14" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J15" t="s">
         <v>178</v>
-      </c>
-      <c r="C15" t="s">
-        <v>306</v>
-      </c>
-      <c r="D15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E15" t="s">
-        <v>306</v>
-      </c>
-      <c r="F15" t="s">
-        <v>306</v>
-      </c>
-      <c r="J15" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" t="s">
         <v>180</v>
-      </c>
-      <c r="J16" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
         <v>182</v>
-      </c>
-      <c r="J17" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
         <v>184</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>185</v>
-      </c>
-      <c r="K18" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
         <v>187</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>188</v>
-      </c>
-      <c r="K19" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
         <v>190</v>
-      </c>
-      <c r="J20" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
         <v>192</v>
-      </c>
-      <c r="J21" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
         <v>194</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>195</v>
-      </c>
-      <c r="K22" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
         <v>197</v>
-      </c>
-      <c r="J23" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
         <v>199</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>200</v>
-      </c>
-      <c r="K24" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
         <v>202</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>203</v>
-      </c>
-      <c r="K25" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
         <v>205</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>206</v>
-      </c>
-      <c r="K26" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
         <v>208</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>209</v>
-      </c>
-      <c r="K27" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5862,154 +6328,154 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
         <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
         <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
         <v>68</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
         <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
         <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
         <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
         <v>82</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
         <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
         <v>86</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6035,80 +6501,80 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
         <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>95</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="38" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="43" t="s">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="38"/>
+      <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -6136,130 +6602,130 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
         <v>211</v>
-      </c>
-      <c r="B2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
         <v>213</v>
-      </c>
-      <c r="B3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
         <v>215</v>
-      </c>
-      <c r="B4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" t="s">
         <v>217</v>
-      </c>
-      <c r="B5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
         <v>219</v>
-      </c>
-      <c r="B6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" t="s">
         <v>221</v>
-      </c>
-      <c r="B7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
         <v>223</v>
-      </c>
-      <c r="B8" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" t="s">
         <v>225</v>
-      </c>
-      <c r="B9" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" t="s">
         <v>227</v>
-      </c>
-      <c r="B10" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
         <v>229</v>
-      </c>
-      <c r="B11" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" t="s">
         <v>231</v>
-      </c>
-      <c r="B12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" t="s">
         <v>237</v>
-      </c>
-      <c r="B17" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
     <sheet name="玩家" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="技能分析" sheetId="7" r:id="rId4"/>
-    <sheet name="buff分析" sheetId="8" r:id="rId5"/>
-    <sheet name="力量提升元素" sheetId="9" r:id="rId6"/>
-    <sheet name="场景分析" sheetId="10" r:id="rId7"/>
-    <sheet name="角色" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="技能分析" sheetId="7" r:id="rId5"/>
+    <sheet name="buff分析" sheetId="8" r:id="rId6"/>
+    <sheet name="力量提升元素" sheetId="9" r:id="rId7"/>
+    <sheet name="场景分析" sheetId="10" r:id="rId8"/>
+    <sheet name="角色" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="537">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1876,6 +1877,106 @@
   </si>
   <si>
     <t>0,0,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">13怪 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13点经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每10分钟上升一次难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每三分钟一次boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10分钟一个大boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀怪数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀怪数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出伤害值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收伤害值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际吸收伤害值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1906,7 +2007,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1969,19 +2070,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D4D4D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,7 +2113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2115,9 +2228,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2133,34 +2243,7 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2169,16 +2252,43 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2217,6 +2327,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF4D4D4D"/>
+      <color rgb="FF9966FF"/>
       <color rgb="FFCC3300"/>
     </mruColors>
   </colors>
@@ -2637,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2648,12 +2760,12 @@
     <col min="3" max="3" width="28.375" style="36" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="37" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="54" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="44" customWidth="1"/>
     <col min="11" max="11" width="9" style="35"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2672,7 +2784,7 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H1" t="s">
@@ -2697,872 +2809,869 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39">
+    <row r="2" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38">
         <v>200001</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="39">
         <v>1002</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="40">
         <v>20101</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="38">
         <v>999999999</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="38">
         <v>1</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="38">
         <v>1001</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="38">
         <v>0</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="38">
         <v>0</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="38" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39">
+    <row r="3" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="38">
         <v>200002</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>430</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="40">
         <v>20101</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="38">
         <v>10</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>1</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="39">
-        <v>1002</v>
-      </c>
-      <c r="J3" s="39">
+      <c r="I3" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J3" s="38">
         <v>4</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="39" t="s">
         <v>398</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="38">
         <v>0</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="38" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="39">
+    <row r="4" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="38">
         <v>200003</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E4" s="38">
+        <v>30</v>
+      </c>
+      <c r="F4" s="38">
+        <v>1</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J4" s="38">
+        <v>4</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="L4" s="38">
+        <v>0</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="38">
+        <v>200004</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="D5" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E5" s="38">
+        <v>60</v>
+      </c>
+      <c r="F5" s="38">
+        <v>1</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J5" s="38">
+        <v>4</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="L5" s="38">
+        <v>0</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="38">
+        <v>200005</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E6" s="38">
+        <v>40</v>
+      </c>
+      <c r="F6" s="38">
+        <v>1</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J6" s="38">
+        <v>4</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="L6" s="38">
+        <v>0</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="38">
+        <v>200006</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E7" s="38">
+        <v>40</v>
+      </c>
+      <c r="F7" s="38">
+        <v>1</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J7" s="38">
+        <v>4</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="L7" s="38">
+        <v>0</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="38">
+        <v>200007</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="D8" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E8" s="38">
+        <v>100</v>
+      </c>
+      <c r="F8" s="38">
+        <v>1</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J8" s="38">
+        <v>4</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="L8" s="38">
+        <v>0</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="38">
+        <v>200008</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D9" s="40">
         <v>20101</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E9" s="38">
+        <v>100</v>
+      </c>
+      <c r="F9" s="38">
+        <v>1</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J9" s="38">
+        <v>4</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="L9" s="38">
+        <v>0</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="38">
+        <v>200009</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="D10" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E10" s="38">
+        <v>150</v>
+      </c>
+      <c r="F10" s="38">
+        <v>1</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J10" s="38">
+        <v>10</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="L10" s="38">
+        <v>0</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="38">
+        <v>200010</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E11" s="38">
+        <v>100</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J11" s="38">
+        <v>4</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="L11" s="38">
+        <v>0</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="38">
+        <v>200011</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="D12" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E12" s="38">
+        <v>200</v>
+      </c>
+      <c r="F12" s="38">
+        <v>1</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J12" s="38">
+        <v>4</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="L12" s="38">
+        <v>0</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="38">
+        <v>200012</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="D13" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E13" s="38">
+        <v>300</v>
+      </c>
+      <c r="F13" s="38">
+        <v>1</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J13" s="38">
+        <v>4</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="L13" s="38">
+        <v>1</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="38">
+        <v>200013</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E14" s="38">
+        <v>400</v>
+      </c>
+      <c r="F14" s="38">
+        <v>2</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J14" s="38">
+        <v>4</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="L14" s="38">
+        <v>1</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="38">
+        <v>200014</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" s="38">
+        <v>500</v>
+      </c>
+      <c r="F15" s="38">
+        <v>2</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>505</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J15" s="38">
+        <v>2</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="L15" s="38">
+        <v>1</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
+        <v>200015</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16" s="53">
+        <v>20101</v>
+      </c>
+      <c r="E16" s="15">
+        <v>10</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1001</v>
+      </c>
+      <c r="J16" s="15">
+        <v>4</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
+        <v>200016</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" s="53">
+        <v>20101</v>
+      </c>
+      <c r="E17" s="15">
+        <v>100</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1001</v>
+      </c>
+      <c r="J17" s="15">
+        <v>2</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15">
+        <v>200017</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D18" s="53">
+        <v>20101</v>
+      </c>
+      <c r="E18" s="15">
+        <v>50</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1001</v>
+      </c>
+      <c r="J18" s="15">
+        <v>8</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15">
+        <v>200018</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" s="53">
+        <v>20101</v>
+      </c>
+      <c r="E19" s="15">
         <v>20</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F19" s="15">
         <v>1</v>
       </c>
-      <c r="G4" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="H4" s="39" t="s">
+      <c r="G19" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I19" s="15">
         <v>1001</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J19" s="15">
         <v>4</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K19" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L19" s="15">
         <v>0</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N19" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="O4" s="39">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39">
-        <v>200004</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>490</v>
-      </c>
-      <c r="D5" s="41">
+    </row>
+    <row r="20" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15">
+        <v>200019</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" s="53">
         <v>20101</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E20" s="15">
         <v>30</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F20" s="15">
         <v>1</v>
       </c>
-      <c r="G5" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="H5" s="39" t="s">
+      <c r="G20" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="39">
-        <v>1002</v>
-      </c>
-      <c r="J5" s="39">
+      <c r="I20" s="15">
+        <v>1001</v>
+      </c>
+      <c r="J20" s="15">
         <v>4</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K20" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L20" s="15">
         <v>0</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N20" s="15" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39">
-        <v>200005</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="D6" s="41">
+    <row r="21" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15">
+        <v>200020</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="D21" s="53">
         <v>20101</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E21" s="15">
         <v>60</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F21" s="15">
         <v>1</v>
       </c>
-      <c r="G6" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="H6" s="39" t="s">
+      <c r="G21" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="39">
-        <v>1002</v>
-      </c>
-      <c r="J6" s="39">
+      <c r="I21" s="15">
+        <v>1001</v>
+      </c>
+      <c r="J21" s="15">
         <v>4</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K21" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L21" s="15">
         <v>0</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N21" s="15" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39">
-        <v>200006</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>495</v>
-      </c>
-      <c r="D7" s="41">
+    <row r="22" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15">
+        <v>200021</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="D22" s="53">
         <v>20101</v>
       </c>
-      <c r="E7" s="39">
-        <v>40</v>
-      </c>
-      <c r="F7" s="39">
-        <v>1</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="H7" s="39" t="s">
+      <c r="E22" s="15">
+        <v>60</v>
+      </c>
+      <c r="F22" s="15">
+        <v>2</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>486</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="39">
-        <v>1002</v>
-      </c>
-      <c r="J7" s="39">
+      <c r="I22" s="15">
+        <v>1001</v>
+      </c>
+      <c r="J22" s="15">
         <v>4</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K22" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L22" s="15">
         <v>0</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N22" s="15" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39">
-        <v>200007</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="D8" s="41">
-        <v>20101</v>
-      </c>
-      <c r="E8" s="39">
-        <v>40</v>
-      </c>
-      <c r="F8" s="39">
-        <v>1</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="39">
-        <v>1002</v>
-      </c>
-      <c r="J8" s="39">
-        <v>4</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="L8" s="39">
-        <v>0</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39">
-        <v>200008</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>497</v>
-      </c>
-      <c r="D9" s="41">
-        <v>20101</v>
-      </c>
-      <c r="E9" s="39">
-        <v>100</v>
-      </c>
-      <c r="F9" s="39">
-        <v>1</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="39">
-        <v>1002</v>
-      </c>
-      <c r="J9" s="39">
-        <v>4</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="L9" s="39">
-        <v>0</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39">
-        <v>200009</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>499</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>500</v>
-      </c>
-      <c r="D10" s="41">
-        <v>20101</v>
-      </c>
-      <c r="E10" s="39">
-        <v>150</v>
-      </c>
-      <c r="F10" s="39">
-        <v>1</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>502</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="39">
-        <v>1001</v>
-      </c>
-      <c r="J10" s="39">
-        <v>10</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="L10" s="39">
-        <v>0</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39">
-        <v>200010</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="D11" s="41">
-        <v>20101</v>
-      </c>
-      <c r="E11" s="39">
-        <v>100</v>
-      </c>
-      <c r="F11" s="39">
-        <v>1</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>503</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="39">
-        <v>1001</v>
-      </c>
-      <c r="J11" s="39">
-        <v>4</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="L11" s="39">
-        <v>0</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39">
-        <v>200011</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>488</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="D12" s="41">
-        <v>20101</v>
-      </c>
-      <c r="E12" s="39">
-        <v>200</v>
-      </c>
-      <c r="F12" s="39">
-        <v>1</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="39">
-        <v>1002</v>
-      </c>
-      <c r="J12" s="39">
-        <v>4</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="L12" s="39">
-        <v>0</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39">
-        <v>200012</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>492</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="D13" s="41">
-        <v>20101</v>
-      </c>
-      <c r="E13" s="39">
-        <v>300</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1002</v>
-      </c>
-      <c r="J13" s="39">
-        <v>4</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1</v>
-      </c>
-      <c r="N13" s="39" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39">
-        <v>200013</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="D14" s="41">
-        <v>20101</v>
-      </c>
-      <c r="E14" s="39">
-        <v>400</v>
-      </c>
-      <c r="F14" s="39">
-        <v>2</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>504</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="39">
-        <v>1002</v>
-      </c>
-      <c r="J14" s="39">
-        <v>4</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="L14" s="39">
-        <v>1</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39">
-        <v>200014</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="E15" s="39">
-        <v>500</v>
-      </c>
-      <c r="F15" s="39">
-        <v>2</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>505</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="39">
-        <v>1002</v>
-      </c>
-      <c r="J15" s="39">
-        <v>2</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="L15" s="39">
-        <v>1</v>
-      </c>
-      <c r="N15" s="39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39">
-        <v>200015</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="D16" s="46">
-        <v>20101</v>
-      </c>
-      <c r="E16" s="44">
-        <v>10</v>
-      </c>
-      <c r="F16" s="44">
-        <v>1</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>406</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="44">
-        <v>1001</v>
-      </c>
-      <c r="J16" s="44">
-        <v>4</v>
-      </c>
-      <c r="K16" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="L16" s="44">
-        <v>0</v>
-      </c>
-      <c r="N16" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39">
-        <v>200016</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="D17" s="46">
-        <v>20101</v>
-      </c>
-      <c r="E17" s="44">
-        <v>100</v>
-      </c>
-      <c r="F17" s="44">
-        <v>1</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="44">
-        <v>1002</v>
-      </c>
-      <c r="J17" s="44">
-        <v>2</v>
-      </c>
-      <c r="K17" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="L17" s="44">
-        <v>0</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39">
-        <v>200017</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>412</v>
-      </c>
-      <c r="D18" s="46">
-        <v>20101</v>
-      </c>
-      <c r="E18" s="44">
-        <v>50</v>
-      </c>
-      <c r="F18" s="44">
-        <v>1</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>406</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="44">
-        <v>1002</v>
-      </c>
-      <c r="J18" s="44">
-        <v>8</v>
-      </c>
-      <c r="K18" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="L18" s="44">
-        <v>0</v>
-      </c>
-      <c r="N18" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39">
-        <v>200018</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>415</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="D19" s="46">
-        <v>20101</v>
-      </c>
-      <c r="E19" s="44">
-        <v>20</v>
-      </c>
-      <c r="F19" s="44">
-        <v>1</v>
-      </c>
-      <c r="G19" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="44">
-        <v>1002</v>
-      </c>
-      <c r="J19" s="44">
-        <v>4</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="L19" s="44">
-        <v>0</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39">
-        <v>200019</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>417</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="D20" s="46">
-        <v>20101</v>
-      </c>
-      <c r="E20" s="44">
-        <v>30</v>
-      </c>
-      <c r="F20" s="44">
-        <v>1</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="44">
-        <v>1001</v>
-      </c>
-      <c r="J20" s="44">
-        <v>4</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="L20" s="44">
-        <v>0</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39">
-        <v>200020</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>482</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>481</v>
-      </c>
-      <c r="D21" s="46">
-        <v>20101</v>
-      </c>
-      <c r="E21" s="44">
-        <v>60</v>
-      </c>
-      <c r="F21" s="44">
-        <v>1</v>
-      </c>
-      <c r="G21" s="56" t="s">
-        <v>483</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="44">
-        <v>1002</v>
-      </c>
-      <c r="J21" s="44">
-        <v>4</v>
-      </c>
-      <c r="K21" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="L21" s="44">
-        <v>0</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39">
-        <v>200021</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>485</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>484</v>
-      </c>
-      <c r="D22" s="46">
-        <v>20101</v>
-      </c>
-      <c r="E22" s="44">
-        <v>60</v>
-      </c>
-      <c r="F22" s="44">
-        <v>2</v>
-      </c>
-      <c r="G22" s="56" t="s">
-        <v>486</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="44">
-        <v>1002</v>
-      </c>
-      <c r="J22" s="44">
-        <v>4</v>
-      </c>
-      <c r="K22" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="L22" s="44">
-        <v>0</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="39">
+    <row r="23" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13">
         <v>200022</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -3571,7 +3680,7 @@
       <c r="C23" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="43">
         <v>20101</v>
       </c>
       <c r="E23" s="13">
@@ -3580,14 +3689,14 @@
       <c r="F23" s="13">
         <v>1</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="46" t="s">
         <v>406</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="13">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J23" s="13">
         <v>4</v>
@@ -3598,13 +3707,12 @@
       <c r="L23" s="13">
         <v>0</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="39" t="s">
+      <c r="N23" s="13" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="39">
+    <row r="24" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
         <v>200023</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -3613,7 +3721,7 @@
       <c r="C24" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="43">
         <v>20101</v>
       </c>
       <c r="E24" s="13">
@@ -3622,14 +3730,14 @@
       <c r="F24" s="13">
         <v>1</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="46" t="s">
         <v>460</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="13">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J24" s="13">
         <v>15</v>
@@ -3640,13 +3748,12 @@
       <c r="L24" s="13">
         <v>0</v>
       </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="13" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="39">
+    <row r="25" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
         <v>200024</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -3655,7 +3762,7 @@
       <c r="C25" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="43">
         <v>20101</v>
       </c>
       <c r="E25" s="13">
@@ -3664,14 +3771,14 @@
       <c r="F25" s="13">
         <v>1</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="46" t="s">
         <v>406</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="13">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J25" s="13">
         <v>4</v>
@@ -3682,13 +3789,12 @@
       <c r="L25" s="13">
         <v>0</v>
       </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="39" t="s">
+      <c r="N25" s="13" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39">
+      <c r="A26" s="13">
         <v>200025</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -3697,7 +3803,7 @@
       <c r="C26" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="43">
         <v>20101</v>
       </c>
       <c r="E26" s="13">
@@ -3706,7 +3812,7 @@
       <c r="F26" s="13">
         <v>1</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="46" t="s">
         <v>407</v>
       </c>
       <c r="H26" s="13" t="s">
@@ -3724,12 +3830,12 @@
       <c r="L26" s="13">
         <v>0</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="N26" s="13" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39">
+      <c r="A27" s="13">
         <v>200026</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -3738,7 +3844,7 @@
       <c r="C27" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="43">
         <v>20101</v>
       </c>
       <c r="E27" s="13">
@@ -3747,14 +3853,14 @@
       <c r="F27" s="13">
         <v>1</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="46" t="s">
         <v>423</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="13">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J27" s="13">
         <v>4</v>
@@ -3765,707 +3871,707 @@
       <c r="L27" s="13">
         <v>0</v>
       </c>
-      <c r="N27" s="39" t="s">
+      <c r="N27" s="13" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39">
+    <row r="28" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
         <v>200027</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="55">
         <v>20101</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="7">
         <v>60</v>
       </c>
-      <c r="F28" s="51">
+      <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="56" t="s">
         <v>433</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="7">
+        <v>1001</v>
+      </c>
+      <c r="J28" s="7">
+        <v>4</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>200028</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D29" s="55">
+        <v>20101</v>
+      </c>
+      <c r="E29" s="7">
+        <v>60</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1001</v>
+      </c>
+      <c r="J29" s="7">
+        <v>4</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
+        <v>200029</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D30" s="55">
+        <v>20101</v>
+      </c>
+      <c r="E30" s="7">
+        <v>60</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1001</v>
+      </c>
+      <c r="J30" s="7">
+        <v>4</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>200030</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D31" s="55">
+        <v>20101</v>
+      </c>
+      <c r="E31" s="7">
+        <v>60</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1001</v>
+      </c>
+      <c r="J31" s="7">
+        <v>4</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <v>200031</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D32" s="55">
+        <v>20101</v>
+      </c>
+      <c r="E32" s="7">
+        <v>60</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1001</v>
+      </c>
+      <c r="J32" s="7">
+        <v>4</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>200032</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" s="55">
+        <v>20101</v>
+      </c>
+      <c r="E33" s="7">
+        <v>500</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1001</v>
+      </c>
+      <c r="J33" s="7">
+        <v>4</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>200033</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D34" s="55">
+        <v>20101</v>
+      </c>
+      <c r="E34" s="7">
+        <v>60</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1001</v>
+      </c>
+      <c r="J34" s="7">
+        <v>4</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11">
+        <v>200034</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D35" s="57">
+        <v>20101</v>
+      </c>
+      <c r="E35" s="11">
+        <v>60</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>433</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="11">
+        <v>1001</v>
+      </c>
+      <c r="J35" s="11">
+        <v>4</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11">
+        <v>200035</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D36" s="57">
+        <v>20101</v>
+      </c>
+      <c r="E36" s="11">
+        <v>60</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1001</v>
+      </c>
+      <c r="J36" s="11">
+        <v>4</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="11">
+        <v>200036</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D37" s="57">
+        <v>20101</v>
+      </c>
+      <c r="E37" s="11">
+        <v>60</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="11">
+        <v>1001</v>
+      </c>
+      <c r="J37" s="11">
+        <v>4</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11">
+        <v>200037</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D38" s="57">
+        <v>20101</v>
+      </c>
+      <c r="E38" s="11">
+        <v>60</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1001</v>
+      </c>
+      <c r="J38" s="11">
+        <v>4</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="11">
+        <v>200038</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D39" s="57">
+        <v>20101</v>
+      </c>
+      <c r="E39" s="11">
+        <v>60</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1001</v>
+      </c>
+      <c r="J39" s="11">
+        <v>4</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11">
+        <v>200039</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D40" s="57">
+        <v>20101</v>
+      </c>
+      <c r="E40" s="11">
+        <v>60</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="11">
+        <v>1001</v>
+      </c>
+      <c r="J40" s="11">
+        <v>4</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
         <v>1002</v>
       </c>
-      <c r="J28" s="51">
+      <c r="N40" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11">
+        <v>200040</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D41" s="57">
+        <v>20101</v>
+      </c>
+      <c r="E41" s="11">
+        <v>60</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1001</v>
+      </c>
+      <c r="J41" s="11">
         <v>4</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="K41" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="L28" s="51">
+      <c r="L41" s="11">
         <v>0</v>
       </c>
-      <c r="N28" s="39" t="s">
+      <c r="N41" s="11" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="39">
-        <v>200028</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>443</v>
-      </c>
-      <c r="D29" s="53">
+    <row r="42" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="11">
+        <v>200041</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="D42" s="57">
         <v>20101</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E42" s="11">
         <v>60</v>
       </c>
-      <c r="F29" s="51">
+      <c r="F42" s="11">
         <v>1</v>
       </c>
-      <c r="G29" s="58" t="s">
-        <v>444</v>
-      </c>
-      <c r="H29" s="51" t="s">
+      <c r="G42" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="51">
-        <v>1002</v>
-      </c>
-      <c r="J29" s="51">
+      <c r="I42" s="11">
+        <v>1001</v>
+      </c>
+      <c r="J42" s="11">
         <v>4</v>
       </c>
-      <c r="K29" s="52" t="s">
+      <c r="K42" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="L29" s="51">
+      <c r="L42" s="11">
         <v>0</v>
       </c>
-      <c r="N29" s="39" t="s">
+      <c r="N42" s="11" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39">
-        <v>200029</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>447</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>445</v>
-      </c>
-      <c r="D30" s="53">
+    <row r="43" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="11">
+        <v>200042</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D43" s="57">
         <v>20101</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E43" s="11">
         <v>60</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F43" s="11">
+        <v>2</v>
+      </c>
+      <c r="G43" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="11">
+        <v>1001</v>
+      </c>
+      <c r="J43" s="11">
+        <v>4</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="11">
+        <v>200043</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="D44" s="57">
+        <v>20101</v>
+      </c>
+      <c r="E44" s="11">
+        <v>60</v>
+      </c>
+      <c r="F44" s="11">
         <v>1</v>
       </c>
-      <c r="G30" s="58" t="s">
-        <v>446</v>
-      </c>
-      <c r="H30" s="51" t="s">
+      <c r="G44" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="51">
-        <v>1002</v>
-      </c>
-      <c r="J30" s="51">
+      <c r="I44" s="11">
+        <v>1001</v>
+      </c>
+      <c r="J44" s="11">
         <v>4</v>
       </c>
-      <c r="K30" s="52" t="s">
+      <c r="K44" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="L30" s="51">
+      <c r="L44" s="11">
         <v>0</v>
       </c>
-      <c r="N30" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39">
-        <v>200030</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>462</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>461</v>
-      </c>
-      <c r="D31" s="53">
-        <v>20101</v>
-      </c>
-      <c r="E31" s="51">
-        <v>60</v>
-      </c>
-      <c r="F31" s="51">
-        <v>1</v>
-      </c>
-      <c r="G31" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="51">
-        <v>1002</v>
-      </c>
-      <c r="J31" s="51">
-        <v>4</v>
-      </c>
-      <c r="K31" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="L31" s="51">
-        <v>0</v>
-      </c>
-      <c r="N31" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39">
-        <v>200031</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>465</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>466</v>
-      </c>
-      <c r="D32" s="53">
-        <v>20101</v>
-      </c>
-      <c r="E32" s="51">
-        <v>60</v>
-      </c>
-      <c r="F32" s="51">
-        <v>1</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="51">
-        <v>1002</v>
-      </c>
-      <c r="J32" s="51">
-        <v>4</v>
-      </c>
-      <c r="K32" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="L32" s="51">
-        <v>0</v>
-      </c>
-      <c r="N32" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="39">
-        <v>200032</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>425</v>
-      </c>
-      <c r="D33" s="53">
-        <v>20101</v>
-      </c>
-      <c r="E33" s="51">
-        <v>500</v>
-      </c>
-      <c r="F33" s="51">
-        <v>1</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>426</v>
-      </c>
-      <c r="H33" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="51">
-        <v>1002</v>
-      </c>
-      <c r="J33" s="51">
-        <v>4</v>
-      </c>
-      <c r="K33" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="L33" s="51">
-        <v>0</v>
-      </c>
-      <c r="N33" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="39">
-        <v>200033</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>432</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>431</v>
-      </c>
-      <c r="D34" s="53">
-        <v>20101</v>
-      </c>
-      <c r="E34" s="51">
-        <v>60</v>
-      </c>
-      <c r="F34" s="51">
-        <v>1</v>
-      </c>
-      <c r="G34" s="58" t="s">
-        <v>433</v>
-      </c>
-      <c r="H34" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="51">
-        <v>1002</v>
-      </c>
-      <c r="J34" s="51">
-        <v>4</v>
-      </c>
-      <c r="K34" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="L34" s="51">
-        <v>0</v>
-      </c>
-      <c r="N34" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="39">
-        <v>200034</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="D35" s="50">
-        <v>20101</v>
-      </c>
-      <c r="E35" s="48">
-        <v>60</v>
-      </c>
-      <c r="F35" s="48">
-        <v>1</v>
-      </c>
-      <c r="G35" s="59" t="s">
-        <v>433</v>
-      </c>
-      <c r="H35" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="48">
-        <v>1002</v>
-      </c>
-      <c r="J35" s="48">
-        <v>4</v>
-      </c>
-      <c r="K35" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="L35" s="48">
-        <v>0</v>
-      </c>
-      <c r="N35" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="39">
-        <v>200035</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="D36" s="50">
-        <v>20101</v>
-      </c>
-      <c r="E36" s="48">
-        <v>60</v>
-      </c>
-      <c r="F36" s="48">
-        <v>1</v>
-      </c>
-      <c r="G36" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="H36" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="48">
-        <v>1002</v>
-      </c>
-      <c r="J36" s="48">
-        <v>4</v>
-      </c>
-      <c r="K36" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="L36" s="48">
-        <v>0</v>
-      </c>
-      <c r="N36" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="39">
-        <v>200036</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>440</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>441</v>
-      </c>
-      <c r="D37" s="50">
-        <v>20101</v>
-      </c>
-      <c r="E37" s="48">
-        <v>60</v>
-      </c>
-      <c r="F37" s="48">
-        <v>1</v>
-      </c>
-      <c r="G37" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="H37" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="48">
-        <v>1002</v>
-      </c>
-      <c r="J37" s="48">
-        <v>4</v>
-      </c>
-      <c r="K37" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="L37" s="48">
-        <v>0</v>
-      </c>
-      <c r="N37" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="39">
-        <v>200037</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>448</v>
-      </c>
-      <c r="D38" s="50">
-        <v>20101</v>
-      </c>
-      <c r="E38" s="48">
-        <v>60</v>
-      </c>
-      <c r="F38" s="48">
-        <v>1</v>
-      </c>
-      <c r="G38" s="59" t="s">
-        <v>450</v>
-      </c>
-      <c r="H38" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="48">
-        <v>1002</v>
-      </c>
-      <c r="J38" s="48">
-        <v>4</v>
-      </c>
-      <c r="K38" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="L38" s="48">
-        <v>0</v>
-      </c>
-      <c r="N38" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="39">
-        <v>200038</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>451</v>
-      </c>
-      <c r="D39" s="50">
-        <v>20101</v>
-      </c>
-      <c r="E39" s="48">
-        <v>60</v>
-      </c>
-      <c r="F39" s="48">
-        <v>1</v>
-      </c>
-      <c r="G39" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="H39" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="48">
-        <v>1002</v>
-      </c>
-      <c r="J39" s="48">
-        <v>4</v>
-      </c>
-      <c r="K39" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="L39" s="48">
-        <v>0</v>
-      </c>
-      <c r="N39" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="39">
-        <v>200039</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>454</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="D40" s="50">
-        <v>20101</v>
-      </c>
-      <c r="E40" s="48">
-        <v>60</v>
-      </c>
-      <c r="F40" s="48">
-        <v>1</v>
-      </c>
-      <c r="G40" s="59" t="s">
-        <v>511</v>
-      </c>
-      <c r="H40" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="48">
-        <v>1002</v>
-      </c>
-      <c r="J40" s="48">
-        <v>4</v>
-      </c>
-      <c r="K40" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="L40" s="48">
-        <v>0</v>
-      </c>
-      <c r="M40" s="48">
-        <v>1002</v>
-      </c>
-      <c r="N40" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="39">
-        <v>200040</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>467</v>
-      </c>
-      <c r="D41" s="50">
-        <v>20101</v>
-      </c>
-      <c r="E41" s="48">
-        <v>60</v>
-      </c>
-      <c r="F41" s="48">
-        <v>1</v>
-      </c>
-      <c r="G41" s="59" t="s">
-        <v>446</v>
-      </c>
-      <c r="H41" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="48">
-        <v>1002</v>
-      </c>
-      <c r="J41" s="48">
-        <v>4</v>
-      </c>
-      <c r="K41" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="L41" s="48">
-        <v>0</v>
-      </c>
-      <c r="N41" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="39">
-        <v>200041</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>472</v>
-      </c>
-      <c r="D42" s="50">
-        <v>20101</v>
-      </c>
-      <c r="E42" s="48">
-        <v>60</v>
-      </c>
-      <c r="F42" s="48">
-        <v>1</v>
-      </c>
-      <c r="G42" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="48">
-        <v>1002</v>
-      </c>
-      <c r="J42" s="48">
-        <v>4</v>
-      </c>
-      <c r="K42" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="L42" s="48">
-        <v>0</v>
-      </c>
-      <c r="N42" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="39">
-        <v>200042</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>479</v>
-      </c>
-      <c r="D43" s="50">
-        <v>20101</v>
-      </c>
-      <c r="E43" s="48">
-        <v>60</v>
-      </c>
-      <c r="F43" s="48">
-        <v>2</v>
-      </c>
-      <c r="G43" s="59" t="s">
-        <v>480</v>
-      </c>
-      <c r="H43" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="48">
-        <v>1002</v>
-      </c>
-      <c r="J43" s="48">
-        <v>4</v>
-      </c>
-      <c r="K43" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="L43" s="48">
-        <v>0</v>
-      </c>
-      <c r="N43" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="39">
-        <v>200043</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>469</v>
-      </c>
-      <c r="D44" s="50">
-        <v>20101</v>
-      </c>
-      <c r="E44" s="48">
-        <v>60</v>
-      </c>
-      <c r="F44" s="48">
-        <v>1</v>
-      </c>
-      <c r="G44" s="59" t="s">
-        <v>471</v>
-      </c>
-      <c r="H44" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="48">
-        <v>1002</v>
-      </c>
-      <c r="J44" s="48">
-        <v>4</v>
-      </c>
-      <c r="K44" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="L44" s="48">
-        <v>0</v>
-      </c>
-      <c r="N44" s="39" t="s">
+      <c r="N44" s="11" t="s">
         <v>507</v>
       </c>
     </row>
@@ -4480,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4551,7 +4657,7 @@
         <v>11001</v>
       </c>
       <c r="E2">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4592,7 +4698,7 @@
         <v>11101</v>
       </c>
       <c r="E3">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4633,7 +4739,7 @@
         <v>11001</v>
       </c>
       <c r="E4">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4674,7 +4780,7 @@
         <v>11001</v>
       </c>
       <c r="E5">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4715,7 +4821,7 @@
         <v>11001</v>
       </c>
       <c r="E6">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4756,7 +4862,7 @@
         <v>11001</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4797,7 +4903,7 @@
         <v>11001</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4838,7 +4944,7 @@
         <v>11001</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4879,7 +4985,7 @@
         <v>11001</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4920,7 +5026,7 @@
         <v>11001</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4961,7 +5067,7 @@
         <v>11001</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -5002,7 +5108,7 @@
         <v>11001</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -5040,6 +5146,632 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="48"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F1" t="s">
+        <v>536</v>
+      </c>
+      <c r="J1" t="s">
+        <v>528</v>
+      </c>
+      <c r="K1" t="s">
+        <v>529</v>
+      </c>
+      <c r="L1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>600</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <f>SUM(B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35,B36,B37)</f>
+        <v>3510</v>
+      </c>
+      <c r="K2">
+        <f>J2/60</f>
+        <v>58.5</v>
+      </c>
+      <c r="L2">
+        <f>SUM(C2:C37)</f>
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" s="48">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1200</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" s="48">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" s="48">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>519</v>
+      </c>
+      <c r="R5" t="s">
+        <v>520</v>
+      </c>
+      <c r="U5" t="s">
+        <v>521</v>
+      </c>
+      <c r="W5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6" s="48">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7" s="48">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" s="48">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9" s="48">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>513</v>
+      </c>
+      <c r="R9" t="s">
+        <v>515</v>
+      </c>
+      <c r="S9" t="s">
+        <v>516</v>
+      </c>
+      <c r="T9" t="s">
+        <v>517</v>
+      </c>
+      <c r="U9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A10" s="48">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>46</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11" s="48">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12" s="48">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>58</v>
+      </c>
+      <c r="S12" s="51"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13" s="48">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14" s="48">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="N14" t="s">
+        <v>524</v>
+      </c>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A15" s="48">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>76</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16" s="48">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="48">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>88</v>
+      </c>
+      <c r="N17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="48">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>94</v>
+      </c>
+      <c r="N18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="48">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>95</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="48">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>106</v>
+      </c>
+      <c r="K20" t="s">
+        <v>533</v>
+      </c>
+      <c r="N20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="48">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>105</v>
+      </c>
+      <c r="C21">
+        <v>112</v>
+      </c>
+      <c r="K21">
+        <f>23*3</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="48">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>110</v>
+      </c>
+      <c r="C22">
+        <v>118</v>
+      </c>
+      <c r="K22">
+        <v>39</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="48">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>115</v>
+      </c>
+      <c r="C23">
+        <v>124</v>
+      </c>
+      <c r="K23">
+        <v>21</v>
+      </c>
+      <c r="N23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="48">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>130</v>
+      </c>
+      <c r="N24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="48">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>125</v>
+      </c>
+      <c r="C25">
+        <v>136</v>
+      </c>
+      <c r="N25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="48">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+      <c r="C26">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="48">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>135</v>
+      </c>
+      <c r="C27">
+        <v>148</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="48">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>140</v>
+      </c>
+      <c r="C28">
+        <v>154</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <v>8</v>
+      </c>
+      <c r="N28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="48">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>145</v>
+      </c>
+      <c r="C29">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="48">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>150</v>
+      </c>
+      <c r="C30">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="48">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>155</v>
+      </c>
+      <c r="C31">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="48">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>160</v>
+      </c>
+      <c r="C32">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="48">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>165</v>
+      </c>
+      <c r="C33">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="48">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>170</v>
+      </c>
+      <c r="C34">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="48">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>175</v>
+      </c>
+      <c r="C35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="48">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>180</v>
+      </c>
+      <c r="C36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="48">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>185</v>
+      </c>
+      <c r="C37">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="48"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D43"/>
   <sheetViews>
@@ -5077,7 +5809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -5877,7 +6609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -6312,7 +7044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B21"/>
   <sheetViews>
@@ -6484,7 +7216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -6533,7 +7265,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="47" t="s">
         <v>96</v>
       </c>
       <c r="B9" t="s">
@@ -6544,13 +7276,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
+      <c r="A10" s="47"/>
       <c r="B10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
+      <c r="A11" s="47"/>
       <c r="B11" t="s">
         <v>98</v>
       </c>
@@ -6586,7 +7318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B17"/>
   <sheetViews>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="520">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1900,6 +1900,14 @@
   </si>
   <si>
     <t>怪物个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物一个平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2196,9 +2204,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2219,6 +2224,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2287,914 +2295,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.43888888888888894"/>
-          <c:y val="5.0925925925925923E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11967227500817718"/>
-          <c:y val="0.22972504650510917"/>
-          <c:w val="0.83274282204086192"/>
-          <c:h val="0.6026002089544632"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>总血量</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$2:$C$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
-                <c:pt idx="0">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>637</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1755</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3036</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3796</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4611</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5676</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6480</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7527</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8858</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9844</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11123</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12220</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13640</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14877</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16140</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17766</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19175</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20604</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22120</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23652</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25275</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26950</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>28282</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>30051</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>31457</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33320</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>33930</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34977</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36036</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>36708</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>37788</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>38475</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>39576</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>40278</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>40986</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41700</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42420</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43146</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43878</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44616</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45360</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46110</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46428</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47187</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47952</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48276</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48600</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49377</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>49704</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>50031</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>50358</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>50685</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>51012</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>51339</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>51673.96320000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>51993</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>52320</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-389C-42B2-81D1-373073C8C344}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="231994479"/>
-        <c:axId val="231991151"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="231994479"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="231991151"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="231991151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="231994479"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>等级</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$E$2:$E$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>109.01680000000005</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-98F0-4A06-B2C0-06E56FB6D4BA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="239533167"/>
-        <c:axId val="239537327"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="239533167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="239537327"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="239537327"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="239533167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3441,6 +2541,54 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -3616,7 +2764,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3893,13 +3041,61 @@
                   <c:v>32700</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>32705.040000000012</c:v>
+                  <c:v>32700</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>32700</c:v>
+                  <c:v>32400</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>32700</c:v>
+                  <c:v>32400</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>32100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4027,6 +3223,974 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="123995791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>怪物一个平均</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5433-4F2B-AA1F-31DA64568F52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2090323503"/>
+        <c:axId val="2090323919"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2090323503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090323919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2090323919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090323503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均伤害</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1646</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1833</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2362</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2916</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3312</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3529</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3686</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3915</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-853E-41C8-B96D-13846A7D6844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="589977295"/>
+        <c:axId val="589978959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="589977295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589978959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="589978959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589977295"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5771,7 +5935,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5879,6 +6043,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5889,6 +6058,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5920,6 +6094,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6277,76 +6454,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6359,7 +6476,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6381,6 +6498,66 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9083,10 +9260,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AA101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9096,14 +9273,15 @@
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="6.25" style="16" customWidth="1"/>
-    <col min="6" max="7" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="7" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>513</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -9118,11 +9296,17 @@
       <c r="F1" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="AA1" s="56"/>
+      <c r="G1" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="AA1" s="55"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="58">
+      <c r="B2" s="57">
         <v>1</v>
       </c>
       <c r="C2">
@@ -9134,27 +9318,32 @@
         <v>320</v>
       </c>
       <c r="E2" s="16">
-        <f t="shared" ref="E2:E58" si="0">_xlfn.FLOOR.MATH(B2*B2*(-0.0372) + 4.0372*B2)</f>
+        <f t="shared" ref="E2:E65" si="0">_xlfn.FLOOR.MATH(B2*B2*(-0.0372) + 4.0372*B2)</f>
         <v>4</v>
       </c>
       <c r="F2" s="16">
         <f>_xlfn.FLOOR.MATH(B2*1.62 + 14.63)</f>
         <v>16</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="58"/>
-      <c r="AA2" s="56"/>
+      <c r="G2" s="16">
+        <f>_xlfn.FLOOR.MATH(C2/(F2*2))</f>
+        <v>10</v>
+      </c>
+      <c r="H2" s="57">
+        <v>90</v>
+      </c>
+      <c r="AA2" s="55"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B3" s="58">
+      <c r="B3" s="57">
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C61" si="1">D3 + E3*B3*3</f>
+        <f t="shared" ref="C3:C66" si="1">D3 + E3*B3*3</f>
         <v>637</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D61" si="2">F3*2*E3*2.5</f>
+        <f t="shared" ref="D3:D66" si="2">F3*2*E3*2.5</f>
         <v>595</v>
       </c>
       <c r="E3" s="16">
@@ -9165,10 +9354,18 @@
         <f t="shared" ref="F3:F30" si="3">_xlfn.FLOOR.MATH(B3*1.62 + 14.63)</f>
         <v>17</v>
       </c>
-      <c r="AA3" s="56"/>
+      <c r="G3" s="16">
+        <f t="shared" ref="G3:G66" si="4">_xlfn.FLOOR.MATH(C3/(F3*2))</f>
+        <v>18</v>
+      </c>
+      <c r="H3" s="57">
+        <f>_xlfn.FLOOR.MATH(D3/6)</f>
+        <v>99</v>
+      </c>
+      <c r="AA3" s="55"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B4" s="58">
+      <c r="B4" s="57">
         <v>3</v>
       </c>
       <c r="C4">
@@ -9187,10 +9384,18 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="AA4" s="56"/>
+      <c r="G4" s="16">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H4" s="57">
+        <f t="shared" ref="H4:H67" si="5">_xlfn.FLOOR.MATH(D4/6)</f>
+        <v>174</v>
+      </c>
+      <c r="AA4" s="55"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B5" s="58">
+      <c r="B5" s="57">
         <v>4</v>
       </c>
       <c r="C5">
@@ -9209,10 +9414,18 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="AA5" s="56"/>
+      <c r="G5" s="16">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="H5" s="57">
+        <f t="shared" si="5"/>
+        <v>262</v>
+      </c>
+      <c r="AA5" s="55"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B6" s="58">
+      <c r="B6" s="57">
         <v>5</v>
       </c>
       <c r="C6">
@@ -9231,10 +9444,18 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="AA6" s="56"/>
+      <c r="G6" s="16">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="H6" s="57">
+        <f t="shared" si="5"/>
+        <v>348</v>
+      </c>
+      <c r="AA6" s="55"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B7" s="58">
+      <c r="B7" s="57">
         <v>6</v>
       </c>
       <c r="C7">
@@ -9253,10 +9474,18 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="AA7" s="56"/>
+      <c r="G7" s="16">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="H7" s="57">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="AA7" s="55"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B8" s="58">
+      <c r="B8" s="57">
         <v>7</v>
       </c>
       <c r="C8">
@@ -9275,10 +9504,18 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="AA8" s="56"/>
+      <c r="G8" s="16">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="H8" s="57">
+        <f t="shared" si="5"/>
+        <v>541</v>
+      </c>
+      <c r="AA8" s="55"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B9" s="58">
+      <c r="B9" s="57">
         <v>8</v>
       </c>
       <c r="C9">
@@ -9297,10 +9534,18 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="AA9" s="56"/>
+      <c r="G9" s="16">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="H9" s="57">
+        <f t="shared" si="5"/>
+        <v>652</v>
+      </c>
+      <c r="AA9" s="55"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B10" s="58">
+      <c r="B10" s="57">
         <v>9</v>
       </c>
       <c r="C10">
@@ -9319,15 +9564,23 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="AA10" s="56"/>
+      <c r="G10" s="16">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="H10" s="57">
+        <f t="shared" si="5"/>
+        <v>797</v>
+      </c>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="AA10" s="55"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B11" s="58">
+      <c r="B11" s="57">
         <v>10</v>
       </c>
       <c r="C11">
@@ -9346,15 +9599,23 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="AA11" s="56"/>
+      <c r="G11" s="16">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="H11" s="57">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="AA11" s="55"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B12" s="58">
+      <c r="B12" s="57">
         <v>11</v>
       </c>
       <c r="C12">
@@ -9373,15 +9634,23 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="AA12" s="56"/>
+      <c r="G12" s="16">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="H12" s="57">
+        <f t="shared" si="5"/>
+        <v>1040</v>
+      </c>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="AA12" s="55"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B13" s="58">
+      <c r="B13" s="57">
         <v>12</v>
       </c>
       <c r="C13">
@@ -9400,15 +9669,23 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="AA13" s="56"/>
+      <c r="G13" s="16">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="H13" s="57">
+        <f t="shared" si="5"/>
+        <v>1218</v>
+      </c>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="AA13" s="55"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B14" s="58">
+      <c r="B14" s="57">
         <v>13</v>
       </c>
       <c r="C14">
@@ -9427,21 +9704,29 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="56"/>
+      <c r="G14" s="16">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="H14" s="57">
+        <f t="shared" si="5"/>
+        <v>1341</v>
+      </c>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="55"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B15" s="58">
+      <c r="B15" s="57">
         <v>14</v>
       </c>
       <c r="C15">
@@ -9460,21 +9745,29 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="56"/>
+      <c r="G15" s="16">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="H15" s="57">
+        <f t="shared" si="5"/>
+        <v>1510</v>
+      </c>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="55"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B16" s="58">
+      <c r="B16" s="57">
         <v>15</v>
       </c>
       <c r="C16">
@@ -9493,21 +9786,29 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="56"/>
+      <c r="G16" s="16">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="H16" s="57">
+        <f t="shared" si="5"/>
+        <v>1646</v>
+      </c>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="55"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B17" s="58">
+      <c r="B17" s="57">
         <v>16</v>
       </c>
       <c r="C17">
@@ -9526,21 +9827,29 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="56"/>
+      <c r="G17" s="16">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="H17" s="57">
+        <f t="shared" si="5"/>
+        <v>1833</v>
+      </c>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="55"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B18" s="58">
+      <c r="B18" s="57">
         <v>17</v>
       </c>
       <c r="C18">
@@ -9559,21 +9868,29 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="56"/>
+      <c r="G18" s="16">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="H18" s="57">
+        <f t="shared" si="5"/>
+        <v>1995</v>
+      </c>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="55"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B19" s="58">
+      <c r="B19" s="57">
         <v>18</v>
       </c>
       <c r="C19">
@@ -9592,21 +9909,29 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="56"/>
+      <c r="G19" s="16">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="H19" s="57">
+        <f t="shared" si="5"/>
+        <v>2150</v>
+      </c>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="55"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B20" s="58">
+      <c r="B20" s="57">
         <v>19</v>
       </c>
       <c r="C20">
@@ -9625,21 +9950,29 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="56"/>
+      <c r="G20" s="16">
+        <f t="shared" si="4"/>
+        <v>197</v>
+      </c>
+      <c r="H20" s="57">
+        <f t="shared" si="5"/>
+        <v>2362</v>
+      </c>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="55"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B21" s="58">
+      <c r="B21" s="57">
         <v>20</v>
       </c>
       <c r="C21">
@@ -9658,21 +9991,29 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="56"/>
+      <c r="G21" s="16">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="H21" s="57">
+        <f t="shared" si="5"/>
+        <v>2545</v>
+      </c>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="55"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B22" s="58">
+      <c r="B22" s="57">
         <v>21</v>
       </c>
       <c r="C22">
@@ -9691,25 +10032,33 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="56"/>
+      <c r="G22" s="16">
+        <f t="shared" si="4"/>
+        <v>214</v>
+      </c>
+      <c r="H22" s="57">
+        <f t="shared" si="5"/>
+        <v>2720</v>
+      </c>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="55"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B23" s="58">
+      <c r="B23" s="57">
         <v>22</v>
       </c>
       <c r="C23">
@@ -9728,25 +10077,33 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="56"/>
+      <c r="G23" s="16">
+        <f t="shared" si="4"/>
+        <v>221</v>
+      </c>
+      <c r="H23" s="57">
+        <f t="shared" si="5"/>
+        <v>2916</v>
+      </c>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="55"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B24" s="58">
+      <c r="B24" s="57">
         <v>23</v>
       </c>
       <c r="C24">
@@ -9765,28 +10122,33 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58">
-        <f>-132/3540</f>
-        <v>-3.7288135593220341E-2</v>
-      </c>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="56"/>
+      <c r="G24" s="16">
+        <f t="shared" si="4"/>
+        <v>231</v>
+      </c>
+      <c r="H24" s="57">
+        <f t="shared" si="5"/>
+        <v>3102</v>
+      </c>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="55"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B25" s="58">
+      <c r="B25" s="57">
         <v>24</v>
       </c>
       <c r="C25">
@@ -9805,21 +10167,29 @@
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="56"/>
+      <c r="G25" s="16">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="H25" s="57">
+        <f t="shared" si="5"/>
+        <v>3312</v>
+      </c>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="55"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B26" s="58">
+      <c r="B26" s="57">
         <v>25</v>
       </c>
       <c r="C26">
@@ -9838,21 +10208,29 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="56"/>
+      <c r="G26" s="16">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="H26" s="57">
+        <f t="shared" si="5"/>
+        <v>3529</v>
+      </c>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="55"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B27" s="58">
+      <c r="B27" s="57">
         <v>26</v>
       </c>
       <c r="C27">
@@ -9871,16 +10249,24 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="AA27" s="56"/>
+      <c r="G27" s="16">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="H27" s="57">
+        <f t="shared" si="5"/>
+        <v>3686</v>
+      </c>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="AA27" s="55"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B28" s="58">
+      <c r="B28" s="57">
         <v>27</v>
       </c>
       <c r="C28">
@@ -9899,16 +10285,24 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="AA28" s="56"/>
+      <c r="G28" s="16">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="H28" s="57">
+        <f t="shared" si="5"/>
+        <v>3915</v>
+      </c>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="AA28" s="55"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B29" s="58">
+      <c r="B29" s="57">
         <v>28</v>
       </c>
       <c r="C29">
@@ -9927,10 +10321,18 @@
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="AA29" s="56"/>
+      <c r="G29" s="16">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="H29" s="57">
+        <f t="shared" si="5"/>
+        <v>4080</v>
+      </c>
+      <c r="AA29" s="55"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B30" s="58">
+      <c r="B30" s="57">
         <v>29</v>
       </c>
       <c r="C30">
@@ -9949,10 +10351,18 @@
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="AA30" s="56"/>
+      <c r="G30" s="16">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="H30" s="57">
+        <f t="shared" si="5"/>
+        <v>4320</v>
+      </c>
+      <c r="AA30" s="55"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B31" s="58">
+      <c r="B31" s="57">
         <v>30</v>
       </c>
       <c r="C31">
@@ -9970,10 +10380,18 @@
       <c r="F31" s="16">
         <v>60</v>
       </c>
-      <c r="AA31" s="56"/>
+      <c r="G31" s="16">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="H31" s="57">
+        <f t="shared" si="5"/>
+        <v>4350</v>
+      </c>
+      <c r="AA31" s="55"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B32" s="58">
+      <c r="B32" s="57">
         <v>31</v>
       </c>
       <c r="C32">
@@ -9991,10 +10409,18 @@
       <c r="F32" s="16">
         <v>60</v>
       </c>
-      <c r="AA32" s="56"/>
+      <c r="G32" s="16">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+      <c r="H32" s="57">
+        <f t="shared" si="5"/>
+        <v>4450</v>
+      </c>
+      <c r="AA32" s="55"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B33" s="58">
+      <c r="B33" s="57">
         <v>32</v>
       </c>
       <c r="C33">
@@ -10012,10 +10438,18 @@
       <c r="F33" s="16">
         <v>60</v>
       </c>
-      <c r="AA33" s="56"/>
+      <c r="G33" s="16">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="H33" s="57">
+        <f t="shared" si="5"/>
+        <v>4550</v>
+      </c>
+      <c r="AA33" s="55"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B34" s="58">
+      <c r="B34" s="57">
         <v>33</v>
       </c>
       <c r="C34">
@@ -10033,34 +10467,18 @@
       <c r="F34" s="16">
         <v>60</v>
       </c>
-      <c r="M34">
-        <f>-132/3540</f>
-        <v>-3.7288135593220341E-2</v>
-      </c>
-      <c r="N34">
-        <f>108*108-27*16</f>
-        <v>11232</v>
-      </c>
-      <c r="O34">
-        <f>3600-60*27</f>
-        <v>1980</v>
-      </c>
-      <c r="P34">
-        <f>1980/11232</f>
-        <v>0.17628205128205129</v>
-      </c>
-      <c r="Q34">
-        <f>-70/354</f>
-        <v>-0.19774011299435029</v>
-      </c>
-      <c r="R34">
-        <f>67/3599</f>
-        <v>1.8616282300639067E-2</v>
-      </c>
-      <c r="AA34" s="56"/>
+      <c r="G34" s="16">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="H34" s="57">
+        <f t="shared" si="5"/>
+        <v>4600</v>
+      </c>
+      <c r="AA34" s="55"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B35" s="58">
+      <c r="B35" s="57">
         <v>34</v>
       </c>
       <c r="C35">
@@ -10078,22 +10496,22 @@
       <c r="F35" s="16">
         <v>60</v>
       </c>
-      <c r="P35">
-        <f>15-4*0.176</f>
-        <v>14.295999999999999</v>
-      </c>
-      <c r="R35">
-        <f>13-0.018</f>
-        <v>12.981999999999999</v>
-      </c>
-      <c r="AA35" s="56"/>
+      <c r="G35" s="16">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="H35" s="57">
+        <f t="shared" si="5"/>
+        <v>4700</v>
+      </c>
+      <c r="AA35" s="55"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B36" s="58">
+      <c r="B36" s="57">
         <v>35</v>
       </c>
       <c r="C36">
-        <f>D36 + E36*B36*3</f>
+        <f t="shared" si="1"/>
         <v>38475</v>
       </c>
       <c r="D36">
@@ -10107,10 +10525,18 @@
       <c r="F36" s="16">
         <v>60</v>
       </c>
-      <c r="AA36" s="56"/>
+      <c r="G36" s="16">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="H36" s="57">
+        <f t="shared" si="5"/>
+        <v>4750</v>
+      </c>
+      <c r="AA36" s="55"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B37" s="58">
+      <c r="B37" s="57">
         <v>36</v>
       </c>
       <c r="C37">
@@ -10128,10 +10554,18 @@
       <c r="F37" s="16">
         <v>60</v>
       </c>
-      <c r="AA37" s="56"/>
+      <c r="G37" s="16">
+        <f t="shared" si="4"/>
+        <v>329</v>
+      </c>
+      <c r="H37" s="57">
+        <f t="shared" si="5"/>
+        <v>4850</v>
+      </c>
+      <c r="AA37" s="55"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B38" s="58">
+      <c r="B38" s="57">
         <v>37</v>
       </c>
       <c r="C38">
@@ -10149,14 +10583,18 @@
       <c r="F38" s="16">
         <v>60</v>
       </c>
-      <c r="P38">
-        <f>47/29</f>
-        <v>1.6206896551724137</v>
-      </c>
-      <c r="AA38" s="56"/>
+      <c r="G38" s="16">
+        <f t="shared" si="4"/>
+        <v>335</v>
+      </c>
+      <c r="H38" s="57">
+        <f t="shared" si="5"/>
+        <v>4900</v>
+      </c>
+      <c r="AA38" s="55"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B39" s="58">
+      <c r="B39" s="57">
         <v>38</v>
       </c>
       <c r="C39">
@@ -10174,13 +10612,18 @@
       <c r="F39" s="16">
         <v>60</v>
       </c>
-      <c r="P39">
-        <v>14.62</v>
-      </c>
-      <c r="AA39" s="56"/>
+      <c r="G39" s="16">
+        <f t="shared" si="4"/>
+        <v>341</v>
+      </c>
+      <c r="H39" s="57">
+        <f t="shared" si="5"/>
+        <v>4950</v>
+      </c>
+      <c r="AA39" s="55"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B40" s="58">
+      <c r="B40" s="57">
         <v>39</v>
       </c>
       <c r="C40">
@@ -10198,10 +10641,18 @@
       <c r="F40" s="16">
         <v>60</v>
       </c>
-      <c r="AA40" s="56"/>
+      <c r="G40" s="16">
+        <f t="shared" si="4"/>
+        <v>347</v>
+      </c>
+      <c r="H40" s="57">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="AA40" s="55"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B41" s="58">
+      <c r="B41" s="57">
         <v>40</v>
       </c>
       <c r="C41">
@@ -10219,11 +10670,19 @@
       <c r="F41" s="16">
         <v>60</v>
       </c>
-      <c r="AA41" s="56"/>
+      <c r="G41" s="16">
+        <f t="shared" si="4"/>
+        <v>353</v>
+      </c>
+      <c r="H41" s="57">
+        <f t="shared" si="5"/>
+        <v>5050</v>
+      </c>
+      <c r="AA41" s="55"/>
     </row>
     <row r="42" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="47"/>
-      <c r="B42" s="58">
+      <c r="B42" s="57">
         <v>41</v>
       </c>
       <c r="C42">
@@ -10241,30 +10700,36 @@
       <c r="F42" s="16">
         <v>60</v>
       </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="58"/>
-      <c r="W42" s="58"/>
-      <c r="X42" s="58"/>
-      <c r="Y42" s="58"/>
-      <c r="Z42" s="58"/>
-      <c r="AA42" s="56"/>
+      <c r="G42" s="16">
+        <f t="shared" si="4"/>
+        <v>359</v>
+      </c>
+      <c r="H42" s="57">
+        <f t="shared" si="5"/>
+        <v>5100</v>
+      </c>
+      <c r="I42" s="57"/>
+      <c r="J42"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="55"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B43" s="58">
+      <c r="B43" s="57">
         <v>42</v>
       </c>
       <c r="C43">
@@ -10282,10 +10747,18 @@
       <c r="F43" s="16">
         <v>60</v>
       </c>
-      <c r="AA43" s="56"/>
+      <c r="G43" s="16">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+      <c r="H43" s="57">
+        <f t="shared" si="5"/>
+        <v>5150</v>
+      </c>
+      <c r="AA43" s="55"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B44" s="58">
+      <c r="B44" s="57">
         <v>43</v>
       </c>
       <c r="C44">
@@ -10303,10 +10776,18 @@
       <c r="F44" s="16">
         <v>60</v>
       </c>
-      <c r="AA44" s="56"/>
+      <c r="G44" s="16">
+        <f t="shared" si="4"/>
+        <v>371</v>
+      </c>
+      <c r="H44" s="57">
+        <f t="shared" si="5"/>
+        <v>5200</v>
+      </c>
+      <c r="AA44" s="55"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B45" s="58">
+      <c r="B45" s="57">
         <v>44</v>
       </c>
       <c r="C45">
@@ -10324,10 +10805,18 @@
       <c r="F45" s="16">
         <v>60</v>
       </c>
-      <c r="AA45" s="56"/>
+      <c r="G45" s="16">
+        <f t="shared" si="4"/>
+        <v>378</v>
+      </c>
+      <c r="H45" s="57">
+        <f t="shared" si="5"/>
+        <v>5250</v>
+      </c>
+      <c r="AA45" s="55"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B46" s="58">
+      <c r="B46" s="57">
         <v>45</v>
       </c>
       <c r="C46">
@@ -10345,10 +10834,18 @@
       <c r="F46" s="16">
         <v>60</v>
       </c>
-      <c r="AA46" s="56"/>
+      <c r="G46" s="16">
+        <f t="shared" si="4"/>
+        <v>384</v>
+      </c>
+      <c r="H46" s="57">
+        <f t="shared" si="5"/>
+        <v>5300</v>
+      </c>
+      <c r="AA46" s="55"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B47" s="58">
+      <c r="B47" s="57">
         <v>46</v>
       </c>
       <c r="C47">
@@ -10366,10 +10863,18 @@
       <c r="F47" s="16">
         <v>60</v>
       </c>
-      <c r="AA47" s="56"/>
+      <c r="G47" s="16">
+        <f t="shared" si="4"/>
+        <v>386</v>
+      </c>
+      <c r="H47" s="57">
+        <f t="shared" si="5"/>
+        <v>5300</v>
+      </c>
+      <c r="AA47" s="55"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B48" s="58">
+      <c r="B48" s="57">
         <v>47</v>
       </c>
       <c r="C48">
@@ -10387,10 +10892,18 @@
       <c r="F48" s="16">
         <v>60</v>
       </c>
-      <c r="AA48" s="56"/>
+      <c r="G48" s="16">
+        <f t="shared" si="4"/>
+        <v>393</v>
+      </c>
+      <c r="H48" s="57">
+        <f t="shared" si="5"/>
+        <v>5350</v>
+      </c>
+      <c r="AA48" s="55"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B49" s="58">
+      <c r="B49" s="57">
         <v>48</v>
       </c>
       <c r="C49">
@@ -10408,10 +10921,18 @@
       <c r="F49" s="16">
         <v>60</v>
       </c>
-      <c r="AA49" s="56"/>
+      <c r="G49" s="16">
+        <f t="shared" si="4"/>
+        <v>399</v>
+      </c>
+      <c r="H49" s="57">
+        <f t="shared" si="5"/>
+        <v>5400</v>
+      </c>
+      <c r="AA49" s="55"/>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B50" s="58">
+      <c r="B50" s="57">
         <v>49</v>
       </c>
       <c r="C50">
@@ -10429,10 +10950,18 @@
       <c r="F50" s="16">
         <v>60</v>
       </c>
-      <c r="AA50" s="56"/>
+      <c r="G50" s="16">
+        <f t="shared" si="4"/>
+        <v>402</v>
+      </c>
+      <c r="H50" s="57">
+        <f t="shared" si="5"/>
+        <v>5400</v>
+      </c>
+      <c r="AA50" s="55"/>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B51" s="58">
+      <c r="B51" s="57">
         <v>50</v>
       </c>
       <c r="C51">
@@ -10450,10 +10979,18 @@
       <c r="F51" s="16">
         <v>60</v>
       </c>
-      <c r="AA51" s="56"/>
+      <c r="G51" s="16">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+      <c r="H51" s="57">
+        <f t="shared" si="5"/>
+        <v>5400</v>
+      </c>
+      <c r="AA51" s="55"/>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B52" s="58">
+      <c r="B52" s="57">
         <v>51</v>
       </c>
       <c r="C52">
@@ -10471,10 +11008,18 @@
       <c r="F52" s="16">
         <v>60</v>
       </c>
-      <c r="AA52" s="56"/>
+      <c r="G52" s="16">
+        <f t="shared" si="4"/>
+        <v>411</v>
+      </c>
+      <c r="H52" s="57">
+        <f t="shared" si="5"/>
+        <v>5450</v>
+      </c>
+      <c r="AA52" s="55"/>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B53" s="58">
+      <c r="B53" s="57">
         <v>52</v>
       </c>
       <c r="C53">
@@ -10492,10 +11037,18 @@
       <c r="F53" s="16">
         <v>60</v>
       </c>
-      <c r="AA53" s="56"/>
+      <c r="G53" s="16">
+        <f t="shared" si="4"/>
+        <v>414</v>
+      </c>
+      <c r="H53" s="57">
+        <f t="shared" si="5"/>
+        <v>5450</v>
+      </c>
+      <c r="AA53" s="55"/>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B54" s="58">
+      <c r="B54" s="57">
         <v>53</v>
       </c>
       <c r="C54">
@@ -10513,10 +11066,18 @@
       <c r="F54" s="16">
         <v>60</v>
       </c>
-      <c r="AA54" s="56"/>
+      <c r="G54" s="16">
+        <f t="shared" si="4"/>
+        <v>416</v>
+      </c>
+      <c r="H54" s="57">
+        <f t="shared" si="5"/>
+        <v>5450</v>
+      </c>
+      <c r="AA54" s="55"/>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B55" s="58">
+      <c r="B55" s="57">
         <v>54</v>
       </c>
       <c r="C55">
@@ -10534,10 +11095,18 @@
       <c r="F55" s="16">
         <v>60</v>
       </c>
-      <c r="AA55" s="56"/>
+      <c r="G55" s="16">
+        <f t="shared" si="4"/>
+        <v>419</v>
+      </c>
+      <c r="H55" s="57">
+        <f t="shared" si="5"/>
+        <v>5450</v>
+      </c>
+      <c r="AA55" s="55"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B56" s="58">
+      <c r="B56" s="57">
         <v>55</v>
       </c>
       <c r="C56">
@@ -10555,10 +11124,18 @@
       <c r="F56" s="16">
         <v>60</v>
       </c>
-      <c r="AA56" s="56"/>
+      <c r="G56" s="16">
+        <f t="shared" si="4"/>
+        <v>422</v>
+      </c>
+      <c r="H56" s="57">
+        <f t="shared" si="5"/>
+        <v>5450</v>
+      </c>
+      <c r="AA56" s="55"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B57" s="58">
+      <c r="B57" s="57">
         <v>56</v>
       </c>
       <c r="C57">
@@ -10576,10 +11153,18 @@
       <c r="F57" s="16">
         <v>60</v>
       </c>
-      <c r="AA57" s="56"/>
+      <c r="G57" s="16">
+        <f t="shared" si="4"/>
+        <v>425</v>
+      </c>
+      <c r="H57" s="57">
+        <f t="shared" si="5"/>
+        <v>5450</v>
+      </c>
+      <c r="AA57" s="55"/>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B58" s="58">
+      <c r="B58" s="57">
         <v>57</v>
       </c>
       <c r="C58">
@@ -10597,97 +11182,174 @@
       <c r="F58" s="16">
         <v>60</v>
       </c>
-      <c r="AA58" s="56"/>
+      <c r="G58" s="16">
+        <f t="shared" si="4"/>
+        <v>427</v>
+      </c>
+      <c r="H58" s="57">
+        <f t="shared" si="5"/>
+        <v>5450</v>
+      </c>
+      <c r="AA58" s="55"/>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B59" s="58">
+      <c r="B59" s="57">
         <v>58</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>51673.96320000002</v>
+        <v>51666</v>
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>32705.040000000012</v>
+        <v>32700</v>
       </c>
       <c r="E59" s="16">
-        <f t="shared" ref="E3:E66" si="4">B59*B59*(-0.0372) + 4.0372*B59</f>
-        <v>109.01680000000005</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
       <c r="F59" s="16">
         <v>60</v>
       </c>
-      <c r="AA59" s="56"/>
+      <c r="G59" s="16">
+        <f t="shared" si="4"/>
+        <v>430</v>
+      </c>
+      <c r="H59" s="57">
+        <f t="shared" si="5"/>
+        <v>5450</v>
+      </c>
+      <c r="AA59" s="55"/>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B60" s="58">
+      <c r="B60" s="57">
         <v>59</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>51993</v>
+        <v>51516</v>
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>32700</v>
+        <v>32400</v>
       </c>
       <c r="E60" s="16">
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>108</v>
       </c>
       <c r="F60" s="16">
         <v>60</v>
       </c>
-      <c r="AA60" s="56"/>
+      <c r="G60" s="16">
+        <f t="shared" si="4"/>
+        <v>429</v>
+      </c>
+      <c r="H60" s="57">
+        <f t="shared" si="5"/>
+        <v>5400</v>
+      </c>
+      <c r="AA60" s="55"/>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B61" s="58">
+      <c r="B61" s="57">
         <v>60</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>52320</v>
+        <v>51840</v>
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>32700</v>
+        <v>32400</v>
       </c>
       <c r="E61" s="16">
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>108</v>
       </c>
       <c r="F61" s="16">
         <v>60</v>
       </c>
-      <c r="AA61" s="56"/>
+      <c r="G61" s="16">
+        <f t="shared" si="4"/>
+        <v>432</v>
+      </c>
+      <c r="H61" s="57">
+        <f t="shared" si="5"/>
+        <v>5400</v>
+      </c>
+      <c r="AA61" s="55"/>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B62" s="58"/>
-      <c r="D62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="57"/>
-      <c r="R62" s="57"/>
-      <c r="S62" s="57"/>
-      <c r="T62" s="57"/>
-      <c r="U62" s="57"/>
-      <c r="V62" s="57"/>
-      <c r="W62" s="57"/>
-      <c r="X62" s="57"/>
-      <c r="Y62" s="57"/>
-      <c r="Z62" s="57"/>
-      <c r="AA62" s="57"/>
+      <c r="B62" s="57">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>51681</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>32100</v>
+      </c>
+      <c r="E62" s="16">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="F62" s="16">
+        <v>60</v>
+      </c>
+      <c r="G62" s="16">
+        <f t="shared" si="4"/>
+        <v>430</v>
+      </c>
+      <c r="H62" s="57">
+        <v>5400</v>
+      </c>
+      <c r="I62" s="61"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="56"/>
+      <c r="T62" s="56"/>
+      <c r="U62" s="56"/>
+      <c r="V62" s="56"/>
+      <c r="W62" s="56"/>
+      <c r="X62" s="56"/>
+      <c r="Y62" s="56"/>
+      <c r="Z62" s="56"/>
+      <c r="AA62" s="56"/>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B63" s="58"/>
+      <c r="B63" s="57">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>52002</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>32100</v>
+      </c>
+      <c r="E63" s="16">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="F63" s="16">
+        <v>60</v>
+      </c>
+      <c r="G63" s="16">
+        <f t="shared" si="4"/>
+        <v>433</v>
+      </c>
+      <c r="H63" s="57">
+        <v>5400</v>
+      </c>
       <c r="L63" t="s">
         <v>510</v>
       </c>
@@ -10705,10 +11367,33 @@
       <c r="X63" s="47"/>
       <c r="Y63" s="47"/>
       <c r="Z63" s="47"/>
-      <c r="AA63" s="56"/>
+      <c r="AA63" s="55"/>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B64" s="58"/>
+      <c r="B64" s="57">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>52134</v>
+      </c>
+      <c r="D64">
+        <v>32100</v>
+      </c>
+      <c r="E64" s="16">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="F64" s="16">
+        <v>60</v>
+      </c>
+      <c r="G64" s="16">
+        <f t="shared" si="4"/>
+        <v>434</v>
+      </c>
+      <c r="H64" s="57">
+        <v>5400</v>
+      </c>
       <c r="L64" t="s">
         <v>511</v>
       </c>
@@ -10718,39 +11403,85 @@
       </c>
       <c r="P64" s="11"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="59"/>
-      <c r="S64" s="59"/>
-      <c r="T64" s="59"/>
-      <c r="U64" s="59"/>
-      <c r="V64" s="59"/>
-      <c r="W64" s="59"/>
-      <c r="X64" s="59"/>
-      <c r="Y64" s="59"/>
+      <c r="R64" s="58"/>
+      <c r="S64" s="58"/>
+      <c r="T64" s="58"/>
+      <c r="U64" s="58"/>
+      <c r="V64" s="58"/>
+      <c r="W64" s="58"/>
+      <c r="X64" s="58"/>
+      <c r="Y64" s="58"/>
       <c r="Z64" s="5"/>
-      <c r="AA64" s="56"/>
+      <c r="AA64" s="55"/>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B65" s="58"/>
+      <c r="B65" s="57">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>52452</v>
+      </c>
+      <c r="D65">
+        <v>32100</v>
+      </c>
+      <c r="E65" s="16">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="F65" s="16">
+        <v>60</v>
+      </c>
+      <c r="G65" s="16">
+        <f t="shared" si="4"/>
+        <v>437</v>
+      </c>
+      <c r="H65" s="57">
+        <v>5400</v>
+      </c>
       <c r="L65" s="16" t="s">
         <v>512</v>
       </c>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="59"/>
-      <c r="T65" s="59"/>
-      <c r="U65" s="59">
+      <c r="R65" s="58"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="58"/>
+      <c r="U65" s="58">
         <v>1</v>
       </c>
-      <c r="V65" s="59"/>
-      <c r="W65" s="59"/>
-      <c r="X65" s="59"/>
+      <c r="V65" s="58"/>
+      <c r="W65" s="58"/>
+      <c r="X65" s="58"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="5"/>
-      <c r="AA65" s="56"/>
+      <c r="AA65" s="55"/>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B66" s="58"/>
+      <c r="B66" s="57">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>52575</v>
+      </c>
+      <c r="D66">
+        <v>32100</v>
+      </c>
+      <c r="E66" s="16">
+        <f t="shared" ref="E66:E101" si="6">_xlfn.FLOOR.MATH(B66*B66*(-0.0372) + 4.0372*B66)</f>
+        <v>105</v>
+      </c>
+      <c r="F66" s="16">
+        <v>60</v>
+      </c>
+      <c r="G66" s="16">
+        <f t="shared" si="4"/>
+        <v>438</v>
+      </c>
+      <c r="H66" s="57">
+        <v>5400</v>
+      </c>
       <c r="L66" s="16">
         <v>10</v>
       </c>
@@ -10760,48 +11491,117 @@
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="10"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="59"/>
-      <c r="V66" s="59"/>
-      <c r="W66" s="59"/>
+      <c r="S66" s="58"/>
+      <c r="T66" s="58"/>
+      <c r="U66" s="58"/>
+      <c r="V66" s="58"/>
+      <c r="W66" s="58"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="5"/>
-      <c r="AA66" s="56"/>
+      <c r="AA66" s="55"/>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B67" s="58"/>
+      <c r="B67" s="57">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C101" si="7">D67 + E67*B67*3</f>
+        <v>52692</v>
+      </c>
+      <c r="D67">
+        <v>32100</v>
+      </c>
+      <c r="E67" s="16">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="F67" s="16">
+        <v>60</v>
+      </c>
+      <c r="G67" s="16">
+        <f t="shared" ref="G67:G101" si="8">_xlfn.FLOOR.MATH(C67/(F67*2))</f>
+        <v>439</v>
+      </c>
+      <c r="H67" s="57">
+        <v>5400</v>
+      </c>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
-      <c r="T67" s="59"/>
-      <c r="U67" s="59"/>
-      <c r="V67" s="59"/>
+      <c r="T67" s="58"/>
+      <c r="U67" s="58"/>
+      <c r="V67" s="58"/>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="5"/>
-      <c r="AA67" s="56"/>
+      <c r="AA67" s="55"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B68" s="58"/>
+      <c r="B68" s="57">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="7"/>
+        <v>52803</v>
+      </c>
+      <c r="D68">
+        <v>32100</v>
+      </c>
+      <c r="E68" s="16">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="F68" s="16">
+        <v>60</v>
+      </c>
+      <c r="G68" s="16">
+        <f t="shared" si="8"/>
+        <v>440</v>
+      </c>
+      <c r="H68" s="57">
+        <v>5400</v>
+      </c>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
-      <c r="U68" s="59"/>
+      <c r="U68" s="58"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="5"/>
-      <c r="AA68" s="56"/>
+      <c r="AA68" s="55"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B69" s="58"/>
+      <c r="B69" s="57">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="7"/>
+        <v>52908</v>
+      </c>
+      <c r="D69">
+        <v>32100</v>
+      </c>
+      <c r="E69" s="16">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="F69" s="16">
+        <v>60</v>
+      </c>
+      <c r="G69" s="16">
+        <f t="shared" si="8"/>
+        <v>440</v>
+      </c>
+      <c r="H69" s="57">
+        <v>5400</v>
+      </c>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="10">
@@ -10809,7 +11609,7 @@
       </c>
       <c r="S69" s="10"/>
       <c r="T69" s="10"/>
-      <c r="U69" s="60"/>
+      <c r="U69" s="59"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4">
@@ -10817,10 +11617,33 @@
       </c>
       <c r="Y69" s="4"/>
       <c r="Z69" s="5"/>
-      <c r="AA69" s="56"/>
+      <c r="AA69" s="55"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B70" s="58"/>
+      <c r="B70" s="57">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="7"/>
+        <v>53007</v>
+      </c>
+      <c r="D70">
+        <v>32100</v>
+      </c>
+      <c r="E70" s="16">
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="F70" s="16">
+        <v>60</v>
+      </c>
+      <c r="G70" s="16">
+        <f t="shared" si="8"/>
+        <v>441</v>
+      </c>
+      <c r="H70" s="57">
+        <v>5400</v>
+      </c>
       <c r="P70" s="11" t="s">
         <v>509</v>
       </c>
@@ -10834,10 +11657,33 @@
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="5"/>
-      <c r="AA70" s="56"/>
+      <c r="AA70" s="55"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B71" s="58"/>
+      <c r="B71" s="57">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="7"/>
+        <v>53100</v>
+      </c>
+      <c r="D71">
+        <v>32100</v>
+      </c>
+      <c r="E71" s="16">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F71" s="16">
+        <v>60</v>
+      </c>
+      <c r="G71" s="16">
+        <f t="shared" si="8"/>
+        <v>442</v>
+      </c>
+      <c r="H71" s="57">
+        <v>5400</v>
+      </c>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="10"/>
@@ -10849,10 +11695,32 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="5"/>
-      <c r="AA71" s="56"/>
+      <c r="AA71" s="55"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="B72" s="58"/>
+      <c r="B72" s="57">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="7"/>
+        <v>53400</v>
+      </c>
+      <c r="D72">
+        <v>32100</v>
+      </c>
+      <c r="E72" s="16">
+        <v>100</v>
+      </c>
+      <c r="F72" s="16">
+        <v>60</v>
+      </c>
+      <c r="G72" s="16">
+        <f t="shared" si="8"/>
+        <v>445</v>
+      </c>
+      <c r="H72" s="57">
+        <v>5400</v>
+      </c>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="10"/>
@@ -10864,12 +11732,31 @@
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
       <c r="Z72" s="5"/>
-      <c r="AA72" s="56"/>
+      <c r="AA72" s="55"/>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B73" s="57">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="7"/>
+        <v>53700</v>
+      </c>
+      <c r="D73">
+        <v>32100</v>
+      </c>
       <c r="E73" s="16">
-        <f t="shared" ref="E67:E74" si="5">B73*B73*(-0.0372) + 4.0372*B73</f>
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F73" s="16">
+        <v>60</v>
+      </c>
+      <c r="G73" s="16">
+        <f t="shared" si="8"/>
+        <v>447</v>
+      </c>
+      <c r="H73" s="57">
+        <v>5400</v>
       </c>
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
@@ -10884,12 +11771,31 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="4"/>
       <c r="Z73" s="5"/>
-      <c r="AA73" s="56"/>
+      <c r="AA73" s="55"/>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B74" s="57">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="7"/>
+        <v>54000</v>
+      </c>
+      <c r="D74">
+        <v>32100</v>
+      </c>
       <c r="E74" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F74" s="16">
+        <v>60</v>
+      </c>
+      <c r="G74" s="16">
+        <f t="shared" si="8"/>
+        <v>450</v>
+      </c>
+      <c r="H74" s="57">
+        <v>5400</v>
       </c>
       <c r="P74" s="11"/>
       <c r="Q74" s="13"/>
@@ -10902,9 +11808,32 @@
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
       <c r="Z74" s="5"/>
-      <c r="AA74" s="56"/>
+      <c r="AA74" s="55"/>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B75" s="57">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="7"/>
+        <v>54300</v>
+      </c>
+      <c r="D75">
+        <v>32100</v>
+      </c>
+      <c r="E75" s="16">
+        <v>100</v>
+      </c>
+      <c r="F75" s="16">
+        <v>60</v>
+      </c>
+      <c r="G75" s="16">
+        <f t="shared" si="8"/>
+        <v>452</v>
+      </c>
+      <c r="H75" s="57">
+        <v>5400</v>
+      </c>
       <c r="P75" s="13"/>
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
@@ -10916,16 +11845,33 @@
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
-      <c r="AA75" s="56"/>
+      <c r="AA75" s="55"/>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="61"/>
+      <c r="B76" s="57">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="7"/>
+        <v>54600</v>
+      </c>
+      <c r="D76">
+        <v>32100</v>
+      </c>
+      <c r="E76" s="16">
+        <v>100</v>
+      </c>
+      <c r="F76" s="16">
+        <v>60</v>
+      </c>
+      <c r="G76" s="16">
+        <f t="shared" si="8"/>
+        <v>455</v>
+      </c>
+      <c r="H76" s="57">
+        <v>5400</v>
+      </c>
+      <c r="I76" s="60"/>
       <c r="J76" s="48"/>
       <c r="K76" s="48"/>
       <c r="L76" s="48"/>
@@ -10946,13 +11892,30 @@
       <c r="AA76" s="48"/>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="61"/>
+      <c r="B77" s="57">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="7"/>
+        <v>54900</v>
+      </c>
+      <c r="D77">
+        <v>32100</v>
+      </c>
+      <c r="E77" s="16">
+        <v>100</v>
+      </c>
+      <c r="F77" s="16">
+        <v>60</v>
+      </c>
+      <c r="G77" s="16">
+        <f t="shared" si="8"/>
+        <v>457</v>
+      </c>
+      <c r="H77" s="57">
+        <v>5400</v>
+      </c>
+      <c r="I77" s="60"/>
       <c r="J77" s="48"/>
       <c r="K77" s="48"/>
       <c r="L77" s="48"/>
@@ -10971,6 +11934,606 @@
       <c r="Y77" s="48"/>
       <c r="Z77" s="48"/>
       <c r="AA77" s="48"/>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B78" s="57">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="7"/>
+        <v>55200</v>
+      </c>
+      <c r="D78">
+        <v>32100</v>
+      </c>
+      <c r="E78" s="16">
+        <v>100</v>
+      </c>
+      <c r="F78" s="16">
+        <v>60</v>
+      </c>
+      <c r="G78" s="16">
+        <f t="shared" si="8"/>
+        <v>460</v>
+      </c>
+      <c r="H78" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B79" s="57">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="7"/>
+        <v>55500</v>
+      </c>
+      <c r="D79">
+        <v>32100</v>
+      </c>
+      <c r="E79" s="16">
+        <v>100</v>
+      </c>
+      <c r="F79" s="16">
+        <v>60</v>
+      </c>
+      <c r="G79" s="16">
+        <f t="shared" si="8"/>
+        <v>462</v>
+      </c>
+      <c r="H79" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B80" s="57">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="7"/>
+        <v>55800</v>
+      </c>
+      <c r="D80">
+        <v>32100</v>
+      </c>
+      <c r="E80" s="16">
+        <v>100</v>
+      </c>
+      <c r="F80" s="16">
+        <v>60</v>
+      </c>
+      <c r="G80" s="16">
+        <f t="shared" si="8"/>
+        <v>465</v>
+      </c>
+      <c r="H80" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B81" s="57">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="7"/>
+        <v>56100</v>
+      </c>
+      <c r="D81">
+        <v>32100</v>
+      </c>
+      <c r="E81" s="16">
+        <v>100</v>
+      </c>
+      <c r="F81" s="16">
+        <v>60</v>
+      </c>
+      <c r="G81" s="16">
+        <f t="shared" si="8"/>
+        <v>467</v>
+      </c>
+      <c r="H81" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B82" s="57">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="7"/>
+        <v>56400</v>
+      </c>
+      <c r="D82">
+        <v>32100</v>
+      </c>
+      <c r="E82" s="16">
+        <v>100</v>
+      </c>
+      <c r="F82" s="16">
+        <v>60</v>
+      </c>
+      <c r="G82" s="16">
+        <f t="shared" si="8"/>
+        <v>470</v>
+      </c>
+      <c r="H82" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B83" s="57">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="7"/>
+        <v>56700</v>
+      </c>
+      <c r="D83">
+        <v>32100</v>
+      </c>
+      <c r="E83" s="16">
+        <v>100</v>
+      </c>
+      <c r="F83" s="16">
+        <v>60</v>
+      </c>
+      <c r="G83" s="16">
+        <f t="shared" si="8"/>
+        <v>472</v>
+      </c>
+      <c r="H83" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B84" s="57">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="7"/>
+        <v>57000</v>
+      </c>
+      <c r="D84">
+        <v>32100</v>
+      </c>
+      <c r="E84" s="16">
+        <v>100</v>
+      </c>
+      <c r="F84" s="16">
+        <v>60</v>
+      </c>
+      <c r="G84" s="16">
+        <f t="shared" si="8"/>
+        <v>475</v>
+      </c>
+      <c r="H84" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B85" s="57">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="7"/>
+        <v>57300</v>
+      </c>
+      <c r="D85">
+        <v>32100</v>
+      </c>
+      <c r="E85" s="16">
+        <v>100</v>
+      </c>
+      <c r="F85" s="16">
+        <v>60</v>
+      </c>
+      <c r="G85" s="16">
+        <f t="shared" si="8"/>
+        <v>477</v>
+      </c>
+      <c r="H85" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B86" s="57">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="7"/>
+        <v>57600</v>
+      </c>
+      <c r="D86">
+        <v>32100</v>
+      </c>
+      <c r="E86" s="16">
+        <v>100</v>
+      </c>
+      <c r="F86" s="16">
+        <v>60</v>
+      </c>
+      <c r="G86" s="16">
+        <f t="shared" si="8"/>
+        <v>480</v>
+      </c>
+      <c r="H86" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B87" s="57">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="7"/>
+        <v>57900</v>
+      </c>
+      <c r="D87">
+        <v>32100</v>
+      </c>
+      <c r="E87" s="16">
+        <v>100</v>
+      </c>
+      <c r="F87" s="16">
+        <v>60</v>
+      </c>
+      <c r="G87" s="16">
+        <f t="shared" si="8"/>
+        <v>482</v>
+      </c>
+      <c r="H87" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B88" s="57">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="7"/>
+        <v>58200</v>
+      </c>
+      <c r="D88">
+        <v>32100</v>
+      </c>
+      <c r="E88" s="16">
+        <v>100</v>
+      </c>
+      <c r="F88" s="16">
+        <v>60</v>
+      </c>
+      <c r="G88" s="16">
+        <f t="shared" si="8"/>
+        <v>485</v>
+      </c>
+      <c r="H88" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B89" s="57">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="7"/>
+        <v>58500</v>
+      </c>
+      <c r="D89">
+        <v>32100</v>
+      </c>
+      <c r="E89" s="16">
+        <v>100</v>
+      </c>
+      <c r="F89" s="16">
+        <v>60</v>
+      </c>
+      <c r="G89" s="16">
+        <f t="shared" si="8"/>
+        <v>487</v>
+      </c>
+      <c r="H89" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B90" s="57">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="7"/>
+        <v>58800</v>
+      </c>
+      <c r="D90">
+        <v>32100</v>
+      </c>
+      <c r="E90" s="16">
+        <v>100</v>
+      </c>
+      <c r="F90" s="16">
+        <v>60</v>
+      </c>
+      <c r="G90" s="16">
+        <f t="shared" si="8"/>
+        <v>490</v>
+      </c>
+      <c r="H90" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B91" s="57">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="7"/>
+        <v>59100</v>
+      </c>
+      <c r="D91">
+        <v>32100</v>
+      </c>
+      <c r="E91" s="16">
+        <v>100</v>
+      </c>
+      <c r="F91" s="16">
+        <v>60</v>
+      </c>
+      <c r="G91" s="16">
+        <f t="shared" si="8"/>
+        <v>492</v>
+      </c>
+      <c r="H91" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B92" s="57">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="7"/>
+        <v>59400</v>
+      </c>
+      <c r="D92">
+        <v>32100</v>
+      </c>
+      <c r="E92" s="16">
+        <v>100</v>
+      </c>
+      <c r="F92" s="16">
+        <v>60</v>
+      </c>
+      <c r="G92" s="16">
+        <f t="shared" si="8"/>
+        <v>495</v>
+      </c>
+      <c r="H92" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B93" s="57">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="7"/>
+        <v>59700</v>
+      </c>
+      <c r="D93">
+        <v>32100</v>
+      </c>
+      <c r="E93" s="16">
+        <v>100</v>
+      </c>
+      <c r="F93" s="16">
+        <v>60</v>
+      </c>
+      <c r="G93" s="16">
+        <f t="shared" si="8"/>
+        <v>497</v>
+      </c>
+      <c r="H93" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B94" s="57">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="7"/>
+        <v>60000</v>
+      </c>
+      <c r="D94">
+        <v>32100</v>
+      </c>
+      <c r="E94" s="16">
+        <v>100</v>
+      </c>
+      <c r="F94" s="16">
+        <v>60</v>
+      </c>
+      <c r="G94" s="16">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+      <c r="H94" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B95" s="57">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="7"/>
+        <v>60300</v>
+      </c>
+      <c r="D95">
+        <v>32100</v>
+      </c>
+      <c r="E95" s="16">
+        <v>100</v>
+      </c>
+      <c r="F95" s="16">
+        <v>60</v>
+      </c>
+      <c r="G95" s="16">
+        <f t="shared" si="8"/>
+        <v>502</v>
+      </c>
+      <c r="H95" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B96" s="57">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="7"/>
+        <v>60600</v>
+      </c>
+      <c r="D96">
+        <v>32100</v>
+      </c>
+      <c r="E96" s="16">
+        <v>100</v>
+      </c>
+      <c r="F96" s="16">
+        <v>60</v>
+      </c>
+      <c r="G96" s="16">
+        <f t="shared" si="8"/>
+        <v>505</v>
+      </c>
+      <c r="H96" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B97" s="57">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="7"/>
+        <v>60900</v>
+      </c>
+      <c r="D97">
+        <v>32100</v>
+      </c>
+      <c r="E97" s="16">
+        <v>100</v>
+      </c>
+      <c r="F97" s="16">
+        <v>60</v>
+      </c>
+      <c r="G97" s="16">
+        <f t="shared" si="8"/>
+        <v>507</v>
+      </c>
+      <c r="H97" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B98" s="57">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="7"/>
+        <v>61200</v>
+      </c>
+      <c r="D98">
+        <v>32100</v>
+      </c>
+      <c r="E98" s="16">
+        <v>100</v>
+      </c>
+      <c r="F98" s="16">
+        <v>60</v>
+      </c>
+      <c r="G98" s="16">
+        <f t="shared" si="8"/>
+        <v>510</v>
+      </c>
+      <c r="H98" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B99" s="57">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="7"/>
+        <v>61500</v>
+      </c>
+      <c r="D99">
+        <v>32100</v>
+      </c>
+      <c r="E99" s="16">
+        <v>100</v>
+      </c>
+      <c r="F99" s="16">
+        <v>60</v>
+      </c>
+      <c r="G99" s="16">
+        <f t="shared" si="8"/>
+        <v>512</v>
+      </c>
+      <c r="H99" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B100" s="57">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="7"/>
+        <v>61800</v>
+      </c>
+      <c r="D100">
+        <v>32100</v>
+      </c>
+      <c r="E100" s="16">
+        <v>100</v>
+      </c>
+      <c r="F100" s="16">
+        <v>60</v>
+      </c>
+      <c r="G100" s="16">
+        <f t="shared" si="8"/>
+        <v>515</v>
+      </c>
+      <c r="H100" s="57">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B101" s="57">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="7"/>
+        <v>62100</v>
+      </c>
+      <c r="D101">
+        <v>32100</v>
+      </c>
+      <c r="E101" s="16">
+        <v>100</v>
+      </c>
+      <c r="F101" s="16">
+        <v>60</v>
+      </c>
+      <c r="G101" s="16">
+        <f t="shared" si="8"/>
+        <v>517</v>
+      </c>
+      <c r="H101" s="57">
+        <v>5400</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12458,7 +14021,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="62" t="s">
         <v>93</v>
       </c>
       <c r="B9" t="s">
@@ -12469,13 +14032,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
+      <c r="A10" s="62"/>
       <c r="B10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
+      <c r="A11" s="62"/>
       <c r="B11" t="s">
         <v>95</v>
       </c>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -6864,8 +6864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8700,7 +8700,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8770,7 +8770,7 @@
         <v>11001</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>500000</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -9262,8 +9262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9343,7 +9343,7 @@
         <v>637</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="2">F3*2*E3*2.5</f>
+        <f t="shared" ref="D3:D63" si="2">F3*2*E3*2.5</f>
         <v>595</v>
       </c>
       <c r="E3" s="16">
@@ -9389,7 +9389,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="57">
-        <f t="shared" ref="H4:H67" si="5">_xlfn.FLOOR.MATH(D4/6)</f>
+        <f t="shared" ref="H4:H61" si="5">_xlfn.FLOOR.MATH(D4/6)</f>
         <v>174</v>
       </c>
       <c r="AA4" s="55"/>
@@ -11469,7 +11469,7 @@
         <v>32100</v>
       </c>
       <c r="E66" s="16">
-        <f t="shared" ref="E66:E101" si="6">_xlfn.FLOOR.MATH(B66*B66*(-0.0372) + 4.0372*B66)</f>
+        <f t="shared" ref="E66:E71" si="6">_xlfn.FLOOR.MATH(B66*B66*(-0.0372) + 4.0372*B66)</f>
         <v>105</v>
       </c>
       <c r="F66" s="16">

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="529">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1494,10 +1494,6 @@
     <t>halloween_bone</t>
   </si>
   <si>
-    <t>0,40,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骷髅将军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1908,6 +1904,43 @@
   </si>
   <si>
     <t>平均伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood_servant</t>
+  </si>
+  <si>
+    <t>0,0,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人盗贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnoll_berzerker</t>
+  </si>
+  <si>
+    <t>ghost_beheader</t>
+  </si>
+  <si>
+    <t>恶魔首领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,70,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,50,50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2295,7 +2328,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2779,7 +2811,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3286,7 +3317,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3770,7 +3800,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6862,10 +6891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6889,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -6916,10 +6945,10 @@
         <v>398</v>
       </c>
       <c r="M1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -6960,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -6968,10 +6997,10 @@
         <v>200002</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>426</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>427</v>
       </c>
       <c r="D3" s="40">
         <v>20101</v>
@@ -7001,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -7009,10 +7038,10 @@
         <v>200003</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>486</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>487</v>
       </c>
       <c r="D4" s="40">
         <v>20101</v>
@@ -7042,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -7050,10 +7079,10 @@
         <v>200004</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D5" s="40">
         <v>20101</v>
@@ -7083,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -7091,10 +7120,10 @@
         <v>200005</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D6" s="40">
         <v>20101</v>
@@ -7124,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -7165,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -7173,10 +7202,10 @@
         <v>200007</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D8" s="40">
         <v>20101</v>
@@ -7206,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -7247,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -7255,10 +7284,10 @@
         <v>200009</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>496</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>497</v>
       </c>
       <c r="D10" s="40">
         <v>20101</v>
@@ -7270,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>11</v>
@@ -7288,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -7296,10 +7325,10 @@
         <v>200010</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D11" s="40">
         <v>20101</v>
@@ -7311,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>11</v>
@@ -7329,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -7337,10 +7366,10 @@
         <v>200011</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D12" s="40">
         <v>20101</v>
@@ -7370,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -7378,10 +7407,10 @@
         <v>200012</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D13" s="40">
         <v>20101</v>
@@ -7393,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>11</v>
@@ -7411,7 +7440,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -7419,10 +7448,10 @@
         <v>200013</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D14" s="40">
         <v>20101</v>
@@ -7434,7 +7463,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>11</v>
@@ -7452,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
@@ -7466,7 +7495,7 @@
         <v>396</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E15" s="38">
         <v>500</v>
@@ -7475,7 +7504,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>11</v>
@@ -7493,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -7534,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -7542,7 +7571,7 @@
         <v>200016</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>405</v>
@@ -7557,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>406</v>
+        <v>519</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>11</v>
@@ -7575,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -7583,10 +7612,10 @@
         <v>200017</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D18" s="49">
         <v>20101</v>
@@ -7616,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -7624,10 +7653,10 @@
         <v>200018</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D19" s="49">
         <v>20101</v>
@@ -7657,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -7665,10 +7694,10 @@
         <v>200019</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D20" s="49">
         <v>20101</v>
@@ -7698,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -7706,10 +7735,10 @@
         <v>200020</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D21" s="49">
         <v>20101</v>
@@ -7721,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>11</v>
@@ -7739,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -7747,10 +7776,10 @@
         <v>200021</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D22" s="49">
         <v>20101</v>
@@ -7762,7 +7791,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>11</v>
@@ -7780,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7788,10 +7817,10 @@
         <v>200022</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D23" s="43">
         <v>20101</v>
@@ -7821,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7829,10 +7858,10 @@
         <v>200023</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>455</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>456</v>
       </c>
       <c r="D24" s="43">
         <v>20101</v>
@@ -7844,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>11</v>
@@ -7862,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7870,10 +7899,10 @@
         <v>200024</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D25" s="43">
         <v>20101</v>
@@ -7903,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7944,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7952,10 +7981,10 @@
         <v>200026</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>424</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>425</v>
       </c>
       <c r="D27" s="43">
         <v>20101</v>
@@ -7967,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>11</v>
@@ -7985,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -7993,10 +8022,10 @@
         <v>200027</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="D28" s="51">
         <v>20101</v>
@@ -8008,7 +8037,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>11</v>
@@ -8026,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8034,10 +8063,10 @@
         <v>200028</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="D29" s="51">
         <v>20101</v>
@@ -8049,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>11</v>
@@ -8067,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8075,10 +8104,10 @@
         <v>200029</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D30" s="51">
         <v>20101</v>
@@ -8090,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>11</v>
@@ -8108,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8116,10 +8145,10 @@
         <v>200030</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D31" s="51">
         <v>20101</v>
@@ -8149,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8157,10 +8186,10 @@
         <v>200031</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="D32" s="51">
         <v>20101</v>
@@ -8190,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8198,10 +8227,10 @@
         <v>200032</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="D33" s="51">
         <v>20101</v>
@@ -8213,7 +8242,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>11</v>
@@ -8231,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8239,10 +8268,10 @@
         <v>200033</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D34" s="51">
         <v>20101</v>
@@ -8254,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>11</v>
@@ -8272,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -8280,10 +8309,10 @@
         <v>200034</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>433</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>434</v>
       </c>
       <c r="D35" s="53">
         <v>20101</v>
@@ -8295,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>11</v>
@@ -8313,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -8321,10 +8350,10 @@
         <v>200035</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>436</v>
       </c>
       <c r="D36" s="53">
         <v>20101</v>
@@ -8354,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -8362,10 +8391,10 @@
         <v>200036</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>437</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>438</v>
       </c>
       <c r="D37" s="53">
         <v>20101</v>
@@ -8395,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -8403,10 +8432,10 @@
         <v>200037</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D38" s="53">
         <v>20101</v>
@@ -8418,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="54" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>11</v>
@@ -8436,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -8444,10 +8473,10 @@
         <v>200038</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D39" s="53">
         <v>20101</v>
@@ -8477,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -8485,10 +8514,10 @@
         <v>200039</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D40" s="53">
         <v>20101</v>
@@ -8500,7 +8529,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>11</v>
@@ -8521,7 +8550,7 @@
         <v>1002</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -8529,10 +8558,10 @@
         <v>200040</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D41" s="53">
         <v>20101</v>
@@ -8544,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>11</v>
@@ -8562,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -8570,10 +8599,10 @@
         <v>200041</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D42" s="53">
         <v>20101</v>
@@ -8603,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -8611,10 +8640,10 @@
         <v>200042</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>475</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>476</v>
       </c>
       <c r="D43" s="53">
         <v>20101</v>
@@ -8626,7 +8655,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="54" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>11</v>
@@ -8644,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -8652,10 +8681,10 @@
         <v>200043</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D44" s="53">
         <v>20101</v>
@@ -8667,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>11</v>
@@ -8685,6 +8714,129 @@
         <v>0</v>
       </c>
       <c r="N44" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="38">
+        <v>200044</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="D45" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E45" s="38">
+        <v>60</v>
+      </c>
+      <c r="F45" s="38">
+        <v>1</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J45" s="38">
+        <v>10</v>
+      </c>
+      <c r="K45" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="L45" s="38">
+        <v>0</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="38">
+        <v>200045</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="D46" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E46" s="38">
+        <v>300</v>
+      </c>
+      <c r="F46" s="38">
+        <v>1</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J46" s="38">
+        <v>4</v>
+      </c>
+      <c r="K46" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="L46" s="38">
+        <v>0</v>
+      </c>
+      <c r="N46" s="38" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="38">
+        <v>200046</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="D47">
+        <v>20301</v>
+      </c>
+      <c r="E47" s="38">
+        <v>600</v>
+      </c>
+      <c r="F47" s="38">
+        <v>2</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J47" s="38">
+        <v>3</v>
+      </c>
+      <c r="K47" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="L47" s="38">
+        <v>0</v>
+      </c>
+      <c r="N47" s="38" t="s">
         <v>504</v>
       </c>
     </row>
@@ -8699,8 +8851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8764,19 +8916,19 @@
         <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D2">
-        <v>11001</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>500000</v>
+        <v>200</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>528</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -8814,7 +8966,7 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -8843,10 +8995,10 @@
         <v>100003</v>
       </c>
       <c r="B4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" t="s">
         <v>471</v>
-      </c>
-      <c r="C4" t="s">
-        <v>472</v>
       </c>
       <c r="D4">
         <v>11001</v>
@@ -8855,7 +9007,7 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -8873,7 +9025,7 @@
         <v>150</v>
       </c>
       <c r="L4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M4" t="s">
         <v>383</v>
@@ -8896,7 +9048,7 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -9282,25 +9434,25 @@
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B1" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>518</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>519</v>
       </c>
       <c r="J1" s="16"/>
       <c r="AA1" s="55"/>
@@ -11351,7 +11503,7 @@
         <v>5400</v>
       </c>
       <c r="L63" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M63">
         <v>130</v>
@@ -11395,7 +11547,7 @@
         <v>5400</v>
       </c>
       <c r="L64" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M64">
         <f>130/4</f>
@@ -11440,7 +11592,7 @@
         <v>5400</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
@@ -11645,7 +11797,7 @@
         <v>5400</v>
       </c>
       <c r="P70" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q70" s="11"/>
       <c r="R70" s="10"/>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="532">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1941,6 +1941,17 @@
   </si>
   <si>
     <t>0,0,50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elfsoldier</t>
+  </si>
+  <si>
+    <t>双刀卫士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小距離</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2071,7 +2082,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2257,6 +2268,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6891,10 +6905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6905,9 +6919,10 @@
     <col min="7" max="7" width="13.875" style="44" customWidth="1"/>
     <col min="11" max="11" width="9" style="35"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6950,8 +6965,11 @@
       <c r="N1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="38">
         <v>200001</v>
       </c>
@@ -6991,8 +7009,11 @@
       <c r="N2" s="38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O2" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38">
         <v>200002</v>
       </c>
@@ -7032,8 +7053,11 @@
       <c r="N3" s="38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O3" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="38">
         <v>200003</v>
       </c>
@@ -7073,8 +7097,11 @@
       <c r="N4" s="38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O4" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="38">
         <v>200004</v>
       </c>
@@ -7114,8 +7141,11 @@
       <c r="N5" s="38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O5" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="38">
         <v>200005</v>
       </c>
@@ -7155,8 +7185,11 @@
       <c r="N6" s="38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O6" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="38">
         <v>200006</v>
       </c>
@@ -7196,8 +7229,11 @@
       <c r="N7" s="38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O7" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
         <v>200007</v>
       </c>
@@ -7237,8 +7273,11 @@
       <c r="N8" s="38" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="O8" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="38">
         <v>200008</v>
       </c>
@@ -7278,8 +7317,11 @@
       <c r="N9" s="38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O9" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="38">
         <v>200009</v>
       </c>
@@ -7319,8 +7361,11 @@
       <c r="N10" s="38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O10" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38">
         <v>200010</v>
       </c>
@@ -7360,8 +7405,11 @@
       <c r="N11" s="38" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O11" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38">
         <v>200011</v>
       </c>
@@ -7401,8 +7449,11 @@
       <c r="N12" s="38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O12" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38">
         <v>200012</v>
       </c>
@@ -7442,8 +7493,11 @@
       <c r="N13" s="38" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O13" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="38">
         <v>200013</v>
       </c>
@@ -7483,8 +7537,11 @@
       <c r="N14" s="38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O14" s="38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="38">
         <v>200014</v>
       </c>
@@ -7524,8 +7581,11 @@
       <c r="N15" s="38" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O15" s="38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>200015</v>
       </c>
@@ -7565,8 +7625,11 @@
       <c r="N16" s="15" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O16" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>200016</v>
       </c>
@@ -7606,8 +7669,11 @@
       <c r="N17" s="15" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O17" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>200017</v>
       </c>
@@ -7647,8 +7713,11 @@
       <c r="N18" s="15" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O18" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>200018</v>
       </c>
@@ -7688,8 +7757,11 @@
       <c r="N19" s="15" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O19" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>200019</v>
       </c>
@@ -7729,8 +7801,11 @@
       <c r="N20" s="15" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O20" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>200020</v>
       </c>
@@ -7770,8 +7845,11 @@
       <c r="N21" s="15" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O21" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>200021</v>
       </c>
@@ -7811,8 +7889,11 @@
       <c r="N22" s="15" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O22" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>200022</v>
       </c>
@@ -7852,8 +7933,11 @@
       <c r="N23" s="13" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O23" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>200023</v>
       </c>
@@ -7893,8 +7977,11 @@
       <c r="N24" s="13" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O24" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>200024</v>
       </c>
@@ -7934,8 +8021,11 @@
       <c r="N25" s="13" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O25" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>200025</v>
       </c>
@@ -7975,8 +8065,11 @@
       <c r="N26" s="13" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O26" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>200026</v>
       </c>
@@ -8016,8 +8109,11 @@
       <c r="N27" s="13" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O27" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>200027</v>
       </c>
@@ -8057,8 +8153,11 @@
       <c r="N28" s="7" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O28" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>200028</v>
       </c>
@@ -8098,8 +8197,11 @@
       <c r="N29" s="7" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O29" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>200029</v>
       </c>
@@ -8139,8 +8241,11 @@
       <c r="N30" s="7" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O30" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>200030</v>
       </c>
@@ -8180,8 +8285,11 @@
       <c r="N31" s="7" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O31" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>200031</v>
       </c>
@@ -8221,8 +8329,11 @@
       <c r="N32" s="7" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O32" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>200032</v>
       </c>
@@ -8262,8 +8373,11 @@
       <c r="N33" s="7" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O33" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>200033</v>
       </c>
@@ -8303,8 +8417,11 @@
       <c r="N34" s="7" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O34" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11">
         <v>200034</v>
       </c>
@@ -8344,8 +8461,11 @@
       <c r="N35" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O35" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11">
         <v>200035</v>
       </c>
@@ -8385,8 +8505,11 @@
       <c r="N36" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O36" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11">
         <v>200036</v>
       </c>
@@ -8426,8 +8549,11 @@
       <c r="N37" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O37" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>200037</v>
       </c>
@@ -8467,8 +8593,11 @@
       <c r="N38" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O38" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11">
         <v>200038</v>
       </c>
@@ -8508,8 +8637,11 @@
       <c r="N39" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O39" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11">
         <v>200039</v>
       </c>
@@ -8547,13 +8679,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O40" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11">
         <v>200040</v>
       </c>
@@ -8593,8 +8728,11 @@
       <c r="N41" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O41" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11">
         <v>200041</v>
       </c>
@@ -8634,8 +8772,11 @@
       <c r="N42" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O42" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11">
         <v>200042</v>
       </c>
@@ -8675,8 +8816,11 @@
       <c r="N43" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O43" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11">
         <v>200043</v>
       </c>
@@ -8716,8 +8860,11 @@
       <c r="N44" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O44" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="38">
         <v>200044</v>
       </c>
@@ -8757,8 +8904,11 @@
       <c r="N45" s="38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O45" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="38">
         <v>200045</v>
       </c>
@@ -8798,8 +8948,11 @@
       <c r="N46" s="38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O46" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="38">
         <v>200046</v>
       </c>
@@ -8838,6 +8991,53 @@
       </c>
       <c r="N47" s="38" t="s">
         <v>504</v>
+      </c>
+      <c r="O47" s="38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="38">
+        <v>200047</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>529</v>
+      </c>
+      <c r="D48" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E48" s="38">
+        <v>60</v>
+      </c>
+      <c r="F48" s="38">
+        <v>1</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="38">
+        <v>1001</v>
+      </c>
+      <c r="J48" s="38">
+        <v>4</v>
+      </c>
+      <c r="K48" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="L48" s="38">
+        <v>0</v>
+      </c>
+      <c r="N48" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="O48" s="38">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -8851,8 +9051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8919,7 +9119,7 @@
         <v>473</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>11001</v>
       </c>
       <c r="E2">
         <v>200</v>
@@ -14173,7 +14373,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>93</v>
       </c>
       <c r="B9" t="s">
@@ -14184,13 +14384,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
+      <c r="A10" s="63"/>
       <c r="B10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
       <c r="B11" t="s">
         <v>95</v>
       </c>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="538">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1952,6 +1952,29 @@
   </si>
   <si>
     <t>最小距離</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1</t>
+  </si>
+  <si>
+    <t>1001,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003,20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6905,24 +6928,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="28.375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="37" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="44" customWidth="1"/>
-    <col min="11" max="11" width="9" style="35"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="44" customWidth="1"/>
+    <col min="10" max="10" width="9" style="16"/>
+    <col min="12" max="12" width="9" style="35"/>
+    <col min="13" max="13" width="4.75" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6938,38 +6964,41 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>357</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>398</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>451</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>502</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="38">
         <v>200001</v>
       </c>
@@ -6985,35 +7014,38 @@
       <c r="E2" s="38">
         <v>999999999</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="40">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="38">
         <v>1</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="H2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="I2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J2" s="38">
+      <c r="J2" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="K2" s="38">
         <v>0</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="L2" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="L2" s="38">
+      <c r="M2" s="38">
         <v>0</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="O2" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O2" s="38">
+      <c r="P2" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38">
         <v>200002</v>
       </c>
@@ -7029,35 +7061,38 @@
       <c r="E3" s="38">
         <v>10</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="40">
+        <v>3</v>
+      </c>
+      <c r="G3" s="38">
         <v>1</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="H3" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="I3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J3" s="38">
+      <c r="J3" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="K3" s="38">
         <v>4</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="L3" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L3" s="38">
+      <c r="M3" s="38">
         <v>0</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="O3" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O3" s="38">
+      <c r="P3" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="38">
         <v>200003</v>
       </c>
@@ -7073,35 +7108,38 @@
       <c r="E4" s="38">
         <v>30</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="40">
+        <v>3</v>
+      </c>
+      <c r="G4" s="38">
         <v>1</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="H4" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="I4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J4" s="38">
+      <c r="J4" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K4" s="38">
         <v>4</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="L4" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L4" s="38">
+      <c r="M4" s="38">
         <v>0</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="O4" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O4" s="38">
+      <c r="P4" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="38">
         <v>200004</v>
       </c>
@@ -7117,35 +7155,38 @@
       <c r="E5" s="38">
         <v>60</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="40">
+        <v>3</v>
+      </c>
+      <c r="G5" s="38">
         <v>1</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="H5" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="I5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J5" s="38">
+      <c r="J5" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K5" s="38">
         <v>4</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="L5" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L5" s="38">
+      <c r="M5" s="38">
         <v>0</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="O5" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O5" s="38">
+      <c r="P5" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="38">
         <v>200005</v>
       </c>
@@ -7161,35 +7202,38 @@
       <c r="E6" s="38">
         <v>40</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="40">
+        <v>3</v>
+      </c>
+      <c r="G6" s="38">
         <v>1</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="H6" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="I6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J6" s="38">
+      <c r="J6" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K6" s="38">
         <v>4</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="L6" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L6" s="38">
+      <c r="M6" s="38">
         <v>0</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="O6" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O6" s="38">
+      <c r="P6" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="38">
         <v>200006</v>
       </c>
@@ -7205,35 +7249,38 @@
       <c r="E7" s="38">
         <v>40</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="40">
+        <v>3</v>
+      </c>
+      <c r="G7" s="38">
         <v>1</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="H7" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="I7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J7" s="38">
+      <c r="J7" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K7" s="38">
         <v>4</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="L7" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="L7" s="38">
+      <c r="M7" s="38">
         <v>0</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="O7" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O7" s="38">
+      <c r="P7" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
         <v>200007</v>
       </c>
@@ -7249,35 +7296,38 @@
       <c r="E8" s="38">
         <v>100</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="40">
+        <v>3</v>
+      </c>
+      <c r="G8" s="38">
         <v>1</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="H8" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="I8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J8" s="38">
+      <c r="J8" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K8" s="38">
         <v>4</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="L8" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="L8" s="38">
+      <c r="M8" s="38">
         <v>0</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="O8" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="O8" s="38">
+      <c r="P8" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="38">
         <v>200008</v>
       </c>
@@ -7293,35 +7343,38 @@
       <c r="E9" s="38">
         <v>100</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="40">
+        <v>3</v>
+      </c>
+      <c r="G9" s="38">
         <v>1</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="H9" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="I9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J9" s="38">
+      <c r="J9" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K9" s="38">
         <v>4</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="L9" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L9" s="38">
+      <c r="M9" s="38">
         <v>0</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="O9" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O9" s="38">
+      <c r="P9" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="38">
         <v>200009</v>
       </c>
@@ -7337,35 +7390,38 @@
       <c r="E10" s="38">
         <v>150</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="40">
+        <v>3</v>
+      </c>
+      <c r="G10" s="38">
         <v>1</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="H10" s="45" t="s">
         <v>498</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="I10" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="J10" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K10" s="38">
         <v>10</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="L10" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L10" s="38">
+      <c r="M10" s="38">
         <v>0</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="O10" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O10" s="38">
+      <c r="P10" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38">
         <v>200010</v>
       </c>
@@ -7381,35 +7437,38 @@
       <c r="E11" s="38">
         <v>100</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="40">
+        <v>3</v>
+      </c>
+      <c r="G11" s="38">
         <v>1</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="H11" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="I11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J11" s="38">
+      <c r="J11" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K11" s="38">
         <v>4</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="L11" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L11" s="38">
+      <c r="M11" s="38">
         <v>0</v>
       </c>
-      <c r="N11" s="38" t="s">
+      <c r="O11" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="O11" s="38">
+      <c r="P11" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38">
         <v>200011</v>
       </c>
@@ -7425,35 +7484,38 @@
       <c r="E12" s="38">
         <v>200</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="40">
+        <v>3</v>
+      </c>
+      <c r="G12" s="38">
         <v>1</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="H12" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="I12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J12" s="38">
+      <c r="J12" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K12" s="38">
         <v>4</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="L12" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L12" s="38">
+      <c r="M12" s="38">
         <v>0</v>
       </c>
-      <c r="N12" s="38" t="s">
+      <c r="O12" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O12" s="38">
+      <c r="P12" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38">
         <v>200012</v>
       </c>
@@ -7467,37 +7529,40 @@
         <v>20101</v>
       </c>
       <c r="E13" s="38">
-        <v>300</v>
-      </c>
-      <c r="F13" s="38">
+        <v>100</v>
+      </c>
+      <c r="F13" s="40">
+        <v>3</v>
+      </c>
+      <c r="G13" s="38">
         <v>1</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="H13" s="45" t="s">
         <v>497</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="I13" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J13" s="38">
+      <c r="J13" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="K13" s="38">
         <v>4</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="L13" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L13" s="38">
+      <c r="M13" s="38">
         <v>1</v>
       </c>
-      <c r="N13" s="38" t="s">
+      <c r="O13" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="O13" s="38">
+      <c r="P13" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="38">
         <v>200013</v>
       </c>
@@ -7511,37 +7576,40 @@
         <v>20101</v>
       </c>
       <c r="E14" s="38">
-        <v>400</v>
-      </c>
-      <c r="F14" s="38">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="40">
+        <v>3</v>
+      </c>
+      <c r="G14" s="38">
         <v>2</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="H14" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="I14" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J14" s="38">
+      <c r="J14" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="K14" s="38">
         <v>4</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="L14" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L14" s="38">
+      <c r="M14" s="38">
         <v>1</v>
       </c>
-      <c r="N14" s="38" t="s">
+      <c r="O14" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O14" s="38">
+      <c r="P14" s="38">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="38">
         <v>200014</v>
       </c>
@@ -7555,37 +7623,40 @@
         <v>414</v>
       </c>
       <c r="E15" s="38">
-        <v>500</v>
-      </c>
-      <c r="F15" s="38">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="40">
+        <v>3</v>
+      </c>
+      <c r="G15" s="38">
         <v>2</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="H15" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="I15" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J15" s="38">
+      <c r="J15" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="K15" s="38">
         <v>2</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="L15" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L15" s="38">
+      <c r="M15" s="38">
         <v>1</v>
       </c>
-      <c r="N15" s="38" t="s">
+      <c r="O15" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="O15" s="38">
+      <c r="P15" s="38">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>200015</v>
       </c>
@@ -7601,35 +7672,38 @@
       <c r="E16" s="15">
         <v>10</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="40">
+        <v>3</v>
+      </c>
+      <c r="G16" s="15">
         <v>1</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="H16" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="15">
-        <v>1001</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="J16" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="K16" s="15">
         <v>4</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="L16" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="L16" s="15">
+      <c r="M16" s="15">
         <v>0</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="O16" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="O16" s="38">
+      <c r="P16" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>200016</v>
       </c>
@@ -7645,35 +7719,38 @@
       <c r="E17" s="15">
         <v>100</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="40">
+        <v>3</v>
+      </c>
+      <c r="G17" s="15">
         <v>1</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="H17" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="15">
-        <v>1001</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="J17" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="K17" s="15">
         <v>2</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="L17" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="L17" s="15">
+      <c r="M17" s="15">
         <v>0</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="O17" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="O17" s="38">
+      <c r="P17" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>200017</v>
       </c>
@@ -7689,35 +7766,38 @@
       <c r="E18" s="15">
         <v>50</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="40">
+        <v>3</v>
+      </c>
+      <c r="G18" s="15">
         <v>1</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="H18" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="15">
-        <v>1001</v>
-      </c>
-      <c r="J18" s="15">
+      <c r="J18" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K18" s="15">
         <v>8</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="L18" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="L18" s="15">
+      <c r="M18" s="15">
         <v>0</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="O18" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="O18" s="38">
+      <c r="P18" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>200018</v>
       </c>
@@ -7733,35 +7813,38 @@
       <c r="E19" s="15">
         <v>20</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="40">
+        <v>3</v>
+      </c>
+      <c r="G19" s="15">
         <v>1</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="H19" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="15">
-        <v>1001</v>
-      </c>
-      <c r="J19" s="15">
+      <c r="J19" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K19" s="15">
         <v>4</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="L19" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="L19" s="15">
+      <c r="M19" s="15">
         <v>0</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="O19" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="O19" s="38">
+      <c r="P19" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>200019</v>
       </c>
@@ -7777,35 +7860,38 @@
       <c r="E20" s="15">
         <v>30</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="40">
+        <v>3</v>
+      </c>
+      <c r="G20" s="15">
         <v>1</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="H20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="15">
-        <v>1001</v>
-      </c>
-      <c r="J20" s="15">
+      <c r="J20" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K20" s="15">
         <v>4</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="L20" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="L20" s="15">
+      <c r="M20" s="15">
         <v>0</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="O20" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="O20" s="38">
+      <c r="P20" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>200020</v>
       </c>
@@ -7821,35 +7907,38 @@
       <c r="E21" s="15">
         <v>60</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="40">
+        <v>3</v>
+      </c>
+      <c r="G21" s="15">
         <v>1</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="H21" s="50" t="s">
         <v>479</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="15">
-        <v>1001</v>
-      </c>
-      <c r="J21" s="15">
+      <c r="J21" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K21" s="15">
         <v>4</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="L21" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="L21" s="15">
+      <c r="M21" s="15">
         <v>0</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="O21" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="O21" s="38">
+      <c r="P21" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>200021</v>
       </c>
@@ -7865,35 +7954,38 @@
       <c r="E22" s="15">
         <v>60</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="40">
+        <v>3</v>
+      </c>
+      <c r="G22" s="15">
         <v>2</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="H22" s="50" t="s">
         <v>482</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="15">
-        <v>1001</v>
-      </c>
-      <c r="J22" s="15">
+      <c r="J22" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K22" s="15">
         <v>4</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="L22" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="L22" s="15">
+      <c r="M22" s="15">
         <v>0</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="O22" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="O22" s="38">
+      <c r="P22" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>200022</v>
       </c>
@@ -7909,35 +8001,38 @@
       <c r="E23" s="13">
         <v>60</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="40">
+        <v>3</v>
+      </c>
+      <c r="G23" s="13">
         <v>1</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="H23" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="I23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="13">
-        <v>1001</v>
-      </c>
-      <c r="J23" s="13">
+      <c r="J23" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K23" s="13">
         <v>4</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="L23" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="L23" s="13">
+      <c r="M23" s="13">
         <v>0</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="O23" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="O23" s="38">
+      <c r="P23" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>200023</v>
       </c>
@@ -7953,35 +8048,38 @@
       <c r="E24" s="13">
         <v>60</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="40">
+        <v>3</v>
+      </c>
+      <c r="G24" s="13">
         <v>1</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="H24" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="I24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="13">
-        <v>1001</v>
-      </c>
-      <c r="J24" s="13">
+      <c r="J24" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K24" s="13">
         <v>15</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="L24" s="13">
+      <c r="M24" s="13">
         <v>0</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="O24" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="O24" s="38">
+      <c r="P24" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>200024</v>
       </c>
@@ -7997,35 +8095,38 @@
       <c r="E25" s="13">
         <v>60</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="40">
+        <v>3</v>
+      </c>
+      <c r="G25" s="13">
         <v>1</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="H25" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="I25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="13">
-        <v>1001</v>
-      </c>
-      <c r="J25" s="13">
+      <c r="J25" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K25" s="13">
         <v>4</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="L25" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="L25" s="13">
+      <c r="M25" s="13">
         <v>0</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="O25" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="O25" s="38">
+      <c r="P25" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>200025</v>
       </c>
@@ -8041,35 +8142,38 @@
       <c r="E26" s="13">
         <v>100</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="40">
+        <v>3</v>
+      </c>
+      <c r="G26" s="13">
         <v>1</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="H26" s="46" t="s">
         <v>404</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="I26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="13">
-        <v>1001</v>
-      </c>
-      <c r="J26" s="13">
+      <c r="J26" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K26" s="13">
         <v>8</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="L26" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="L26" s="13">
+      <c r="M26" s="13">
         <v>0</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="O26" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="O26" s="38">
+      <c r="P26" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>200026</v>
       </c>
@@ -8085,35 +8189,38 @@
       <c r="E27" s="13">
         <v>500</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="40">
+        <v>3</v>
+      </c>
+      <c r="G27" s="13">
         <v>1</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="46" t="s">
         <v>419</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="I27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="13">
-        <v>1001</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="J27" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K27" s="13">
         <v>4</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="L27" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="L27" s="13">
+      <c r="M27" s="13">
         <v>0</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="O27" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="O27" s="38">
+      <c r="P27" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>200027</v>
       </c>
@@ -8129,35 +8236,38 @@
       <c r="E28" s="7">
         <v>60</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="40">
+        <v>3</v>
+      </c>
+      <c r="G28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="H28" s="52" t="s">
         <v>429</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="7">
-        <v>1001</v>
-      </c>
-      <c r="J28" s="7">
+      <c r="J28" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K28" s="7">
         <v>4</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="L28" s="7">
+      <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="O28" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="O28" s="38">
+      <c r="P28" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>200028</v>
       </c>
@@ -8173,35 +8283,38 @@
       <c r="E29" s="7">
         <v>60</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="40">
+        <v>3</v>
+      </c>
+      <c r="G29" s="7">
         <v>1</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="H29" s="52" t="s">
         <v>440</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="7">
-        <v>1001</v>
-      </c>
-      <c r="J29" s="7">
+      <c r="J29" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K29" s="7">
         <v>4</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="L29" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M29" s="7">
         <v>0</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="O29" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="O29" s="38">
+      <c r="P29" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>200029</v>
       </c>
@@ -8217,35 +8330,38 @@
       <c r="E30" s="7">
         <v>60</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="40">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="H30" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="7">
-        <v>1001</v>
-      </c>
-      <c r="J30" s="7">
+      <c r="J30" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K30" s="7">
         <v>4</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="L30" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="7">
         <v>0</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="O30" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="O30" s="38">
+      <c r="P30" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>200030</v>
       </c>
@@ -8261,35 +8377,38 @@
       <c r="E31" s="7">
         <v>60</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="40">
+        <v>3</v>
+      </c>
+      <c r="G31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="H31" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="7">
-        <v>1001</v>
-      </c>
-      <c r="J31" s="7">
+      <c r="J31" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K31" s="7">
         <v>4</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="L31" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="L31" s="7">
+      <c r="M31" s="7">
         <v>0</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="O31" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="O31" s="38">
+      <c r="P31" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>200031</v>
       </c>
@@ -8305,35 +8424,38 @@
       <c r="E32" s="7">
         <v>60</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="40">
+        <v>3</v>
+      </c>
+      <c r="G32" s="7">
         <v>1</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="H32" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="7">
-        <v>1001</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="J32" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K32" s="7">
         <v>4</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="L32" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="L32" s="7">
+      <c r="M32" s="7">
         <v>0</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="O32" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="O32" s="38">
+      <c r="P32" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>200032</v>
       </c>
@@ -8349,35 +8471,38 @@
       <c r="E33" s="7">
         <v>500</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="40">
+        <v>3</v>
+      </c>
+      <c r="G33" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="H33" s="52" t="s">
         <v>422</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="7">
-        <v>1001</v>
-      </c>
-      <c r="J33" s="7">
+      <c r="J33" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K33" s="7">
         <v>4</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="L33" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="L33" s="7">
+      <c r="M33" s="7">
         <v>0</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="O33" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="O33" s="38">
+      <c r="P33" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>200033</v>
       </c>
@@ -8393,35 +8518,38 @@
       <c r="E34" s="7">
         <v>60</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="40">
+        <v>3</v>
+      </c>
+      <c r="G34" s="7">
         <v>1</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="H34" s="52" t="s">
         <v>429</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="7">
-        <v>1001</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="J34" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K34" s="7">
         <v>4</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="L34" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="L34" s="7">
+      <c r="M34" s="7">
         <v>0</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="O34" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="O34" s="38">
+      <c r="P34" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11">
         <v>200034</v>
       </c>
@@ -8437,35 +8565,38 @@
       <c r="E35" s="11">
         <v>60</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="40">
+        <v>3</v>
+      </c>
+      <c r="G35" s="11">
         <v>1</v>
       </c>
-      <c r="G35" s="54" t="s">
+      <c r="H35" s="54" t="s">
         <v>429</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="I35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J35" s="11">
+      <c r="J35" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K35" s="11">
         <v>4</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="L35" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="L35" s="11">
+      <c r="M35" s="11">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="O35" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="O35" s="38">
+      <c r="P35" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11">
         <v>200035</v>
       </c>
@@ -8481,35 +8612,38 @@
       <c r="E36" s="11">
         <v>60</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="40">
+        <v>3</v>
+      </c>
+      <c r="G36" s="11">
         <v>1</v>
       </c>
-      <c r="G36" s="54" t="s">
+      <c r="H36" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="I36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J36" s="11">
+      <c r="J36" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K36" s="11">
         <v>4</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="L36" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="L36" s="11">
+      <c r="M36" s="11">
         <v>0</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="O36" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="O36" s="38">
+      <c r="P36" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11">
         <v>200036</v>
       </c>
@@ -8525,35 +8659,38 @@
       <c r="E37" s="11">
         <v>60</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="40">
+        <v>3</v>
+      </c>
+      <c r="G37" s="11">
         <v>1</v>
       </c>
-      <c r="G37" s="54" t="s">
+      <c r="H37" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="I37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J37" s="11">
+      <c r="J37" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K37" s="11">
         <v>4</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="L37" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="L37" s="11">
+      <c r="M37" s="11">
         <v>0</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="O37" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="O37" s="38">
+      <c r="P37" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>200037</v>
       </c>
@@ -8569,35 +8706,38 @@
       <c r="E38" s="11">
         <v>60</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="40">
+        <v>3</v>
+      </c>
+      <c r="G38" s="11">
         <v>1</v>
       </c>
-      <c r="G38" s="54" t="s">
+      <c r="H38" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="I38" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J38" s="11">
+      <c r="J38" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K38" s="11">
         <v>4</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="L38" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="L38" s="11">
+      <c r="M38" s="11">
         <v>0</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="O38" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="O38" s="38">
+      <c r="P38" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11">
         <v>200038</v>
       </c>
@@ -8613,35 +8753,38 @@
       <c r="E39" s="11">
         <v>60</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="40">
+        <v>3</v>
+      </c>
+      <c r="G39" s="11">
         <v>1</v>
       </c>
-      <c r="G39" s="54" t="s">
+      <c r="H39" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="I39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J39" s="11">
+      <c r="J39" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K39" s="11">
         <v>4</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="L39" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="L39" s="11">
+      <c r="M39" s="11">
         <v>0</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="O39" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="O39" s="38">
+      <c r="P39" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11">
         <v>200039</v>
       </c>
@@ -8657,38 +8800,41 @@
       <c r="E40" s="11">
         <v>60</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="40">
+        <v>3</v>
+      </c>
+      <c r="G40" s="11">
         <v>1</v>
       </c>
-      <c r="G40" s="54" t="s">
+      <c r="H40" s="54" t="s">
         <v>507</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J40" s="11">
+      <c r="J40" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K40" s="11">
         <v>4</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="L40" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="L40" s="11">
+      <c r="M40" s="11">
         <v>0</v>
       </c>
-      <c r="M40" s="11">
+      <c r="N40" s="11">
         <v>2001</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="O40" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="O40" s="38">
+      <c r="P40" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11">
         <v>200040</v>
       </c>
@@ -8704,35 +8850,38 @@
       <c r="E41" s="11">
         <v>60</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="40">
+        <v>3</v>
+      </c>
+      <c r="G41" s="11">
         <v>1</v>
       </c>
-      <c r="G41" s="54" t="s">
+      <c r="H41" s="54" t="s">
         <v>442</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="I41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J41" s="11">
+      <c r="J41" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K41" s="11">
         <v>4</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="L41" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="L41" s="11">
+      <c r="M41" s="11">
         <v>0</v>
       </c>
-      <c r="N41" s="11" t="s">
+      <c r="O41" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="O41" s="38">
+      <c r="P41" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11">
         <v>200041</v>
       </c>
@@ -8748,35 +8897,38 @@
       <c r="E42" s="11">
         <v>60</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="40">
+        <v>3</v>
+      </c>
+      <c r="G42" s="11">
         <v>1</v>
       </c>
-      <c r="G42" s="54" t="s">
+      <c r="H42" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="I42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J42" s="11">
+      <c r="J42" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K42" s="11">
         <v>4</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="L42" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="L42" s="11">
+      <c r="M42" s="11">
         <v>0</v>
       </c>
-      <c r="N42" s="11" t="s">
+      <c r="O42" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="O42" s="38">
+      <c r="P42" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11">
         <v>200042</v>
       </c>
@@ -8792,35 +8944,38 @@
       <c r="E43" s="11">
         <v>60</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="40">
+        <v>3</v>
+      </c>
+      <c r="G43" s="11">
         <v>2</v>
       </c>
-      <c r="G43" s="54" t="s">
+      <c r="H43" s="54" t="s">
         <v>476</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="I43" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J43" s="11">
+      <c r="J43" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K43" s="11">
         <v>4</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="L43" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="L43" s="11">
+      <c r="M43" s="11">
         <v>0</v>
       </c>
-      <c r="N43" s="11" t="s">
+      <c r="O43" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="O43" s="38">
+      <c r="P43" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11">
         <v>200043</v>
       </c>
@@ -8836,35 +8991,38 @@
       <c r="E44" s="11">
         <v>60</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="40">
+        <v>3</v>
+      </c>
+      <c r="G44" s="11">
         <v>1</v>
       </c>
-      <c r="G44" s="54" t="s">
+      <c r="H44" s="54" t="s">
         <v>467</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="I44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="11">
-        <v>1001</v>
-      </c>
-      <c r="J44" s="11">
+      <c r="J44" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K44" s="11">
         <v>4</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="L44" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="L44" s="11">
+      <c r="M44" s="11">
         <v>0</v>
       </c>
-      <c r="N44" s="11" t="s">
+      <c r="O44" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="O44" s="38">
+      <c r="P44" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="38">
         <v>200044</v>
       </c>
@@ -8878,37 +9036,40 @@
         <v>20101</v>
       </c>
       <c r="E45" s="38">
-        <v>60</v>
-      </c>
-      <c r="F45" s="38">
+        <v>30</v>
+      </c>
+      <c r="F45" s="40">
+        <v>3</v>
+      </c>
+      <c r="G45" s="38">
         <v>1</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="H45" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="H45" s="38" t="s">
+      <c r="I45" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J45" s="38">
-        <v>10</v>
-      </c>
-      <c r="K45" s="39" t="s">
+      <c r="J45" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K45" s="38">
+        <v>15</v>
+      </c>
+      <c r="L45" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L45" s="38">
+      <c r="M45" s="38">
         <v>0</v>
       </c>
-      <c r="N45" s="38" t="s">
+      <c r="O45" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O45" s="38">
+      <c r="P45" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="38">
         <v>200045</v>
       </c>
@@ -8924,35 +9085,38 @@
       <c r="E46" s="38">
         <v>300</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="40">
+        <v>3</v>
+      </c>
+      <c r="G46" s="38">
         <v>1</v>
       </c>
-      <c r="G46" s="45" t="s">
+      <c r="H46" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="I46" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J46" s="38">
+      <c r="J46" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K46" s="38">
         <v>4</v>
       </c>
-      <c r="K46" s="39" t="s">
+      <c r="L46" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L46" s="38">
+      <c r="M46" s="38">
         <v>0</v>
       </c>
-      <c r="N46" s="38" t="s">
+      <c r="O46" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O46" s="38">
+      <c r="P46" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="38">
         <v>200046</v>
       </c>
@@ -8968,35 +9132,38 @@
       <c r="E47" s="38">
         <v>600</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="40">
+        <v>3</v>
+      </c>
+      <c r="G47" s="38">
         <v>2</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="H47" s="45" t="s">
         <v>527</v>
       </c>
-      <c r="H47" s="38" t="s">
+      <c r="I47" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J47" s="38">
+      <c r="J47" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K47" s="38">
         <v>3</v>
       </c>
-      <c r="K47" s="39" t="s">
+      <c r="L47" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L47" s="38">
+      <c r="M47" s="38">
         <v>0</v>
       </c>
-      <c r="N47" s="38" t="s">
+      <c r="O47" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="O47" s="38">
+      <c r="P47" s="38">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="38">
         <v>200047</v>
       </c>
@@ -9012,31 +9179,34 @@
       <c r="E48" s="38">
         <v>60</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="40">
+        <v>3</v>
+      </c>
+      <c r="G48" s="38">
         <v>1</v>
       </c>
-      <c r="G48" s="45" t="s">
+      <c r="H48" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="H48" s="38" t="s">
+      <c r="I48" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="38">
-        <v>1001</v>
-      </c>
-      <c r="J48" s="38">
+      <c r="J48" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K48" s="38">
         <v>4</v>
       </c>
-      <c r="K48" s="39" t="s">
+      <c r="L48" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="L48" s="38">
+      <c r="M48" s="38">
         <v>0</v>
       </c>
-      <c r="N48" s="38" t="s">
+      <c r="O48" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="O48" s="38">
+      <c r="P48" s="38">
         <v>40</v>
       </c>
     </row>
@@ -9049,10 +9219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9061,13 +9231,13 @@
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="24.625" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="30.75" customWidth="1"/>
-    <col min="13" max="13" width="55.5" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="30.75" customWidth="1"/>
+    <col min="14" max="14" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -9084,31 +9254,34 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>354</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>356</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>358</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>369</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -9127,29 +9300,32 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>528</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>120</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>150</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>370</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>100002</v>
       </c>
@@ -9168,29 +9344,32 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>120</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>250</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>371</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>100003</v>
       </c>
@@ -9209,29 +9388,32 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>120</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>150</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>472</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100004</v>
       </c>
@@ -9250,29 +9432,32 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>120</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>150</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>372</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>100005</v>
       </c>
@@ -9289,31 +9474,34 @@
         <v>50</v>
       </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>120</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>150</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>373</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>100006</v>
       </c>
@@ -9330,31 +9518,34 @@
         <v>50</v>
       </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>120</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>150</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>374</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>100007</v>
       </c>
@@ -9371,31 +9562,34 @@
         <v>50</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>120</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>150</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>375</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>100008</v>
       </c>
@@ -9412,31 +9606,34 @@
         <v>50</v>
       </c>
       <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>120</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>150</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>376</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>100009</v>
       </c>
@@ -9453,31 +9650,34 @@
         <v>50</v>
       </c>
       <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>120</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>150</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>377</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>100010</v>
       </c>
@@ -9494,31 +9694,34 @@
         <v>50</v>
       </c>
       <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>120</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>150</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>378</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>100011</v>
       </c>
@@ -9535,31 +9738,34 @@
         <v>50</v>
       </c>
       <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>12</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>120</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>150</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>379</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>100012</v>
       </c>
@@ -9576,32 +9782,35 @@
         <v>50</v>
       </c>
       <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>12</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>120</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>150</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>380</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N14" s="3"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -6930,8 +6930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7529,7 +7529,7 @@
         <v>20101</v>
       </c>
       <c r="E13" s="38">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="40">
         <v>3</v>
@@ -7976,7 +7976,7 @@
         <v>395</v>
       </c>
       <c r="M22" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="15" t="s">
         <v>503</v>
@@ -8140,7 +8140,7 @@
         <v>20101</v>
       </c>
       <c r="E26" s="13">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F26" s="40">
         <v>3</v>
@@ -8187,7 +8187,7 @@
         <v>20101</v>
       </c>
       <c r="E27" s="13">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="40">
         <v>3</v>
@@ -8211,7 +8211,7 @@
         <v>395</v>
       </c>
       <c r="M27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="13" t="s">
         <v>503</v>
@@ -8328,7 +8328,7 @@
         <v>20101</v>
       </c>
       <c r="E30" s="7">
-        <v>60</v>
+        <v>2000</v>
       </c>
       <c r="F30" s="40">
         <v>3</v>
@@ -8352,7 +8352,7 @@
         <v>395</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>503</v>
@@ -8516,7 +8516,7 @@
         <v>20101</v>
       </c>
       <c r="E34" s="7">
-        <v>60</v>
+        <v>2000</v>
       </c>
       <c r="F34" s="40">
         <v>3</v>
@@ -8704,7 +8704,7 @@
         <v>20101</v>
       </c>
       <c r="E38" s="11">
-        <v>60</v>
+        <v>2000</v>
       </c>
       <c r="F38" s="40">
         <v>3</v>
@@ -8728,7 +8728,7 @@
         <v>395</v>
       </c>
       <c r="M38" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>503</v>
@@ -8895,7 +8895,7 @@
         <v>20101</v>
       </c>
       <c r="E42" s="11">
-        <v>60</v>
+        <v>2000</v>
       </c>
       <c r="F42" s="40">
         <v>3</v>
@@ -8942,7 +8942,7 @@
         <v>20101</v>
       </c>
       <c r="E43" s="11">
-        <v>60</v>
+        <v>2000</v>
       </c>
       <c r="F43" s="40">
         <v>3</v>
@@ -8966,7 +8966,7 @@
         <v>395</v>
       </c>
       <c r="M43" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>503</v>
@@ -8989,7 +8989,7 @@
         <v>20101</v>
       </c>
       <c r="E44" s="11">
-        <v>60</v>
+        <v>2000</v>
       </c>
       <c r="F44" s="40">
         <v>3</v>
@@ -9013,7 +9013,7 @@
         <v>395</v>
       </c>
       <c r="M44" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>503</v>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="540">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1976,6 +1976,13 @@
   <si>
     <t>1003,20</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐龙战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saurian</t>
   </si>
 </sst>
 </file>
@@ -2105,7 +2112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2291,6 +2298,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6928,10 +6938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7124,7 +7134,7 @@
         <v>533</v>
       </c>
       <c r="K4" s="38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4" s="39" t="s">
         <v>395</v>
@@ -7153,10 +7163,10 @@
         <v>20101</v>
       </c>
       <c r="E5" s="38">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F5" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="38">
         <v>1</v>
@@ -7171,7 +7181,7 @@
         <v>533</v>
       </c>
       <c r="K5" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" s="39" t="s">
         <v>395</v>
@@ -7200,7 +7210,7 @@
         <v>20101</v>
       </c>
       <c r="E6" s="38">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F6" s="40">
         <v>3</v>
@@ -7218,7 +7228,7 @@
         <v>533</v>
       </c>
       <c r="K6" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L6" s="39" t="s">
         <v>395</v>
@@ -7247,7 +7257,7 @@
         <v>20101</v>
       </c>
       <c r="E7" s="38">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F7" s="40">
         <v>3</v>
@@ -7265,7 +7275,7 @@
         <v>533</v>
       </c>
       <c r="K7" s="38">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L7" s="39" t="s">
         <v>394</v>
@@ -7294,10 +7304,10 @@
         <v>20101</v>
       </c>
       <c r="E8" s="38">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F8" s="40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" s="38">
         <v>1</v>
@@ -7312,7 +7322,7 @@
         <v>533</v>
       </c>
       <c r="K8" s="38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L8" s="39" t="s">
         <v>394</v>
@@ -7341,10 +7351,10 @@
         <v>20101</v>
       </c>
       <c r="E9" s="38">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F9" s="40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G9" s="38">
         <v>1</v>
@@ -7388,10 +7398,10 @@
         <v>20101</v>
       </c>
       <c r="E10" s="38">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F10" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" s="38">
         <v>1</v>
@@ -7406,7 +7416,7 @@
         <v>533</v>
       </c>
       <c r="K10" s="38">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L10" s="39" t="s">
         <v>395</v>
@@ -7435,10 +7445,10 @@
         <v>20101</v>
       </c>
       <c r="E11" s="38">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F11" s="40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="38">
         <v>1</v>
@@ -7453,7 +7463,7 @@
         <v>533</v>
       </c>
       <c r="K11" s="38">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L11" s="39" t="s">
         <v>395</v>
@@ -7482,10 +7492,10 @@
         <v>20101</v>
       </c>
       <c r="E12" s="38">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="F12" s="40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="38">
         <v>1</v>
@@ -7500,7 +7510,7 @@
         <v>533</v>
       </c>
       <c r="K12" s="38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L12" s="39" t="s">
         <v>395</v>
@@ -7529,7 +7539,7 @@
         <v>20101</v>
       </c>
       <c r="E13" s="38">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F13" s="40">
         <v>3</v>
@@ -7576,10 +7586,10 @@
         <v>20101</v>
       </c>
       <c r="E14" s="38">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="F14" s="40">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G14" s="38">
         <v>2</v>
@@ -7623,10 +7633,10 @@
         <v>414</v>
       </c>
       <c r="E15" s="38">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="F15" s="40">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G15" s="38">
         <v>2</v>
@@ -9039,7 +9049,7 @@
         <v>30</v>
       </c>
       <c r="F45" s="40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G45" s="38">
         <v>1</v>
@@ -9086,7 +9096,7 @@
         <v>300</v>
       </c>
       <c r="F46" s="40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G46" s="38">
         <v>1</v>
@@ -9133,7 +9143,7 @@
         <v>600</v>
       </c>
       <c r="F47" s="40">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G47" s="38">
         <v>2</v>
@@ -9177,7 +9187,7 @@
         <v>20101</v>
       </c>
       <c r="E48" s="38">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F48" s="40">
         <v>3</v>
@@ -9195,7 +9205,7 @@
         <v>533</v>
       </c>
       <c r="K48" s="38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L48" s="39" t="s">
         <v>395</v>
@@ -9208,6 +9218,53 @@
       </c>
       <c r="P48" s="38">
         <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="38">
+        <v>200048</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>539</v>
+      </c>
+      <c r="D49" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E49" s="38">
+        <v>40000</v>
+      </c>
+      <c r="F49" s="40">
+        <v>40</v>
+      </c>
+      <c r="G49" s="38">
+        <v>1</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="K49" s="38">
+        <v>6</v>
+      </c>
+      <c r="L49" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="M49" s="38">
+        <v>1</v>
+      </c>
+      <c r="O49" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="P49" s="38">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -14582,7 +14639,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>93</v>
       </c>
       <c r="B9" t="s">
@@ -14593,13 +14650,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
+      <c r="A10" s="64"/>
       <c r="B10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="63"/>
+      <c r="A11" s="64"/>
       <c r="B11" t="s">
         <v>95</v>
       </c>

--- a/share/data/design/对象表.xlsx
+++ b/share/data/design/对象表.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="对象" sheetId="4" r:id="rId1"/>
     <sheet name="玩家" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId3"/>
-    <sheet name="技能分析" sheetId="7" r:id="rId4"/>
-    <sheet name="buff分析" sheetId="8" r:id="rId5"/>
-    <sheet name="力量提升元素" sheetId="9" r:id="rId6"/>
-    <sheet name="场景分析" sheetId="10" r:id="rId7"/>
-    <sheet name="角色" sheetId="11" r:id="rId8"/>
+    <sheet name="场景对象" sheetId="13" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId4"/>
+    <sheet name="技能分析" sheetId="7" r:id="rId5"/>
+    <sheet name="buff分析" sheetId="8" r:id="rId6"/>
+    <sheet name="力量提升元素" sheetId="9" r:id="rId7"/>
+    <sheet name="场景分析" sheetId="10" r:id="rId8"/>
+    <sheet name="角色" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="540">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2112,7 +2113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2308,6 +2309,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2375,6 +2379,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2858,6 +2863,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3364,6 +3370,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3847,6 +3854,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6940,8 +6948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7539,7 +7547,7 @@
         <v>20101</v>
       </c>
       <c r="E13" s="38">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="40">
         <v>3</v>
@@ -9279,7 +9287,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9877,6 +9885,173 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="M1" t="s">
+        <v>398</v>
+      </c>
+      <c r="N1" t="s">
+        <v>451</v>
+      </c>
+      <c r="O1" t="s">
+        <v>502</v>
+      </c>
+      <c r="P1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="38">
+        <v>300001</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="39">
+        <v>1002</v>
+      </c>
+      <c r="D2" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E2" s="38">
+        <v>9999</v>
+      </c>
+      <c r="F2" s="40">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="38">
+        <v>1</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="K2" s="38">
+        <v>0</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" s="38">
+        <v>0</v>
+      </c>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="P2" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="38">
+        <v>300002</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="40">
+        <v>20101</v>
+      </c>
+      <c r="E3" s="38">
+        <v>10</v>
+      </c>
+      <c r="F3" s="40">
+        <v>3</v>
+      </c>
+      <c r="G3" s="38">
+        <v>1</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="K3" s="38">
+        <v>4</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="M3" s="38">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="P3" s="38">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA101"/>
   <sheetViews>
@@ -13183,7 +13358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -13983,7 +14158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -14418,7 +14593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B21"/>
   <sheetViews>
@@ -14590,7 +14765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -14639,7 +14814,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>93</v>
       </c>
       <c r="B9" t="s">
@@ -14650,13 +14825,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
+      <c r="A10" s="65"/>
       <c r="B10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" t="s">
         <v>95</v>
       </c>
@@ -14692,7 +14867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B17"/>
   <sheetViews>
